--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="897">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3267,6 +3267,54 @@
   </si>
   <si>
     <t>E-17895</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-SALSAS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINA # 30</t>
+  </si>
+  <si>
+    <t>Nomina # 30</t>
+  </si>
+  <si>
+    <t>CHORIZO--TOSTADAS--TOCINETA JAMON</t>
+  </si>
+  <si>
+    <t>Maiz-pastor-quesos-longaniza-jamones-pollo-chistorra</t>
+  </si>
+  <si>
+    <t>Quesos--pollo-carbon-salchicha-pan</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-POLLO-SALSAS</t>
+  </si>
+  <si>
+    <t>MAIZ-QUESOS-JAMON-POLLO-SALCHICHA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-POSTRES</t>
+  </si>
+  <si>
+    <t>Albicia NOTA 1776</t>
+  </si>
+  <si>
+    <t>Albicia  NOTA 546</t>
+  </si>
+  <si>
+    <t>Albicia  NOTA 1169</t>
+  </si>
+  <si>
+    <t>Albicia  NOTA 2039</t>
+  </si>
+  <si>
+    <t>POLLO-CREMAS-JAM ONES</t>
+  </si>
+  <si>
+    <t>NOMINA # 31</t>
+  </si>
+  <si>
+    <t>NOMINA # 31 Y Vac. Rosa B</t>
   </si>
 </sst>
 </file>
@@ -5968,39 +6016,6 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6075,6 +6090,39 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9953,23 +10001,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9979,24 +10027,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="554" t="s">
+      <c r="R3" s="543" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10011,14 +10059,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10028,11 +10076,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="555"/>
+      <c r="R4" s="544"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11867,11 +11915,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11879,7 +11927,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11900,10 +11948,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11958,11 +12006,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -12387,26 +12435,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="573" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="574"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="575">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="576"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="567" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="567"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -12415,22 +12463,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="568" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="568"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="569" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="570"/>
-      <c r="K79" s="571">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="571"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -12471,11 +12519,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="572">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -12492,22 +12540,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="560" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="561"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="562" t="s">
+      <c r="I83" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="563"/>
-      <c r="K83" s="564">
+      <c r="J83" s="552"/>
+      <c r="K83" s="553">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="564"/>
+      <c r="L83" s="553"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -12654,6 +12702,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12670,12 +12724,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15074,23 +15122,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15100,21 +15148,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -15135,14 +15183,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15152,7 +15200,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -17212,11 +17260,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -17224,7 +17272,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -17257,10 +17305,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -17345,11 +17393,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17678,26 +17726,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="573" t="s">
+      <c r="H69" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="574"/>
+      <c r="I69" s="563"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="575">
+      <c r="K69" s="564">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="576"/>
+      <c r="L69" s="565"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="567" t="s">
+      <c r="D70" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="567"/>
+      <c r="E70" s="556"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -17706,23 +17754,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="568" t="s">
+      <c r="D71" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="568"/>
+      <c r="E71" s="557"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="569" t="s">
+      <c r="I71" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="570"/>
-      <c r="K71" s="571">
+      <c r="J71" s="559"/>
+      <c r="K71" s="560">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="571"/>
+      <c r="L71" s="560"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -17764,11 +17812,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="572">
+      <c r="K73" s="561">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="571"/>
+      <c r="L73" s="560"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -17785,22 +17833,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="560" t="s">
+      <c r="D75" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="561"/>
+      <c r="E75" s="550"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="562" t="s">
+      <c r="I75" s="551" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="563"/>
-      <c r="K75" s="564">
+      <c r="J75" s="552"/>
+      <c r="K75" s="553">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="564"/>
+      <c r="L75" s="553"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17948,12 +17996,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17970,6 +18012,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20342,8 +20390,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20369,23 +20417,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20395,21 +20443,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -20428,14 +20476,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20445,7 +20493,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -22519,9 +22567,15 @@
     </row>
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="403"/>
+      <c r="B49" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C49" s="93">
+        <v>5280</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>890</v>
+      </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
       <c r="G49" s="37"/>
@@ -22530,11 +22584,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -22542,7 +22596,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -22552,9 +22606,15 @@
     </row>
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="403"/>
+      <c r="B50" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C50" s="93">
+        <v>13441</v>
+      </c>
+      <c r="D50" s="102" t="s">
+        <v>891</v>
+      </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
       <c r="G50" s="37"/>
@@ -22563,10 +22623,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -22574,9 +22634,15 @@
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="114"/>
+      <c r="B51" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C51" s="93">
+        <v>9580</v>
+      </c>
+      <c r="D51" s="102" t="s">
+        <v>892</v>
+      </c>
       <c r="E51" s="104"/>
       <c r="F51" s="110"/>
       <c r="G51" s="37"/>
@@ -22592,9 +22658,15 @@
     </row>
     <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="114"/>
+      <c r="B52" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C52" s="93">
+        <v>5321</v>
+      </c>
+      <c r="D52" s="102" t="s">
+        <v>893</v>
+      </c>
       <c r="E52" s="104"/>
       <c r="F52" s="110"/>
       <c r="G52" s="37"/>
@@ -22621,11 +22693,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -22633,7 +22705,9 @@
       <c r="A54" s="31"/>
       <c r="B54" s="32"/>
       <c r="C54" s="93"/>
-      <c r="D54" s="114"/>
+      <c r="D54" s="114" t="s">
+        <v>11</v>
+      </c>
       <c r="E54" s="104"/>
       <c r="F54" s="110"/>
       <c r="G54" s="37"/>
@@ -22864,7 +22938,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>964976.7</v>
+        <v>998598.7</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -22906,50 +22980,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="573" t="s">
+      <c r="H69" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="574"/>
+      <c r="I69" s="563"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="575">
+      <c r="K69" s="564">
         <f>I67+L67</f>
         <v>594414.23</v>
       </c>
-      <c r="L69" s="576"/>
+      <c r="L69" s="565"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="567" t="s">
+      <c r="D70" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="567"/>
+      <c r="E70" s="556"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>2926596.0700000003</v>
+        <v>2892974.0700000003</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="568" t="s">
+      <c r="D71" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="568"/>
+      <c r="E71" s="557"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="569" t="s">
+      <c r="I71" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="570"/>
-      <c r="K71" s="571">
+      <c r="J71" s="559"/>
+      <c r="K71" s="560">
         <f>F73+F74+F75</f>
-        <v>4848289.01</v>
-      </c>
-      <c r="L71" s="571"/>
+        <v>4814667.01</v>
+      </c>
+      <c r="L71" s="560"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -22987,18 +23061,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>1872420.7000000002</v>
+        <v>1838798.7000000002</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="572">
+      <c r="K73" s="561">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="571"/>
+      <c r="L73" s="560"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -23019,22 +23093,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="560" t="s">
+      <c r="D75" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="561"/>
+      <c r="E75" s="550"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="562" t="s">
+      <c r="I75" s="551" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="563"/>
-      <c r="K75" s="564">
+      <c r="J75" s="552"/>
+      <c r="K75" s="553">
         <f>K71+K73</f>
-        <v>1716901.9699999997</v>
-      </c>
-      <c r="L75" s="564"/>
+        <v>1683279.9699999997</v>
+      </c>
+      <c r="L75" s="553"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -23179,12 +23253,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23201,10 +23269,17 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -25647,8 +25722,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25674,23 +25749,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -25700,21 +25775,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -25733,14 +25808,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -25750,7 +25825,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -25763,29 +25838,45 @@
       <c r="B5" s="32">
         <v>45136</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="33">
+        <v>10268.5</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>881</v>
+      </c>
       <c r="E5" s="35">
         <v>45136</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="36">
+        <v>179455</v>
+      </c>
       <c r="G5" s="37"/>
       <c r="H5" s="38">
         <v>45136</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="532"/>
-      <c r="L5" s="13"/>
+      <c r="I5" s="39">
+        <v>6813</v>
+      </c>
+      <c r="J5" s="40">
+        <v>45136</v>
+      </c>
+      <c r="K5" s="532" t="s">
+        <v>882</v>
+      </c>
+      <c r="L5" s="13">
+        <f>21863+400</f>
+        <v>22263</v>
+      </c>
       <c r="M5" s="42">
-        <v>0</v>
+        <f>77401.5</f>
+        <v>77401.5</v>
       </c>
       <c r="N5" s="43">
-        <v>0</v>
+        <v>62709</v>
       </c>
       <c r="P5" s="44">
         <f t="shared" ref="P5:P33" si="0">N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>179455</v>
       </c>
       <c r="Q5" s="45">
         <f>P5-F5</f>
@@ -25802,33 +25893,40 @@
       <c r="B6" s="32">
         <v>45137</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="33">
+        <v>17859</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>884</v>
+      </c>
       <c r="E6" s="35">
         <v>45137</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <v>110520</v>
+      </c>
       <c r="G6" s="37"/>
       <c r="H6" s="38">
         <v>45137</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="39">
+        <v>430</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="65"/>
       <c r="L6" s="49"/>
       <c r="M6" s="42">
-        <v>0</v>
+        <v>40226</v>
       </c>
       <c r="N6" s="43">
-        <v>0</v>
+        <v>52005</v>
       </c>
       <c r="P6" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="45">
-        <f t="shared" ref="Q6:Q47" si="1">P6-F6</f>
-        <v>0</v>
+        <v>110520</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>149</v>
       </c>
       <c r="R6" s="46">
         <v>0</v>
@@ -25845,31 +25943,41 @@
       <c r="B7" s="32">
         <v>45138</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="33">
+        <v>33622</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>885</v>
+      </c>
       <c r="E7" s="35">
         <v>45138</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="36">
+        <v>152870</v>
+      </c>
       <c r="G7" s="37"/>
       <c r="H7" s="38">
         <v>45138</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="39">
+        <v>1320</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="65"/>
       <c r="L7" s="49"/>
       <c r="M7" s="42">
-        <v>0</v>
+        <f>58478+1366+1110</f>
+        <v>60954</v>
       </c>
       <c r="N7" s="43">
-        <v>0</v>
+        <v>56974</v>
       </c>
       <c r="P7" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>152870</v>
       </c>
       <c r="Q7" s="45">
+        <f t="shared" ref="Q6:Q39" si="1">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="46">
@@ -25887,36 +25995,44 @@
       <c r="B8" s="32">
         <v>45139</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="33">
+        <v>11857.5</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>886</v>
+      </c>
       <c r="E8" s="35">
         <v>45139</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="36">
+        <v>176698</v>
+      </c>
       <c r="G8" s="37"/>
       <c r="H8" s="38">
         <v>45139</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="39">
+        <v>1667</v>
+      </c>
       <c r="J8" s="52"/>
       <c r="K8" s="342"/>
       <c r="L8" s="49"/>
       <c r="M8" s="42">
-        <v>0</v>
+        <f>107188.5+7606+1598</f>
+        <v>116392.5</v>
       </c>
       <c r="N8" s="43">
-        <v>0</v>
+        <v>48032</v>
       </c>
       <c r="P8" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>177949</v>
       </c>
       <c r="Q8" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="282">
+        <v>1251</v>
       </c>
       <c r="S8" s="233"/>
       <c r="T8" s="233"/>
@@ -25930,35 +26046,44 @@
       <c r="B9" s="32">
         <v>45140</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="33">
+        <v>12503</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>887</v>
+      </c>
       <c r="E9" s="35">
         <v>45140</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="36">
+        <v>190639</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>45140</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="39">
+        <v>1901</v>
+      </c>
       <c r="J9" s="40"/>
       <c r="K9" s="348"/>
       <c r="L9" s="49"/>
       <c r="M9" s="42">
-        <v>0</v>
+        <f>74705+9600+6611</f>
+        <v>90916</v>
       </c>
       <c r="N9" s="43">
-        <v>0</v>
+        <v>86252</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>191572</v>
       </c>
       <c r="Q9" s="45">
         <v>0</v>
       </c>
-      <c r="R9" s="46">
-        <v>0</v>
+      <c r="R9" s="282">
+        <v>933</v>
       </c>
       <c r="S9" s="459"/>
       <c r="T9" s="233"/>
@@ -25972,29 +26097,37 @@
       <c r="B10" s="32">
         <v>45141</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="33">
+        <v>19034</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>888</v>
+      </c>
       <c r="E10" s="35">
         <v>45141</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36">
+        <v>201288</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>45141</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>1970</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
       <c r="M10" s="42">
-        <v>0</v>
+        <v>99767</v>
       </c>
       <c r="N10" s="43">
-        <v>0</v>
+        <v>80517</v>
       </c>
       <c r="P10" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>201288</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="1"/>
@@ -26015,29 +26148,38 @@
       <c r="B11" s="32">
         <v>45142</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="33">
+        <v>7175</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>889</v>
+      </c>
       <c r="E11" s="35">
         <v>45142</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36">
+        <v>192213</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38">
         <v>45142</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="39">
+        <v>2293</v>
+      </c>
       <c r="J11" s="52"/>
       <c r="K11" s="58"/>
       <c r="L11" s="49"/>
       <c r="M11" s="42">
-        <v>0</v>
+        <f>129655+4110</f>
+        <v>133765</v>
       </c>
       <c r="N11" s="43">
-        <v>0</v>
+        <v>48980</v>
       </c>
       <c r="P11" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>192213</v>
       </c>
       <c r="Q11" s="45">
         <f t="shared" si="1"/>
@@ -26051,37 +26193,51 @@
       <c r="U11" s="233"/>
       <c r="V11" s="233"/>
     </row>
-    <row r="12" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="504" t="s">
         <v>656</v>
       </c>
       <c r="B12" s="32">
         <v>45143</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="33">
+        <v>5903.5</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>894</v>
+      </c>
       <c r="E12" s="35">
         <v>45143</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="36">
+        <v>156849</v>
+      </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38">
         <v>45143</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="342"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="39">
+        <v>3962</v>
+      </c>
+      <c r="J12" s="40">
+        <v>45143</v>
+      </c>
+      <c r="K12" s="342" t="s">
+        <v>896</v>
+      </c>
+      <c r="L12" s="49">
+        <v>31462</v>
+      </c>
       <c r="M12" s="42">
-        <v>0</v>
+        <v>53370.5</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>62151</v>
       </c>
       <c r="O12" s="192"/>
       <c r="P12" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156849</v>
       </c>
       <c r="Q12" s="45">
         <f t="shared" si="1"/>
@@ -26127,8 +26283,9 @@
         <f>N13+M13+L13+I13+C13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="45" t="s">
-        <v>10</v>
+      <c r="Q13" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R13" s="46">
         <v>0</v>
@@ -26225,7 +26382,7 @@
       <c r="U15" s="233"/>
       <c r="V15" s="233"/>
     </row>
-    <row r="16" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="504" t="s">
         <v>653</v>
       </c>
@@ -26257,6 +26414,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="45">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R16" s="46">
@@ -26879,8 +27037,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="45" t="s">
-        <v>10</v>
+      <c r="Q31" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R31" s="46">
         <v>0</v>
@@ -27243,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q6:Q47" si="2">P41-F41</f>
         <v>0</v>
       </c>
       <c r="R41" s="46">
@@ -27260,9 +27419,15 @@
       <c r="G42" s="37"/>
       <c r="H42" s="38"/>
       <c r="I42" s="103"/>
-      <c r="J42" s="340"/>
-      <c r="K42" s="347"/>
-      <c r="L42" s="49"/>
+      <c r="J42" s="340">
+        <v>45136</v>
+      </c>
+      <c r="K42" s="347" t="s">
+        <v>883</v>
+      </c>
+      <c r="L42" s="49">
+        <v>27114.6</v>
+      </c>
       <c r="M42" s="42">
         <v>0</v>
       </c>
@@ -27273,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R42" s="46">
@@ -27290,9 +27455,15 @@
       <c r="G43" s="37"/>
       <c r="H43" s="38"/>
       <c r="I43" s="103"/>
-      <c r="J43" s="338"/>
-      <c r="K43" s="343"/>
-      <c r="L43" s="49"/>
+      <c r="J43" s="338">
+        <v>45143</v>
+      </c>
+      <c r="K43" s="343" t="s">
+        <v>895</v>
+      </c>
+      <c r="L43" s="49">
+        <v>21231</v>
+      </c>
       <c r="M43" s="42">
         <v>0</v>
       </c>
@@ -27303,7 +27474,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R43" s="46">
@@ -27333,7 +27504,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R44" s="46">
@@ -27363,7 +27534,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R45" s="46">
@@ -27393,7 +27564,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R46" s="46">
@@ -27423,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R47" s="46">
@@ -27468,19 +27639,19 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="565">
+        <v>672792.5</v>
+      </c>
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
-        <v>0</v>
+        <v>497620</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="577">
+        <v>1362716</v>
+      </c>
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>0</v>
       </c>
@@ -27501,13 +27672,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>0</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27559,11 +27730,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="544"/>
+        <v>1170412.5</v>
+      </c>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -27802,7 +27973,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>0</v>
+        <v>118222.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -27810,7 +27981,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>0</v>
+        <v>1360532</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -27818,7 +27989,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>0</v>
+        <v>20356</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -27826,7 +27997,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>0</v>
+        <v>102070.6</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -27844,50 +28015,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="573" t="s">
+      <c r="H69" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="574"/>
+      <c r="I69" s="563"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="575">
+      <c r="K69" s="564">
         <f>I67+L67</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="576"/>
+        <v>122426.6</v>
+      </c>
+      <c r="L69" s="565"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="567" t="s">
+      <c r="D70" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="567"/>
+      <c r="E70" s="556"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>0</v>
+        <v>1119882.8999999999</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="568" t="s">
+      <c r="D71" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="568"/>
+      <c r="E71" s="557"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="569" t="s">
+      <c r="I71" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="570"/>
-      <c r="K71" s="571">
+      <c r="J71" s="559"/>
+      <c r="K71" s="560">
         <f>F73+F74+F75</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="571"/>
+        <v>4266343.5600000005</v>
+      </c>
+      <c r="L71" s="560"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -27925,18 +28096,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>0</v>
+        <v>1119882.8999999999</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="572">
+      <c r="K73" s="561">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L73" s="571"/>
+      <c r="L73" s="560"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -27954,23 +28125,25 @@
       </c>
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="172"/>
-      <c r="D75" s="560" t="s">
+      <c r="C75" s="172">
+        <v>45171</v>
+      </c>
+      <c r="D75" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="561"/>
+      <c r="E75" s="550"/>
       <c r="F75" s="173">
-        <v>0</v>
-      </c>
-      <c r="I75" s="562" t="s">
+        <v>3146460.66</v>
+      </c>
+      <c r="I75" s="551" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="563"/>
-      <c r="K75" s="564">
+      <c r="J75" s="552"/>
+      <c r="K75" s="553">
         <f>K71+K73</f>
-        <v>-2820551.31</v>
-      </c>
-      <c r="L75" s="564"/>
+        <v>1445792.2500000005</v>
+      </c>
+      <c r="L75" s="553"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -28115,6 +28288,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="K75:L75"/>
@@ -28127,16 +28310,6 @@
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33090,23 +33263,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33116,24 +33289,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="554" t="s">
+      <c r="R3" s="543" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33148,14 +33321,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33165,11 +33338,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="555"/>
+      <c r="R4" s="544"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35145,11 +35318,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -35157,7 +35330,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -35190,10 +35363,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -35284,11 +35457,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35847,26 +36020,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="573" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="574"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="575">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="576"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="567" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="567"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -35875,22 +36048,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="568" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="568"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="569" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="570"/>
-      <c r="K79" s="571">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="571"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -35931,11 +36104,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="572">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -35952,10 +36125,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="560" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="561"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -36114,12 +36287,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36136,6 +36303,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38847,23 +39020,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38873,21 +39046,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="599" t="s">
@@ -38905,14 +39078,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38922,7 +39095,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -40907,11 +41080,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -40919,7 +41092,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -40952,10 +41125,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -41046,11 +41219,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41529,26 +41702,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="573" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="574"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="575">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="576"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="567" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="567"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -41557,22 +41730,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="568" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="568"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="569" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="570"/>
-      <c r="K79" s="571">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="571"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -41613,11 +41786,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="572">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -41634,22 +41807,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="560" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="561"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="562" t="s">
+      <c r="I83" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="563"/>
-      <c r="K83" s="564">
+      <c r="J83" s="552"/>
+      <c r="K83" s="553">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="564"/>
+      <c r="L83" s="553"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -41796,6 +41969,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41812,12 +41991,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44391,23 +44564,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44417,21 +44590,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="599" t="s">
@@ -44449,14 +44622,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44466,7 +44639,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -46491,11 +46664,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -46503,7 +46676,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -46530,10 +46703,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -46607,11 +46780,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47240,26 +47413,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="573" t="s">
+      <c r="H79" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="574"/>
+      <c r="I79" s="563"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="575">
+      <c r="K79" s="564">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="576"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="567" t="s">
+      <c r="D80" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="567"/>
+      <c r="E80" s="556"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -47268,22 +47441,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="568" t="s">
+      <c r="D81" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="568"/>
+      <c r="E81" s="557"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="569" t="s">
+      <c r="I81" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="570"/>
-      <c r="K81" s="571">
+      <c r="J81" s="559"/>
+      <c r="K81" s="560">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -47324,11 +47497,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="572">
+      <c r="K83" s="561">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="571"/>
+      <c r="L83" s="560"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -47345,22 +47518,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="560" t="s">
+      <c r="D85" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="561"/>
+      <c r="E85" s="550"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="562" t="s">
+      <c r="I85" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="563"/>
-      <c r="K85" s="564">
+      <c r="J85" s="552"/>
+      <c r="K85" s="553">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="564"/>
+      <c r="L85" s="553"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -47508,12 +47681,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47530,6 +47697,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50184,23 +50357,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -50210,21 +50383,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -50245,14 +50418,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -50262,7 +50435,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -52269,11 +52442,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -52281,7 +52454,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -52314,10 +52487,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -52396,11 +52569,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -52879,26 +53052,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="573" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="574"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="575">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="576"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="567" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="567"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -52907,22 +53080,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="568" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="568"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="569" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="570"/>
-      <c r="K79" s="571">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="571"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -52963,11 +53136,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="572">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -52984,10 +53157,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="560" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="561"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -53147,6 +53320,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53163,12 +53342,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="906">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3315,6 +3315,33 @@
   </si>
   <si>
     <t>NOMINA # 31 Y Vac. Rosa B</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMON-CHORIZO</t>
+  </si>
+  <si>
+    <t>Lomos-Jamones-Quesos-Pollo-Salsas-Longaniza-Pastor-arabe- verduras</t>
+  </si>
+  <si>
+    <t>Jamon-Quesos-Pollo-Salchicha-Aros cebolla-Salchicha-Bimbo</t>
+  </si>
+  <si>
+    <t>Jamon-queso pco-quesos-pollo-salsas</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-POLLO-POSTRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLLO-QUESO   </t>
+  </si>
+  <si>
+    <t>PASTOR-JAMON-QUESOS-POLLO-CREMA-MANTEQUILLA</t>
+  </si>
+  <si>
+    <t>NOMINA # 32</t>
+  </si>
+  <si>
+    <t>Nomina # 32</t>
   </si>
 </sst>
 </file>
@@ -6016,6 +6043,39 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6090,39 +6150,6 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10001,23 +10028,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="547"/>
+      <c r="C1" s="549" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
+      <c r="M1" s="550"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="548"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10027,24 +10054,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="552"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="553"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="545" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="543" t="s">
+      <c r="R3" s="554" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10059,14 +10086,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10076,11 +10103,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="546"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="544"/>
+      <c r="R4" s="555"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11915,11 +11942,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="554">
+      <c r="M49" s="565">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="565">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11927,7 +11954,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="577">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11948,10 +11975,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="566"/>
+      <c r="N50" s="566"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="578"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -12006,11 +12033,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="568">
+      <c r="M53" s="543">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="544"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -12435,26 +12462,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="562" t="s">
+      <c r="H77" s="573" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="563"/>
+      <c r="I77" s="574"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="564">
+      <c r="K77" s="575">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="565"/>
+      <c r="L77" s="576"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="556" t="s">
+      <c r="D78" s="567" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="556"/>
+      <c r="E78" s="567"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -12463,22 +12490,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="557" t="s">
+      <c r="D79" s="568" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="557"/>
+      <c r="E79" s="568"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="558" t="s">
+      <c r="I79" s="569" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="559"/>
-      <c r="K79" s="560">
+      <c r="J79" s="570"/>
+      <c r="K79" s="571">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="560"/>
+      <c r="L79" s="571"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -12519,11 +12546,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="561">
+      <c r="K81" s="572">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="571"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -12540,22 +12567,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="549" t="s">
+      <c r="D83" s="560" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="550"/>
+      <c r="E83" s="561"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="551" t="s">
+      <c r="I83" s="562" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="552"/>
-      <c r="K83" s="553">
+      <c r="J83" s="563"/>
+      <c r="K83" s="564">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="553"/>
+      <c r="L83" s="564"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -12702,12 +12729,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12724,6 +12745,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15122,23 +15149,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="547"/>
+      <c r="C1" s="549" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
+      <c r="M1" s="550"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="548"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15148,21 +15175,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="552"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="553"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="545" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -15183,14 +15210,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15200,7 +15227,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="546"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -17260,11 +17287,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="565">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="565">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -17272,7 +17299,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="577">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -17305,10 +17332,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="566"/>
+      <c r="N50" s="566"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="578"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -17393,11 +17420,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="568">
+      <c r="M53" s="543">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="544"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17726,26 +17753,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="562" t="s">
+      <c r="H69" s="573" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="563"/>
+      <c r="I69" s="574"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="564">
+      <c r="K69" s="575">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="565"/>
+      <c r="L69" s="576"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="556" t="s">
+      <c r="D70" s="567" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="556"/>
+      <c r="E70" s="567"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -17754,23 +17781,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="557" t="s">
+      <c r="D71" s="568" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="557"/>
+      <c r="E71" s="568"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="558" t="s">
+      <c r="I71" s="569" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="559"/>
-      <c r="K71" s="560">
+      <c r="J71" s="570"/>
+      <c r="K71" s="571">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="560"/>
+      <c r="L71" s="571"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -17812,11 +17839,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="561">
+      <c r="K73" s="572">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="560"/>
+      <c r="L73" s="571"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -17833,22 +17860,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="549" t="s">
+      <c r="D75" s="560" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="550"/>
+      <c r="E75" s="561"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="551" t="s">
+      <c r="I75" s="562" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="552"/>
-      <c r="K75" s="553">
+      <c r="J75" s="563"/>
+      <c r="K75" s="564">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="553"/>
+      <c r="L75" s="564"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17996,6 +18023,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18012,12 +18045,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20417,23 +20444,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="547"/>
+      <c r="C1" s="549" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
+      <c r="M1" s="550"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="548"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20443,21 +20470,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="552"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="553"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="545" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -20476,14 +20503,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20493,7 +20520,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="546"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -22584,11 +22611,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="554">
+      <c r="M49" s="565">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="565">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -22596,7 +22623,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="577">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -22623,10 +22650,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="566"/>
+      <c r="N50" s="566"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="578"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -22693,11 +22720,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="568">
+      <c r="M53" s="543">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="544"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -22980,26 +23007,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="562" t="s">
+      <c r="H69" s="573" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="563"/>
+      <c r="I69" s="574"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="564">
+      <c r="K69" s="575">
         <f>I67+L67</f>
         <v>594414.23</v>
       </c>
-      <c r="L69" s="565"/>
+      <c r="L69" s="576"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="556" t="s">
+      <c r="D70" s="567" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="556"/>
+      <c r="E70" s="567"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>2892974.0700000003</v>
@@ -23008,22 +23035,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="557" t="s">
+      <c r="D71" s="568" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="557"/>
+      <c r="E71" s="568"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="558" t="s">
+      <c r="I71" s="569" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="559"/>
-      <c r="K71" s="560">
+      <c r="J71" s="570"/>
+      <c r="K71" s="571">
         <f>F73+F74+F75</f>
         <v>4814667.01</v>
       </c>
-      <c r="L71" s="560"/>
+      <c r="L71" s="571"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -23068,11 +23095,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="561">
+      <c r="K73" s="572">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="560"/>
+      <c r="L73" s="571"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -23093,22 +23120,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="549" t="s">
+      <c r="D75" s="560" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="550"/>
+      <c r="E75" s="561"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="551" t="s">
+      <c r="I75" s="562" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="552"/>
-      <c r="K75" s="553">
+      <c r="J75" s="563"/>
+      <c r="K75" s="564">
         <f>K71+K73</f>
         <v>1683279.9699999997</v>
       </c>
-      <c r="L75" s="553"/>
+      <c r="L75" s="564"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -23253,6 +23280,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23269,12 +23302,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25722,8 +25749,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25749,23 +25776,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="547"/>
+      <c r="C1" s="549" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
+      <c r="M1" s="550"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="548"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -25775,21 +25802,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="552"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="553"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="545" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -25808,14 +25835,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -25825,7 +25852,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="546"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -25977,7 +26004,7 @@
         <v>152870</v>
       </c>
       <c r="Q7" s="45">
-        <f t="shared" ref="Q6:Q39" si="1">P7-F7</f>
+        <f t="shared" ref="Q7:Q39" si="1">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="46">
@@ -26258,30 +26285,38 @@
       <c r="B13" s="32">
         <v>45144</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="33">
+        <v>19252</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>897</v>
+      </c>
       <c r="E13" s="35">
         <v>45144</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="36">
+        <v>104305</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38">
         <v>45144</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="39">
+        <v>1265.5</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="343"/>
       <c r="L13" s="49"/>
       <c r="M13" s="42">
-        <v>0</v>
+        <v>43061.5</v>
       </c>
       <c r="N13" s="43">
-        <v>0</v>
+        <v>40726</v>
       </c>
       <c r="O13" s="192"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
-        <v>0</v>
+        <v>104305</v>
       </c>
       <c r="Q13" s="45">
         <f t="shared" si="1"/>
@@ -26302,30 +26337,39 @@
       <c r="B14" s="32">
         <v>45145</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="33">
+        <v>39840</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>898</v>
+      </c>
       <c r="E14" s="35">
         <v>45145</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <v>207595</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
         <v>45145</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="39">
+        <v>1816</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="65"/>
       <c r="L14" s="49"/>
       <c r="M14" s="42">
-        <v>0</v>
+        <f>87614+1430</f>
+        <v>89044</v>
       </c>
       <c r="N14" s="43">
-        <v>0</v>
+        <v>76895</v>
       </c>
       <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>207595</v>
       </c>
       <c r="Q14" s="45">
         <f t="shared" si="1"/>
@@ -26346,29 +26390,38 @@
       <c r="B15" s="32">
         <v>45146</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="33">
+        <v>19759</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>899</v>
+      </c>
       <c r="E15" s="35">
         <v>45146</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="36">
+        <v>173547</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38">
         <v>45146</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="39">
+        <v>2143</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="65"/>
       <c r="L15" s="49"/>
       <c r="M15" s="42">
-        <v>0</v>
+        <f>79794+12191+3456</f>
+        <v>95441</v>
       </c>
       <c r="N15" s="43">
-        <v>0</v>
+        <v>56204</v>
       </c>
       <c r="P15" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>173547</v>
       </c>
       <c r="Q15" s="45">
         <f t="shared" si="1"/>
@@ -26389,29 +26442,38 @@
       <c r="B16" s="32">
         <v>45147</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="33">
+        <v>17177</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>900</v>
+      </c>
       <c r="E16" s="35">
         <v>45147</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <v>121787</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38">
         <v>45147</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="39">
+        <v>2919</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="342"/>
       <c r="L16" s="13"/>
       <c r="M16" s="42">
-        <v>0</v>
+        <f>46373+2307+5507</f>
+        <v>54187</v>
       </c>
       <c r="N16" s="43">
-        <v>0</v>
+        <v>47504</v>
       </c>
       <c r="P16" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121787</v>
       </c>
       <c r="Q16" s="45">
         <f t="shared" si="1"/>
@@ -26434,30 +26496,39 @@
       <c r="B17" s="32">
         <v>45148</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="33">
+        <v>5345</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>901</v>
+      </c>
       <c r="E17" s="35">
         <v>45148</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="36">
+        <v>234342</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38">
         <v>45148</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="39">
+        <v>2555</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="65"/>
       <c r="L17" s="55"/>
       <c r="M17" s="42">
-        <v>0</v>
+        <f>120207+12818+2165</f>
+        <v>135190</v>
       </c>
       <c r="N17" s="43">
-        <v>0</v>
+        <v>91252</v>
       </c>
       <c r="O17" s="499"/>
       <c r="P17" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>234342</v>
       </c>
       <c r="Q17" s="45">
         <f t="shared" si="1"/>
@@ -26478,29 +26549,37 @@
       <c r="B18" s="32">
         <v>45149</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="33">
+        <v>7541</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>902</v>
+      </c>
       <c r="E18" s="35">
         <v>45149</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36">
+        <v>150157</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>45149</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="39">
+        <v>1889</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="58"/>
       <c r="L18" s="49"/>
       <c r="M18" s="42">
-        <v>0</v>
+        <v>88736</v>
       </c>
       <c r="N18" s="43">
-        <v>0</v>
+        <v>51991</v>
       </c>
       <c r="P18" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150157</v>
       </c>
       <c r="Q18" s="45">
         <f t="shared" si="1"/>
@@ -26521,39 +26600,56 @@
       <c r="B19" s="32">
         <v>45150</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="33">
+        <v>18046</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>903</v>
+      </c>
       <c r="E19" s="35">
         <v>45150</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="36">
+        <v>186919</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>45150</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="344"/>
-      <c r="L19" s="59"/>
+      <c r="I19" s="39">
+        <v>5426</v>
+      </c>
+      <c r="J19" s="40">
+        <v>45150</v>
+      </c>
+      <c r="K19" s="344" t="s">
+        <v>904</v>
+      </c>
+      <c r="L19" s="59">
+        <v>33661.81</v>
+      </c>
       <c r="M19" s="42">
-        <v>0</v>
+        <f>58832+500+4094</f>
+        <v>63426</v>
       </c>
       <c r="N19" s="43">
-        <v>0</v>
+        <v>66272</v>
       </c>
       <c r="O19" s="499"/>
       <c r="P19" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>186831.81</v>
+      </c>
+      <c r="Q19" s="404">
+        <f t="shared" si="1"/>
+        <v>-87.190000000002328</v>
       </c>
       <c r="R19" s="46">
         <v>0</v>
       </c>
-      <c r="S19" s="233"/>
+      <c r="S19" s="233" t="s">
+        <v>97</v>
+      </c>
       <c r="T19" s="233"/>
       <c r="U19" s="233"/>
       <c r="V19" s="233"/>
@@ -27402,7 +27498,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="45">
-        <f t="shared" ref="Q6:Q47" si="2">P41-F41</f>
+        <f t="shared" ref="Q41:Q47" si="2">P41-F41</f>
         <v>0</v>
       </c>
       <c r="R41" s="46">
@@ -27491,9 +27587,15 @@
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
       <c r="I44" s="103"/>
-      <c r="J44" s="338"/>
-      <c r="K44" s="471"/>
-      <c r="L44" s="49"/>
+      <c r="J44" s="338">
+        <v>45150</v>
+      </c>
+      <c r="K44" s="471" t="s">
+        <v>905</v>
+      </c>
+      <c r="L44" s="49">
+        <v>18826.84</v>
+      </c>
       <c r="M44" s="42">
         <v>0</v>
       </c>
@@ -27639,21 +27741,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="554">
+      <c r="M49" s="565">
         <f>SUM(M5:M40)</f>
-        <v>672792.5</v>
-      </c>
-      <c r="N49" s="554">
+        <v>1241878</v>
+      </c>
+      <c r="N49" s="565">
         <f>SUM(N5:N40)</f>
-        <v>497620</v>
+        <v>928464</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1362716</v>
-      </c>
-      <c r="Q49" s="566">
+        <v>2541280.81</v>
+      </c>
+      <c r="Q49" s="577">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>-87.190000000002328</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -27672,10 +27774,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="566"/>
+      <c r="N50" s="566"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="578"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>2184</v>
@@ -27730,11 +27832,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="568">
+      <c r="M53" s="543">
         <f>M49+N49</f>
-        <v>1170412.5</v>
-      </c>
-      <c r="N53" s="569"/>
+        <v>2170342</v>
+      </c>
+      <c r="N53" s="544"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -27973,7 +28075,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>118222.5</v>
+        <v>245182.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -27981,7 +28083,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>1360532</v>
+        <v>2539184</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -27989,7 +28091,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>20356</v>
+        <v>38369.5</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -27997,7 +28099,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>102070.6</v>
+        <v>154559.25</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -28015,50 +28117,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="562" t="s">
+      <c r="H69" s="573" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="563"/>
+      <c r="I69" s="574"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="564">
+      <c r="K69" s="575">
         <f>I67+L67</f>
-        <v>122426.6</v>
-      </c>
-      <c r="L69" s="565"/>
+        <v>192928.75</v>
+      </c>
+      <c r="L69" s="576"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="556" t="s">
+      <c r="D70" s="567" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="556"/>
+      <c r="E70" s="567"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>1119882.8999999999</v>
+        <v>2101072.75</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="557" t="s">
+      <c r="D71" s="568" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="557"/>
+      <c r="E71" s="568"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="558" t="s">
+      <c r="I71" s="569" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="559"/>
-      <c r="K71" s="560">
+      <c r="J71" s="570"/>
+      <c r="K71" s="571">
         <f>F73+F74+F75</f>
-        <v>4266343.5600000005</v>
-      </c>
-      <c r="L71" s="560"/>
+        <v>5247533.41</v>
+      </c>
+      <c r="L71" s="571"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -28096,18 +28198,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>1119882.8999999999</v>
+        <v>2101072.75</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="561">
+      <c r="K73" s="572">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L73" s="560"/>
+      <c r="L73" s="571"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -28128,22 +28230,22 @@
       <c r="C75" s="172">
         <v>45171</v>
       </c>
-      <c r="D75" s="549" t="s">
+      <c r="D75" s="560" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="550"/>
+      <c r="E75" s="561"/>
       <c r="F75" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I75" s="551" t="s">
+      <c r="I75" s="562" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="552"/>
-      <c r="K75" s="553">
+      <c r="J75" s="563"/>
+      <c r="K75" s="564">
         <f>K71+K73</f>
-        <v>1445792.2500000005</v>
-      </c>
-      <c r="L75" s="553"/>
+        <v>2426982.1</v>
+      </c>
+      <c r="L75" s="564"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -28288,13 +28390,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28310,6 +28405,13 @@
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33263,23 +33365,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="547"/>
+      <c r="C1" s="549" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
+      <c r="M1" s="550"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="548"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33289,24 +33391,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="552"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="553"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="545" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="543" t="s">
+      <c r="R3" s="554" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33321,14 +33423,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33338,11 +33440,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="546"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="544"/>
+      <c r="R4" s="555"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35318,11 +35420,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="565">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="565">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -35330,7 +35432,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="577">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -35363,10 +35465,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="566"/>
+      <c r="N50" s="566"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="578"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -35457,11 +35559,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="568">
+      <c r="M53" s="543">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="544"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36020,26 +36122,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="562" t="s">
+      <c r="H77" s="573" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="563"/>
+      <c r="I77" s="574"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="564">
+      <c r="K77" s="575">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="565"/>
+      <c r="L77" s="576"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="556" t="s">
+      <c r="D78" s="567" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="556"/>
+      <c r="E78" s="567"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -36048,22 +36150,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="557" t="s">
+      <c r="D79" s="568" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="557"/>
+      <c r="E79" s="568"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="558" t="s">
+      <c r="I79" s="569" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="559"/>
-      <c r="K79" s="560">
+      <c r="J79" s="570"/>
+      <c r="K79" s="571">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="560"/>
+      <c r="L79" s="571"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -36104,11 +36206,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="561">
+      <c r="K81" s="572">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="571"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -36125,10 +36227,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="549" t="s">
+      <c r="D83" s="560" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="550"/>
+      <c r="E83" s="561"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -36287,6 +36389,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36303,12 +36411,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39020,23 +39122,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="547"/>
+      <c r="C1" s="549" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
+      <c r="M1" s="550"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="548"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -39046,21 +39148,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="552"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="553"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="545" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="599" t="s">
@@ -39078,14 +39180,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -39095,7 +39197,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="546"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -41080,11 +41182,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="565">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="565">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -41092,7 +41194,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="577">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -41125,10 +41227,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="566"/>
+      <c r="N50" s="566"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="578"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -41219,11 +41321,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="568">
+      <c r="M53" s="543">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="544"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41702,26 +41804,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="562" t="s">
+      <c r="H77" s="573" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="563"/>
+      <c r="I77" s="574"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="564">
+      <c r="K77" s="575">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="565"/>
+      <c r="L77" s="576"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="556" t="s">
+      <c r="D78" s="567" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="556"/>
+      <c r="E78" s="567"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -41730,22 +41832,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="557" t="s">
+      <c r="D79" s="568" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="557"/>
+      <c r="E79" s="568"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="558" t="s">
+      <c r="I79" s="569" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="559"/>
-      <c r="K79" s="560">
+      <c r="J79" s="570"/>
+      <c r="K79" s="571">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="560"/>
+      <c r="L79" s="571"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -41786,11 +41888,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="561">
+      <c r="K81" s="572">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="571"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -41807,22 +41909,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="549" t="s">
+      <c r="D83" s="560" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="550"/>
+      <c r="E83" s="561"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="551" t="s">
+      <c r="I83" s="562" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="552"/>
-      <c r="K83" s="553">
+      <c r="J83" s="563"/>
+      <c r="K83" s="564">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="553"/>
+      <c r="L83" s="564"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -41969,12 +42071,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41991,6 +42087,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44564,23 +44666,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="547"/>
+      <c r="C1" s="549" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
+      <c r="M1" s="550"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="548"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44590,21 +44692,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="552"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="553"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="545" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="599" t="s">
@@ -44622,14 +44724,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44639,7 +44741,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="546"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -46664,11 +46766,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="565">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="565">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -46676,7 +46778,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="577">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -46703,10 +46805,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="566"/>
+      <c r="N50" s="566"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="578"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -46780,11 +46882,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="568">
+      <c r="M53" s="543">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="544"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47413,26 +47515,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="562" t="s">
+      <c r="H79" s="573" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="563"/>
+      <c r="I79" s="574"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="564">
+      <c r="K79" s="575">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="576"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="556" t="s">
+      <c r="D80" s="567" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="556"/>
+      <c r="E80" s="567"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -47441,22 +47543,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="557" t="s">
+      <c r="D81" s="568" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="557"/>
+      <c r="E81" s="568"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="558" t="s">
+      <c r="I81" s="569" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="559"/>
-      <c r="K81" s="560">
+      <c r="J81" s="570"/>
+      <c r="K81" s="571">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="571"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -47497,11 +47599,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="561">
+      <c r="K83" s="572">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="560"/>
+      <c r="L83" s="571"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -47518,22 +47620,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="549" t="s">
+      <c r="D85" s="560" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="550"/>
+      <c r="E85" s="561"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="551" t="s">
+      <c r="I85" s="562" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="552"/>
-      <c r="K85" s="553">
+      <c r="J85" s="563"/>
+      <c r="K85" s="564">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="553"/>
+      <c r="L85" s="564"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -47681,6 +47783,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47697,12 +47805,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50357,23 +50459,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="547"/>
+      <c r="C1" s="549" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
+      <c r="M1" s="550"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="548"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -50383,21 +50485,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="552"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="553"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="545" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -50418,14 +50520,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="556" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="557"/>
+      <c r="H4" s="558" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="559"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -50435,7 +50537,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="546"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -52442,11 +52544,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="565">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="565">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -52454,7 +52556,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="577">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -52487,10 +52589,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="566"/>
+      <c r="N50" s="566"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="578"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -52569,11 +52671,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="568">
+      <c r="M53" s="543">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="544"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -53052,26 +53154,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="562" t="s">
+      <c r="H77" s="573" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="563"/>
+      <c r="I77" s="574"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="564">
+      <c r="K77" s="575">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="565"/>
+      <c r="L77" s="576"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="556" t="s">
+      <c r="D78" s="567" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="556"/>
+      <c r="E78" s="567"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -53080,22 +53182,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="557" t="s">
+      <c r="D79" s="568" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="557"/>
+      <c r="E79" s="568"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="558" t="s">
+      <c r="I79" s="569" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="559"/>
-      <c r="K79" s="560">
+      <c r="J79" s="570"/>
+      <c r="K79" s="571">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="560"/>
+      <c r="L79" s="571"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -53136,11 +53238,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="561">
+      <c r="K81" s="572">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="571"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -53157,10 +53259,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="549" t="s">
+      <c r="D83" s="560" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="550"/>
+      <c r="E83" s="561"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -53320,12 +53422,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53342,6 +53438,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="920">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3342,6 +3342,48 @@
   </si>
   <si>
     <t>Nomina # 32</t>
+  </si>
+  <si>
+    <t>QUESOS-CHORIZO</t>
+  </si>
+  <si>
+    <t>ARABE-QUESOS-SANCHICHA-POLLO-DEDOS QSO-CHISTORRA-POSTRES</t>
+  </si>
+  <si>
+    <t>BIMBO-QUESOS-POLLO-SALSAS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>TOSTADAS-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>MOLE-POLLO-PASTOR-SALCHICHA</t>
+  </si>
+  <si>
+    <t>POLLO-CREMA-QUESOS-MAIZ</t>
+  </si>
+  <si>
+    <t>FLETE-POLLO-JAMON-CHORIZO-MAIZ-QUESOS-SLCHICHA</t>
+  </si>
+  <si>
+    <t>Nomian # 33</t>
+  </si>
+  <si>
+    <t>Nomina # 33</t>
+  </si>
+  <si>
+    <t>Aceite-CHORIZO-QUESOS-CHISTORRA-JAMON-TOCINO-</t>
+  </si>
+  <si>
+    <t>SALCHICHA-JAMON-POLLO-QUESOS-POSTRES-CHISTORRA-RIBYE</t>
+  </si>
+  <si>
+    <t>JAMON-POLLO-QUESOS-SALCHICHA</t>
+  </si>
+  <si>
+    <t>DESCANSOS TRABAJADOS</t>
+  </si>
+  <si>
+    <t>ARABE-VERDURA-POLLO-QUESOS-SALCHICHA</t>
   </si>
 </sst>
 </file>
@@ -5025,7 +5067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="601">
+  <cellXfs count="603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6043,39 +6085,6 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6151,6 +6160,39 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6216,6 +6258,12 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10028,23 +10076,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10054,24 +10102,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="554" t="s">
+      <c r="R3" s="543" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10086,14 +10134,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10103,11 +10151,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="555"/>
+      <c r="R4" s="544"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11942,11 +11990,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11954,7 +12002,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11975,10 +12023,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -12033,11 +12081,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -12462,26 +12510,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="573" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="574"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="575">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="576"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="567" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="567"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -12490,22 +12538,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="568" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="568"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="569" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="570"/>
-      <c r="K79" s="571">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="571"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -12546,11 +12594,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="572">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -12567,22 +12615,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="560" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="561"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="562" t="s">
+      <c r="I83" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="563"/>
-      <c r="K83" s="564">
+      <c r="J83" s="552"/>
+      <c r="K83" s="553">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="564"/>
+      <c r="L83" s="553"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -12729,6 +12777,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12745,12 +12799,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15149,23 +15197,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15175,21 +15223,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -15210,14 +15258,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15227,7 +15275,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -17287,11 +17335,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -17299,7 +17347,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -17332,10 +17380,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -17420,11 +17468,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17753,26 +17801,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="573" t="s">
+      <c r="H69" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="574"/>
+      <c r="I69" s="563"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="575">
+      <c r="K69" s="564">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="576"/>
+      <c r="L69" s="565"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="567" t="s">
+      <c r="D70" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="567"/>
+      <c r="E70" s="556"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -17781,23 +17829,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="568" t="s">
+      <c r="D71" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="568"/>
+      <c r="E71" s="557"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="569" t="s">
+      <c r="I71" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="570"/>
-      <c r="K71" s="571">
+      <c r="J71" s="559"/>
+      <c r="K71" s="560">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="571"/>
+      <c r="L71" s="560"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -17839,11 +17887,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="572">
+      <c r="K73" s="561">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="571"/>
+      <c r="L73" s="560"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -17860,22 +17908,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="560" t="s">
+      <c r="D75" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="561"/>
+      <c r="E75" s="550"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="562" t="s">
+      <c r="I75" s="551" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="563"/>
-      <c r="K75" s="564">
+      <c r="J75" s="552"/>
+      <c r="K75" s="553">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="564"/>
+      <c r="L75" s="553"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -18023,12 +18071,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18045,6 +18087,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20444,23 +20492,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20470,21 +20518,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -20503,14 +20551,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20520,7 +20568,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -22611,11 +22659,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -22623,7 +22671,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -22650,10 +22698,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -22720,11 +22768,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23007,26 +23055,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="573" t="s">
+      <c r="H69" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="574"/>
+      <c r="I69" s="563"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="575">
+      <c r="K69" s="564">
         <f>I67+L67</f>
         <v>594414.23</v>
       </c>
-      <c r="L69" s="576"/>
+      <c r="L69" s="565"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="567" t="s">
+      <c r="D70" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="567"/>
+      <c r="E70" s="556"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>2892974.0700000003</v>
@@ -23035,22 +23083,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="568" t="s">
+      <c r="D71" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="568"/>
+      <c r="E71" s="557"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="569" t="s">
+      <c r="I71" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="570"/>
-      <c r="K71" s="571">
+      <c r="J71" s="559"/>
+      <c r="K71" s="560">
         <f>F73+F74+F75</f>
         <v>4814667.01</v>
       </c>
-      <c r="L71" s="571"/>
+      <c r="L71" s="560"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -23095,11 +23143,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="572">
+      <c r="K73" s="561">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="571"/>
+      <c r="L73" s="560"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -23120,22 +23168,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="560" t="s">
+      <c r="D75" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="561"/>
+      <c r="E75" s="550"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="562" t="s">
+      <c r="I75" s="551" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="563"/>
-      <c r="K75" s="564">
+      <c r="J75" s="552"/>
+      <c r="K75" s="553">
         <f>K71+K73</f>
         <v>1683279.9699999997</v>
       </c>
-      <c r="L75" s="564"/>
+      <c r="L75" s="553"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -23280,12 +23328,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23302,6 +23344,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25749,8 +25797,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25776,23 +25824,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -25802,21 +25850,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -25835,14 +25883,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -25852,7 +25900,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -26661,29 +26709,38 @@
       <c r="B20" s="32">
         <v>45151</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="33">
+        <v>6175</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>906</v>
+      </c>
       <c r="E20" s="35">
         <v>45151</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="36">
+        <v>123390</v>
+      </c>
       <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>45151</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="39">
+        <v>900</v>
+      </c>
       <c r="J20" s="40"/>
       <c r="K20" s="60"/>
       <c r="L20" s="55"/>
       <c r="M20" s="42">
-        <v>0</v>
+        <f>22396+38828</f>
+        <v>61224</v>
       </c>
       <c r="N20" s="43">
-        <v>0</v>
+        <v>55091</v>
       </c>
       <c r="P20" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123390</v>
       </c>
       <c r="Q20" s="45">
         <f t="shared" si="1"/>
@@ -26704,33 +26761,42 @@
       <c r="B21" s="32">
         <v>45152</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="33">
+        <v>16668</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>907</v>
+      </c>
       <c r="E21" s="35">
         <v>45152</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="36">
+        <v>152910</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="38">
         <v>45152</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="39">
+        <v>2662</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="402"/>
       <c r="L21" s="55"/>
       <c r="M21" s="42">
-        <v>0</v>
+        <f>1266.34+86406</f>
+        <v>87672.34</v>
       </c>
       <c r="N21" s="43">
-        <v>0</v>
+        <v>45908</v>
       </c>
       <c r="P21" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>152910.34</v>
       </c>
       <c r="Q21" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33999999999650754</v>
       </c>
       <c r="R21" s="46">
         <v>0</v>
@@ -26744,29 +26810,38 @@
       <c r="B22" s="32">
         <v>45153</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="33">
+        <v>27406</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>908</v>
+      </c>
       <c r="E22" s="35">
         <v>45153</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36">
+        <v>266059</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="38">
         <v>45153</v>
       </c>
-      <c r="I22" s="359"/>
+      <c r="I22" s="359">
+        <v>2428</v>
+      </c>
       <c r="J22" s="40"/>
       <c r="K22" s="506"/>
       <c r="L22" s="62"/>
       <c r="M22" s="42">
-        <v>0</v>
+        <f>146959.5+21581.5+2398+1919</f>
+        <v>172858</v>
       </c>
       <c r="N22" s="43">
-        <v>0</v>
+        <v>63367</v>
       </c>
       <c r="P22" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>266059</v>
       </c>
       <c r="Q22" s="45">
         <f t="shared" si="1"/>
@@ -26784,33 +26859,42 @@
       <c r="B23" s="32">
         <v>45154</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="33">
+        <v>13732</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>909</v>
+      </c>
       <c r="E23" s="35">
         <v>45154</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="36">
+        <v>131733</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38">
         <v>45154</v>
       </c>
-      <c r="I23" s="39"/>
+      <c r="I23" s="39">
+        <v>1868.5</v>
+      </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
       <c r="L23" s="55"/>
       <c r="M23" s="42">
-        <v>0</v>
+        <f>58178.5+1869.48+4400</f>
+        <v>64447.98</v>
       </c>
       <c r="N23" s="43">
-        <v>0</v>
+        <v>51694</v>
       </c>
       <c r="P23" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131742.48000000001</v>
       </c>
       <c r="Q23" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.4800000000104774</v>
       </c>
       <c r="R23" s="46">
         <v>0</v>
@@ -26824,33 +26908,42 @@
       <c r="B24" s="32">
         <v>45155</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="33">
+        <v>6259</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>910</v>
+      </c>
       <c r="E24" s="35">
         <v>45155</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="36">
+        <v>155989</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="38">
         <v>45155</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="39">
+        <v>1597</v>
+      </c>
       <c r="J24" s="66"/>
       <c r="K24" s="65"/>
       <c r="L24" s="67"/>
       <c r="M24" s="42">
-        <v>0</v>
+        <f>79382+3699.41</f>
+        <v>83081.41</v>
       </c>
       <c r="N24" s="43">
-        <v>0</v>
+        <v>65052</v>
       </c>
       <c r="P24" s="49">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>155989.41</v>
       </c>
       <c r="Q24" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.41000000000349246</v>
       </c>
       <c r="R24" s="46">
         <v>0</v>
@@ -26864,36 +26957,45 @@
       <c r="B25" s="32">
         <v>45156</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="33">
+        <v>10785</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>911</v>
+      </c>
       <c r="E25" s="35">
         <v>45156</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36">
+        <v>161486</v>
+      </c>
       <c r="G25" s="37"/>
       <c r="H25" s="38">
         <v>45156</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="39">
+        <v>2780.5</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
       <c r="L25" s="68"/>
       <c r="M25" s="42">
-        <v>0</v>
+        <f>88950+3240</f>
+        <v>92190</v>
       </c>
       <c r="N25" s="43">
-        <v>0</v>
+        <v>55732</v>
       </c>
       <c r="P25" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>161487.5</v>
       </c>
       <c r="Q25" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="46">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="S25" s="233"/>
     </row>
@@ -26904,32 +27006,47 @@
       <c r="B26" s="32">
         <v>45157</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="33">
+        <v>14402.5</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>912</v>
+      </c>
       <c r="E26" s="35">
         <v>45157</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="36">
+        <v>177834</v>
+      </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38">
         <v>45157</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="537"/>
-      <c r="L26" s="71"/>
+      <c r="I26" s="39">
+        <v>13081</v>
+      </c>
+      <c r="J26" s="40">
+        <v>45157</v>
+      </c>
+      <c r="K26" s="537" t="s">
+        <v>913</v>
+      </c>
+      <c r="L26" s="71">
+        <v>24773</v>
+      </c>
       <c r="M26" s="42">
-        <v>0</v>
+        <f>55730.5+2590</f>
+        <v>58320.5</v>
       </c>
       <c r="N26" s="43">
-        <v>0</v>
+        <v>67257</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>177834</v>
       </c>
       <c r="Q26" s="45">
         <f t="shared" si="1"/>
@@ -26949,29 +27066,38 @@
       <c r="B27" s="32">
         <v>45158</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="33">
+        <v>26314</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>915</v>
+      </c>
       <c r="E27" s="35">
         <v>45158</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="36">
+        <v>117266</v>
+      </c>
       <c r="G27" s="37"/>
       <c r="H27" s="38">
         <v>45158</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="39">
+        <v>913.5</v>
+      </c>
       <c r="J27" s="337"/>
       <c r="K27" s="345"/>
       <c r="L27" s="68"/>
       <c r="M27" s="42">
-        <v>0</v>
+        <f>11703+23317.5</f>
+        <v>35020.5</v>
       </c>
       <c r="N27" s="43">
-        <v>0</v>
+        <v>55018</v>
       </c>
       <c r="P27" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117266</v>
       </c>
       <c r="Q27" s="45">
         <f t="shared" si="1"/>
@@ -26989,36 +27115,45 @@
       <c r="B28" s="32">
         <v>45159</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33">
+        <v>65201</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>916</v>
+      </c>
       <c r="E28" s="35">
         <v>45159</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="36">
+        <v>229986</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38">
         <v>45159</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="39">
+        <v>3872.5</v>
+      </c>
       <c r="J28" s="338"/>
       <c r="K28" s="70"/>
       <c r="L28" s="68"/>
       <c r="M28" s="42">
-        <v>0</v>
+        <f>18114.5+122997</f>
+        <v>141111.5</v>
       </c>
       <c r="N28" s="43">
-        <v>0</v>
+        <v>34139</v>
       </c>
       <c r="P28" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="46">
-        <v>0</v>
+        <v>244324</v>
+      </c>
+      <c r="Q28" s="285">
+        <f>P28-F28-144338</f>
+        <v>-130000</v>
+      </c>
+      <c r="R28" s="601">
+        <v>144338</v>
       </c>
       <c r="S28" s="233"/>
     </row>
@@ -27029,33 +27164,47 @@
       <c r="B29" s="32">
         <v>45160</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="76"/>
+      <c r="C29" s="33">
+        <v>13817</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>917</v>
+      </c>
       <c r="E29" s="35">
         <v>45160</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="36">
+        <v>129901</v>
+      </c>
       <c r="G29" s="37"/>
       <c r="H29" s="38">
         <v>45160</v>
       </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="339"/>
-      <c r="K29" s="346"/>
-      <c r="L29" s="68"/>
+      <c r="I29" s="39">
+        <v>2427</v>
+      </c>
+      <c r="J29" s="339">
+        <v>45160</v>
+      </c>
+      <c r="K29" s="602" t="s">
+        <v>918</v>
+      </c>
+      <c r="L29" s="68">
+        <v>943</v>
+      </c>
       <c r="M29" s="42">
-        <v>0</v>
+        <v>62100</v>
       </c>
       <c r="N29" s="43">
-        <v>0</v>
+        <v>50617</v>
       </c>
       <c r="P29" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>129904</v>
       </c>
       <c r="Q29" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R29" s="46">
         <v>0</v>
@@ -27069,17 +27218,25 @@
       <c r="B30" s="32">
         <v>45161</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="76"/>
+      <c r="C30" s="33">
+        <v>9837</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>919</v>
+      </c>
       <c r="E30" s="35">
         <v>45161</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="36">
+        <v>122556</v>
+      </c>
       <c r="G30" s="37"/>
       <c r="H30" s="38">
         <v>45161</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="39">
+        <v>3076</v>
+      </c>
       <c r="J30" s="338"/>
       <c r="K30" s="65"/>
       <c r="L30" s="49"/>
@@ -27091,11 +27248,11 @@
       </c>
       <c r="P30" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12913</v>
       </c>
       <c r="Q30" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-109643</v>
       </c>
       <c r="R30" s="46">
         <v>0</v>
@@ -27623,9 +27780,15 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
       <c r="I45" s="103"/>
-      <c r="J45" s="338"/>
-      <c r="K45" s="343"/>
-      <c r="L45" s="49"/>
+      <c r="J45" s="338">
+        <v>45157</v>
+      </c>
+      <c r="K45" s="343" t="s">
+        <v>914</v>
+      </c>
+      <c r="L45" s="49">
+        <v>29180.27</v>
+      </c>
       <c r="M45" s="42">
         <v>0</v>
       </c>
@@ -27741,21 +27904,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
-        <v>1241878</v>
-      </c>
-      <c r="N49" s="565">
+        <v>2099904.23</v>
+      </c>
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
-        <v>928464</v>
+        <v>1472339</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2541280.81</v>
-      </c>
-      <c r="Q49" s="577">
+        <v>4215100.54</v>
+      </c>
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
-        <v>-87.190000000002328</v>
+        <v>-239715.46</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -27774,13 +27937,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>2184</v>
+        <v>146522</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27832,11 +27995,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
-        <v>2170342</v>
-      </c>
-      <c r="N53" s="544"/>
+        <v>3572243.23</v>
+      </c>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -28075,7 +28238,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>245182.5</v>
+        <v>455779</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -28083,7 +28246,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>2539184</v>
+        <v>4308294</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -28091,7 +28254,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>38369.5</v>
+        <v>73975.5</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -28099,7 +28262,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>154559.25</v>
+        <v>184682.52</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -28117,55 +28280,53 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="573" t="s">
+      <c r="H69" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="574"/>
+      <c r="I69" s="563"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="575">
+      <c r="K69" s="564">
         <f>I67+L67</f>
-        <v>192928.75</v>
-      </c>
-      <c r="L69" s="576"/>
+        <v>258658.02</v>
+      </c>
+      <c r="L69" s="565"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="567" t="s">
+      <c r="D70" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="567"/>
+      <c r="E70" s="556"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>2101072.75</v>
+        <v>3593856.98</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="568" t="s">
+      <c r="D71" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="568"/>
+      <c r="E71" s="557"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="569" t="s">
+      <c r="I71" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="570"/>
-      <c r="K71" s="571">
+      <c r="J71" s="559"/>
+      <c r="K71" s="560">
         <f>F73+F74+F75</f>
-        <v>5247533.41</v>
-      </c>
-      <c r="L71" s="571"/>
+        <v>6740317.6400000006</v>
+      </c>
+      <c r="L71" s="560"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
-      <c r="O71" s="160">
-        <v>85</v>
-      </c>
+      <c r="O71" s="160"/>
       <c r="P71" s="159"/>
       <c r="Q71" s="159"/>
     </row>
@@ -28183,9 +28344,7 @@
       <c r="L72" s="167"/>
       <c r="M72" s="159"/>
       <c r="N72" s="159"/>
-      <c r="O72" s="160">
-        <v>19</v>
-      </c>
+      <c r="O72" s="160"/>
       <c r="P72" s="159"/>
       <c r="Q72" s="159"/>
     </row>
@@ -28198,22 +28357,19 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>2101072.75</v>
+        <v>3593856.98</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="572">
+      <c r="K73" s="561">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L73" s="571"/>
-      <c r="O73" s="536">
-        <f>SUM(O71:O72)</f>
-        <v>104</v>
-      </c>
+      <c r="L73" s="560"/>
+      <c r="O73" s="536"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -28230,22 +28386,22 @@
       <c r="C75" s="172">
         <v>45171</v>
       </c>
-      <c r="D75" s="560" t="s">
+      <c r="D75" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="561"/>
+      <c r="E75" s="550"/>
       <c r="F75" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I75" s="562" t="s">
+      <c r="I75" s="551" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="563"/>
-      <c r="K75" s="564">
+      <c r="J75" s="552"/>
+      <c r="K75" s="553">
         <f>K71+K73</f>
-        <v>2426982.1</v>
-      </c>
-      <c r="L75" s="564"/>
+        <v>3919766.3300000005</v>
+      </c>
+      <c r="L75" s="553"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -28390,6 +28546,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28406,12 +28568,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33365,23 +33521,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33391,24 +33547,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="554" t="s">
+      <c r="R3" s="543" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33423,14 +33579,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33440,11 +33596,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="555"/>
+      <c r="R4" s="544"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35420,11 +35576,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -35432,7 +35588,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -35465,10 +35621,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -35559,11 +35715,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36122,26 +36278,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="573" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="574"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="575">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="576"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="567" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="567"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -36150,22 +36306,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="568" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="568"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="569" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="570"/>
-      <c r="K79" s="571">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="571"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -36206,11 +36362,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="572">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -36227,10 +36383,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="560" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="561"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -36389,12 +36545,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36411,6 +36561,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39122,23 +39278,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -39148,21 +39304,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="599" t="s">
@@ -39180,14 +39336,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -39197,7 +39353,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -41182,11 +41338,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -41194,7 +41350,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -41227,10 +41383,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -41321,11 +41477,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41804,26 +41960,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="573" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="574"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="575">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="576"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="567" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="567"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -41832,22 +41988,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="568" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="568"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="569" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="570"/>
-      <c r="K79" s="571">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="571"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -41888,11 +42044,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="572">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -41909,22 +42065,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="560" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="561"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="562" t="s">
+      <c r="I83" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="563"/>
-      <c r="K83" s="564">
+      <c r="J83" s="552"/>
+      <c r="K83" s="553">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="564"/>
+      <c r="L83" s="553"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -42071,6 +42227,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -42087,12 +42249,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44666,23 +44822,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44692,21 +44848,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="599" t="s">
@@ -44724,14 +44880,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44741,7 +44897,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -46766,11 +46922,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -46778,7 +46934,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -46805,10 +46961,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -46882,11 +47038,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47515,26 +47671,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="573" t="s">
+      <c r="H79" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="574"/>
+      <c r="I79" s="563"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="575">
+      <c r="K79" s="564">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="576"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="567" t="s">
+      <c r="D80" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="567"/>
+      <c r="E80" s="556"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -47543,22 +47699,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="568" t="s">
+      <c r="D81" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="568"/>
+      <c r="E81" s="557"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="569" t="s">
+      <c r="I81" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="570"/>
-      <c r="K81" s="571">
+      <c r="J81" s="559"/>
+      <c r="K81" s="560">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -47599,11 +47755,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="572">
+      <c r="K83" s="561">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="571"/>
+      <c r="L83" s="560"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -47620,22 +47776,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="560" t="s">
+      <c r="D85" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="561"/>
+      <c r="E85" s="550"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="562" t="s">
+      <c r="I85" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="563"/>
-      <c r="K85" s="564">
+      <c r="J85" s="552"/>
+      <c r="K85" s="553">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="564"/>
+      <c r="L85" s="553"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -47783,12 +47939,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47805,6 +47955,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50459,23 +50615,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="547"/>
-      <c r="C1" s="549" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="548"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -50485,21 +50641,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="552"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="553" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="553"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="545" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -50520,14 +50676,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="556" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="557"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="559"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -50537,7 +50693,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="546"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -52544,11 +52700,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="565">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="565">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -52556,7 +52712,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="577">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -52589,10 +52745,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="566"/>
-      <c r="N50" s="566"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="578"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -52671,11 +52827,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="543">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="544"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -53154,26 +53310,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="573" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="574"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="575">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="576"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="567" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="567"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -53182,22 +53338,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="568" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="568"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="569" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="570"/>
-      <c r="K79" s="571">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="571"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -53238,11 +53394,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="572">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="571"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -53259,10 +53415,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="560" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="561"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -53422,6 +53578,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53438,12 +53600,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="920">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -6085,6 +6085,45 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6160,39 +6199,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6258,12 +6264,6 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="23" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10076,23 +10076,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10102,24 +10102,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="555" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="547" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="543" t="s">
+      <c r="R3" s="556" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10134,14 +10134,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="559"/>
+      <c r="H4" s="560" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="561"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10151,11 +10151,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="548"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="544"/>
+      <c r="R4" s="557"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11990,11 +11990,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="554">
+      <c r="M49" s="567">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="567">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -12002,7 +12002,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="579">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -12023,10 +12023,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="568"/>
+      <c r="N50" s="568"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="580"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -12081,11 +12081,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="568">
+      <c r="M53" s="545">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="546"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -12510,26 +12510,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="562" t="s">
+      <c r="H77" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="563"/>
+      <c r="I77" s="576"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="564">
+      <c r="K77" s="577">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="565"/>
+      <c r="L77" s="578"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="556" t="s">
+      <c r="D78" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="556"/>
+      <c r="E78" s="569"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -12538,22 +12538,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="557" t="s">
+      <c r="D79" s="570" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="557"/>
+      <c r="E79" s="570"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="558" t="s">
+      <c r="I79" s="571" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="559"/>
-      <c r="K79" s="560">
+      <c r="J79" s="572"/>
+      <c r="K79" s="573">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="560"/>
+      <c r="L79" s="573"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -12594,11 +12594,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="561">
+      <c r="K81" s="574">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="573"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -12615,22 +12615,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="549" t="s">
+      <c r="D83" s="562" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="550"/>
+      <c r="E83" s="563"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="551" t="s">
+      <c r="I83" s="564" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="552"/>
-      <c r="K83" s="553">
+      <c r="J83" s="565"/>
+      <c r="K83" s="566">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="553"/>
+      <c r="L83" s="566"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -12777,12 +12777,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12799,6 +12793,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13968,10 +13968,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="582" t="s">
+      <c r="I37" s="584" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="583"/>
+      <c r="J37" s="585"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -13990,8 +13990,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="584"/>
-      <c r="J38" s="585"/>
+      <c r="I38" s="586"/>
+      <c r="J38" s="587"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -14010,8 +14010,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="586"/>
-      <c r="J39" s="587"/>
+      <c r="I39" s="588"/>
+      <c r="J39" s="589"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -14569,10 +14569,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="588" t="s">
+      <c r="I67" s="590" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="589"/>
+      <c r="J67" s="591"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -14594,11 +14594,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="592" t="s">
+      <c r="G68" s="594" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="597"/>
-      <c r="J68" s="598"/>
+      <c r="I68" s="599"/>
+      <c r="J68" s="600"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -14609,7 +14609,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="593"/>
+      <c r="G69" s="595"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -15197,23 +15197,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15223,27 +15223,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="555" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="547" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="599" t="s">
+      <c r="R3" s="601" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15258,14 +15258,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="559"/>
+      <c r="H4" s="560" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="561"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15275,11 +15275,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="548"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="600"/>
+      <c r="R4" s="602"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -17335,11 +17335,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="567">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="567">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -17347,7 +17347,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="579">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -17380,10 +17380,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="568"/>
+      <c r="N50" s="568"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="580"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -17468,11 +17468,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="568">
+      <c r="M53" s="545">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="546"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17801,26 +17801,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="562" t="s">
+      <c r="H69" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="563"/>
+      <c r="I69" s="576"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="564">
+      <c r="K69" s="577">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="565"/>
+      <c r="L69" s="578"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="556" t="s">
+      <c r="D70" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="556"/>
+      <c r="E70" s="569"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -17829,23 +17829,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="557" t="s">
+      <c r="D71" s="570" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="557"/>
+      <c r="E71" s="570"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="558" t="s">
+      <c r="I71" s="571" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="559"/>
-      <c r="K71" s="560">
+      <c r="J71" s="572"/>
+      <c r="K71" s="573">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="560"/>
+      <c r="L71" s="573"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -17887,11 +17887,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="561">
+      <c r="K73" s="574">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="560"/>
+      <c r="L73" s="573"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -17908,22 +17908,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="549" t="s">
+      <c r="D75" s="562" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="550"/>
+      <c r="E75" s="563"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="551" t="s">
+      <c r="I75" s="564" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="552"/>
-      <c r="K75" s="553">
+      <c r="J75" s="565"/>
+      <c r="K75" s="566">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="553"/>
+      <c r="L75" s="566"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -18071,6 +18071,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18087,12 +18093,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19262,10 +19262,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="582" t="s">
+      <c r="I37" s="584" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="583"/>
+      <c r="J37" s="585"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -19284,8 +19284,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="584"/>
-      <c r="J38" s="585"/>
+      <c r="I38" s="586"/>
+      <c r="J38" s="587"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -19304,8 +19304,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="586"/>
-      <c r="J39" s="587"/>
+      <c r="I39" s="588"/>
+      <c r="J39" s="589"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -19863,10 +19863,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="588" t="s">
+      <c r="I67" s="590" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="589"/>
+      <c r="J67" s="591"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -19888,11 +19888,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="592" t="s">
+      <c r="G68" s="594" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="597"/>
-      <c r="J68" s="598"/>
+      <c r="I68" s="599"/>
+      <c r="J68" s="600"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -19903,7 +19903,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="593"/>
+      <c r="G69" s="595"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -20492,23 +20492,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20518,25 +20518,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="555" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="547" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="599" t="s">
+      <c r="R3" s="601" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20551,14 +20551,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="559"/>
+      <c r="H4" s="560" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="561"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20568,11 +20568,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="548"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="600"/>
+      <c r="R4" s="602"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -22659,11 +22659,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="554">
+      <c r="M49" s="567">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="567">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -22671,7 +22671,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="579">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -22698,10 +22698,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="568"/>
+      <c r="N50" s="568"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="580"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -22768,11 +22768,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="568">
+      <c r="M53" s="545">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="546"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23055,26 +23055,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="562" t="s">
+      <c r="H69" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="563"/>
+      <c r="I69" s="576"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="564">
+      <c r="K69" s="577">
         <f>I67+L67</f>
         <v>594414.23</v>
       </c>
-      <c r="L69" s="565"/>
+      <c r="L69" s="578"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="556" t="s">
+      <c r="D70" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="556"/>
+      <c r="E70" s="569"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>2892974.0700000003</v>
@@ -23083,22 +23083,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="557" t="s">
+      <c r="D71" s="570" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="557"/>
+      <c r="E71" s="570"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="558" t="s">
+      <c r="I71" s="571" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="559"/>
-      <c r="K71" s="560">
+      <c r="J71" s="572"/>
+      <c r="K71" s="573">
         <f>F73+F74+F75</f>
         <v>4814667.01</v>
       </c>
-      <c r="L71" s="560"/>
+      <c r="L71" s="573"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -23143,11 +23143,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="561">
+      <c r="K73" s="574">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="560"/>
+      <c r="L73" s="573"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -23168,22 +23168,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="549" t="s">
+      <c r="D75" s="562" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="550"/>
+      <c r="E75" s="563"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="551" t="s">
+      <c r="I75" s="564" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="552"/>
-      <c r="K75" s="553">
+      <c r="J75" s="565"/>
+      <c r="K75" s="566">
         <f>K71+K73</f>
         <v>1683279.9699999997</v>
       </c>
-      <c r="L75" s="553"/>
+      <c r="L75" s="566"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -23328,6 +23328,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23344,12 +23350,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24535,10 +24535,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="582" t="s">
+      <c r="I37" s="584" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="583"/>
+      <c r="J37" s="585"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -24563,8 +24563,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="584"/>
-      <c r="J38" s="585"/>
+      <c r="I38" s="586"/>
+      <c r="J38" s="587"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -24589,8 +24589,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="586"/>
-      <c r="J39" s="587"/>
+      <c r="I39" s="588"/>
+      <c r="J39" s="589"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -25196,10 +25196,10 @@
         <f>SUM(G3:G66)</f>
         <v>917631.77</v>
       </c>
-      <c r="I67" s="588" t="s">
+      <c r="I67" s="590" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="589"/>
+      <c r="J67" s="591"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -25221,11 +25221,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="592" t="s">
+      <c r="G68" s="594" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="597"/>
-      <c r="J68" s="598"/>
+      <c r="I68" s="599"/>
+      <c r="J68" s="600"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -25236,7 +25236,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="593"/>
+      <c r="G69" s="595"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -25798,7 +25798,7 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25824,23 +25824,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -25850,25 +25850,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="555" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="547" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="599" t="s">
+      <c r="R3" s="601" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25883,14 +25883,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="559"/>
+      <c r="H4" s="560" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="561"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -25900,11 +25900,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="548"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="600"/>
+      <c r="R4" s="602"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -27152,7 +27152,7 @@
         <f>P28-F28-144338</f>
         <v>-130000</v>
       </c>
-      <c r="R28" s="601">
+      <c r="R28" s="543">
         <v>144338</v>
       </c>
       <c r="S28" s="233"/>
@@ -27186,7 +27186,7 @@
       <c r="J29" s="339">
         <v>45160</v>
       </c>
-      <c r="K29" s="602" t="s">
+      <c r="K29" s="544" t="s">
         <v>918</v>
       </c>
       <c r="L29" s="68">
@@ -27241,18 +27241,19 @@
       <c r="K30" s="65"/>
       <c r="L30" s="49"/>
       <c r="M30" s="42">
-        <v>0</v>
+        <f>52179+6622+7722</f>
+        <v>66523</v>
       </c>
       <c r="N30" s="43">
-        <v>0</v>
+        <v>43120</v>
       </c>
       <c r="P30" s="69">
         <f t="shared" si="0"/>
-        <v>12913</v>
+        <v>122556</v>
       </c>
       <c r="Q30" s="45">
         <f t="shared" si="1"/>
-        <v>-109643</v>
+        <v>0</v>
       </c>
       <c r="R30" s="46">
         <v>0</v>
@@ -27271,7 +27272,9 @@
       <c r="E31" s="35">
         <v>45162</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="36" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="37"/>
       <c r="H31" s="38">
         <v>45162</v>
@@ -27290,9 +27293,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="Q31" s="45" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="R31" s="46">
         <v>0</v>
@@ -27904,21 +27907,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="554">
+      <c r="M49" s="567">
         <f>SUM(M5:M40)</f>
-        <v>2099904.23</v>
-      </c>
-      <c r="N49" s="554">
+        <v>2166427.23</v>
+      </c>
+      <c r="N49" s="567">
         <f>SUM(N5:N40)</f>
-        <v>1472339</v>
+        <v>1515459</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>4215100.54</v>
-      </c>
-      <c r="Q49" s="566">
+        <v>4324743.54</v>
+      </c>
+      <c r="Q49" s="579" t="e">
         <f>SUM(Q5:Q40)</f>
-        <v>-239715.46</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -27937,10 +27940,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="568"/>
+      <c r="N50" s="568"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="580"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -27995,11 +27998,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="568">
+      <c r="M53" s="545">
         <f>M49+N49</f>
-        <v>3572243.23</v>
-      </c>
-      <c r="N53" s="569"/>
+        <v>3681886.23</v>
+      </c>
+      <c r="N53" s="546"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -28280,26 +28283,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="562" t="s">
+      <c r="H69" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="563"/>
+      <c r="I69" s="576"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="564">
+      <c r="K69" s="577">
         <f>I67+L67</f>
         <v>258658.02</v>
       </c>
-      <c r="L69" s="565"/>
+      <c r="L69" s="578"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="556" t="s">
+      <c r="D70" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="556"/>
+      <c r="E70" s="569"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>3593856.98</v>
@@ -28308,22 +28311,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="557" t="s">
+      <c r="D71" s="570" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="557"/>
+      <c r="E71" s="570"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="558" t="s">
+      <c r="I71" s="571" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="559"/>
-      <c r="K71" s="560">
+      <c r="J71" s="572"/>
+      <c r="K71" s="573">
         <f>F73+F74+F75</f>
         <v>6740317.6400000006</v>
       </c>
-      <c r="L71" s="560"/>
+      <c r="L71" s="573"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -28364,11 +28367,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="561">
+      <c r="K73" s="574">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L73" s="560"/>
+      <c r="L73" s="573"/>
       <c r="O73" s="536"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28386,22 +28389,22 @@
       <c r="C75" s="172">
         <v>45171</v>
       </c>
-      <c r="D75" s="549" t="s">
+      <c r="D75" s="562" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="550"/>
+      <c r="E75" s="563"/>
       <c r="F75" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I75" s="551" t="s">
+      <c r="I75" s="564" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="552"/>
-      <c r="K75" s="553">
+      <c r="J75" s="565"/>
+      <c r="K75" s="566">
         <f>K71+K73</f>
         <v>3919766.3300000005</v>
       </c>
-      <c r="L75" s="553"/>
+      <c r="L75" s="566"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -28546,12 +28549,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28568,6 +28565,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29580,10 +29583,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="582" t="s">
+      <c r="I37" s="584" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="583"/>
+      <c r="J37" s="585"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -29608,8 +29611,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="584"/>
-      <c r="J38" s="585"/>
+      <c r="I38" s="586"/>
+      <c r="J38" s="587"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -29634,8 +29637,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="586"/>
-      <c r="J39" s="587"/>
+      <c r="I39" s="588"/>
+      <c r="J39" s="589"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -30241,10 +30244,10 @@
         <f>SUM(G3:G66)</f>
         <v>917631.77</v>
       </c>
-      <c r="I67" s="588" t="s">
+      <c r="I67" s="590" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="589"/>
+      <c r="J67" s="591"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -30266,11 +30269,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="592" t="s">
+      <c r="G68" s="594" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="597"/>
-      <c r="J68" s="598"/>
+      <c r="I68" s="599"/>
+      <c r="J68" s="600"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -30281,7 +30284,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="593"/>
+      <c r="G69" s="595"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -32215,10 +32218,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="579"/>
-      <c r="J36" s="580"/>
-      <c r="K36" s="580"/>
-      <c r="L36" s="581"/>
+      <c r="I36" s="581"/>
+      <c r="J36" s="582"/>
+      <c r="K36" s="582"/>
+      <c r="L36" s="583"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -32245,10 +32248,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="579"/>
-      <c r="J37" s="580"/>
-      <c r="K37" s="580"/>
-      <c r="L37" s="581"/>
+      <c r="I37" s="581"/>
+      <c r="J37" s="582"/>
+      <c r="K37" s="582"/>
+      <c r="L37" s="583"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -32305,10 +32308,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="582" t="s">
+      <c r="I40" s="584" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="583"/>
+      <c r="J40" s="585"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -32327,8 +32330,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="584"/>
-      <c r="J41" s="585"/>
+      <c r="I41" s="586"/>
+      <c r="J41" s="587"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -32347,8 +32350,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="586"/>
-      <c r="J42" s="587"/>
+      <c r="I42" s="588"/>
+      <c r="J42" s="589"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -32852,10 +32855,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="588" t="s">
+      <c r="I67" s="590" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="589"/>
+      <c r="J67" s="591"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -32875,11 +32878,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="592" t="s">
+      <c r="G68" s="594" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="590"/>
-      <c r="J68" s="591"/>
+      <c r="I68" s="592"/>
+      <c r="J68" s="593"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -32890,7 +32893,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="593"/>
+      <c r="G69" s="595"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -33521,23 +33524,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33547,24 +33550,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="555" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="547" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="543" t="s">
+      <c r="R3" s="556" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33579,14 +33582,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="559"/>
+      <c r="H4" s="560" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="561"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33596,11 +33599,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="548"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="544"/>
+      <c r="R4" s="557"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35576,11 +35579,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="567">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="567">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -35588,7 +35591,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="579">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -35621,10 +35624,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="568"/>
+      <c r="N50" s="568"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="580"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -35715,11 +35718,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="568">
+      <c r="M53" s="545">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="546"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36278,26 +36281,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="562" t="s">
+      <c r="H77" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="563"/>
+      <c r="I77" s="576"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="564">
+      <c r="K77" s="577">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="565"/>
+      <c r="L77" s="578"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="556" t="s">
+      <c r="D78" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="556"/>
+      <c r="E78" s="569"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -36306,22 +36309,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="557" t="s">
+      <c r="D79" s="570" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="557"/>
+      <c r="E79" s="570"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="558" t="s">
+      <c r="I79" s="571" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="559"/>
-      <c r="K79" s="560">
+      <c r="J79" s="572"/>
+      <c r="K79" s="573">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="560"/>
+      <c r="L79" s="573"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -36362,11 +36365,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="561">
+      <c r="K81" s="574">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="573"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -36383,22 +36386,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="549" t="s">
+      <c r="D83" s="562" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="550"/>
+      <c r="E83" s="563"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="594" t="s">
+      <c r="I83" s="596" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="595"/>
-      <c r="K83" s="596">
+      <c r="J83" s="597"/>
+      <c r="K83" s="598">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="596"/>
+      <c r="L83" s="598"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -36545,6 +36548,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36561,12 +36570,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37978,10 +37981,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="579"/>
-      <c r="J36" s="580"/>
-      <c r="K36" s="580"/>
-      <c r="L36" s="581"/>
+      <c r="I36" s="581"/>
+      <c r="J36" s="582"/>
+      <c r="K36" s="582"/>
+      <c r="L36" s="583"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -38008,10 +38011,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="579"/>
-      <c r="J37" s="580"/>
-      <c r="K37" s="580"/>
-      <c r="L37" s="581"/>
+      <c r="I37" s="581"/>
+      <c r="J37" s="582"/>
+      <c r="K37" s="582"/>
+      <c r="L37" s="583"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -38078,10 +38081,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="582" t="s">
+      <c r="I40" s="584" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="583"/>
+      <c r="J40" s="585"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -38100,8 +38103,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="584"/>
-      <c r="J41" s="585"/>
+      <c r="I41" s="586"/>
+      <c r="J41" s="587"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -38120,8 +38123,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="586"/>
-      <c r="J42" s="587"/>
+      <c r="I42" s="588"/>
+      <c r="J42" s="589"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -38625,10 +38628,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="588" t="s">
+      <c r="I67" s="590" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="589"/>
+      <c r="J67" s="591"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -38648,11 +38651,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="592" t="s">
+      <c r="G68" s="594" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="597"/>
-      <c r="J68" s="598"/>
+      <c r="I68" s="599"/>
+      <c r="J68" s="600"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -38663,7 +38666,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="593"/>
+      <c r="G69" s="595"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -39278,23 +39281,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -39304,24 +39307,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="555" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="547" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="599" t="s">
+      <c r="R3" s="601" t="s">
         <v>3</v>
       </c>
     </row>
@@ -39336,14 +39339,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="559"/>
+      <c r="H4" s="560" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="561"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -39353,11 +39356,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="548"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="600"/>
+      <c r="R4" s="602"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -41338,11 +41341,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="567">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="567">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -41350,7 +41353,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="579">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -41383,10 +41386,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="568"/>
+      <c r="N50" s="568"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="580"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -41477,11 +41480,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="568">
+      <c r="M53" s="545">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="546"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41960,26 +41963,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="562" t="s">
+      <c r="H77" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="563"/>
+      <c r="I77" s="576"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="564">
+      <c r="K77" s="577">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="565"/>
+      <c r="L77" s="578"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="556" t="s">
+      <c r="D78" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="556"/>
+      <c r="E78" s="569"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -41988,22 +41991,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="557" t="s">
+      <c r="D79" s="570" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="557"/>
+      <c r="E79" s="570"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="558" t="s">
+      <c r="I79" s="571" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="559"/>
-      <c r="K79" s="560">
+      <c r="J79" s="572"/>
+      <c r="K79" s="573">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="560"/>
+      <c r="L79" s="573"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -42044,11 +42047,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="561">
+      <c r="K81" s="574">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="573"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -42065,22 +42068,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="549" t="s">
+      <c r="D83" s="562" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="550"/>
+      <c r="E83" s="563"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="551" t="s">
+      <c r="I83" s="564" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="552"/>
-      <c r="K83" s="553">
+      <c r="J83" s="565"/>
+      <c r="K83" s="566">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="553"/>
+      <c r="L83" s="566"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -42227,12 +42230,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -42249,6 +42246,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -43551,10 +43554,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="579"/>
-      <c r="J36" s="580"/>
-      <c r="K36" s="580"/>
-      <c r="L36" s="581"/>
+      <c r="I36" s="581"/>
+      <c r="J36" s="582"/>
+      <c r="K36" s="582"/>
+      <c r="L36" s="583"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -43571,10 +43574,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="579"/>
-      <c r="J37" s="580"/>
-      <c r="K37" s="580"/>
-      <c r="L37" s="581"/>
+      <c r="I37" s="581"/>
+      <c r="J37" s="582"/>
+      <c r="K37" s="582"/>
+      <c r="L37" s="583"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -43631,10 +43634,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="582" t="s">
+      <c r="I40" s="584" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="583"/>
+      <c r="J40" s="585"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -43653,8 +43656,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="584"/>
-      <c r="J41" s="585"/>
+      <c r="I41" s="586"/>
+      <c r="J41" s="587"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -43673,8 +43676,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="586"/>
-      <c r="J42" s="587"/>
+      <c r="I42" s="588"/>
+      <c r="J42" s="589"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -44178,10 +44181,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="588" t="s">
+      <c r="I67" s="590" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="589"/>
+      <c r="J67" s="591"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -44201,11 +44204,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="592" t="s">
+      <c r="G68" s="594" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="597"/>
-      <c r="J68" s="598"/>
+      <c r="I68" s="599"/>
+      <c r="J68" s="600"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -44216,7 +44219,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="593"/>
+      <c r="G69" s="595"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -44822,23 +44825,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44848,24 +44851,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="555" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="547" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="599" t="s">
+      <c r="R3" s="601" t="s">
         <v>3</v>
       </c>
     </row>
@@ -44880,14 +44883,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="559"/>
+      <c r="H4" s="560" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="561"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44897,11 +44900,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="548"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="600"/>
+      <c r="R4" s="602"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -46922,11 +46925,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="567">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="567">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -46934,7 +46937,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="579">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -46961,10 +46964,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="568"/>
+      <c r="N50" s="568"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="580"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -47038,11 +47041,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="568">
+      <c r="M53" s="545">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="546"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47671,26 +47674,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="562" t="s">
+      <c r="H79" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="563"/>
+      <c r="I79" s="576"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="564">
+      <c r="K79" s="577">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="578"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="556" t="s">
+      <c r="D80" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="556"/>
+      <c r="E80" s="569"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -47699,22 +47702,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="557" t="s">
+      <c r="D81" s="570" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="557"/>
+      <c r="E81" s="570"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="558" t="s">
+      <c r="I81" s="571" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="559"/>
-      <c r="K81" s="560">
+      <c r="J81" s="572"/>
+      <c r="K81" s="573">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="573"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -47755,11 +47758,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="561">
+      <c r="K83" s="574">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="560"/>
+      <c r="L83" s="573"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -47776,22 +47779,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="549" t="s">
+      <c r="D85" s="562" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="550"/>
+      <c r="E85" s="563"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="551" t="s">
+      <c r="I85" s="564" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="552"/>
-      <c r="K85" s="553">
+      <c r="J85" s="565"/>
+      <c r="K85" s="566">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="553"/>
+      <c r="L85" s="566"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -47939,6 +47942,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47955,12 +47964,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49280,10 +49283,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="579"/>
-      <c r="J36" s="580"/>
-      <c r="K36" s="580"/>
-      <c r="L36" s="581"/>
+      <c r="I36" s="581"/>
+      <c r="J36" s="582"/>
+      <c r="K36" s="582"/>
+      <c r="L36" s="583"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -49306,10 +49309,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="579"/>
-      <c r="J37" s="580"/>
-      <c r="K37" s="580"/>
-      <c r="L37" s="581"/>
+      <c r="I37" s="581"/>
+      <c r="J37" s="582"/>
+      <c r="K37" s="582"/>
+      <c r="L37" s="583"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -49384,10 +49387,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="582" t="s">
+      <c r="I40" s="584" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="583"/>
+      <c r="J40" s="585"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -49412,8 +49415,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="584"/>
-      <c r="J41" s="585"/>
+      <c r="I41" s="586"/>
+      <c r="J41" s="587"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -49438,8 +49441,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="586"/>
-      <c r="J42" s="587"/>
+      <c r="I42" s="588"/>
+      <c r="J42" s="589"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -49961,10 +49964,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="588" t="s">
+      <c r="I67" s="590" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="589"/>
+      <c r="J67" s="591"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -49984,11 +49987,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="592" t="s">
+      <c r="G68" s="594" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="597"/>
-      <c r="J68" s="598"/>
+      <c r="I68" s="599"/>
+      <c r="J68" s="600"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -49999,7 +50002,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="593"/>
+      <c r="G69" s="595"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -50615,23 +50618,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="572"/>
-      <c r="C1" s="574" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="551" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="575"/>
-      <c r="E1" s="575"/>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
-      <c r="H1" s="575"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="575"/>
-      <c r="K1" s="575"/>
-      <c r="L1" s="575"/>
-      <c r="M1" s="575"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+      <c r="L1" s="552"/>
+      <c r="M1" s="552"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="573"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -50641,27 +50644,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="577"/>
+      <c r="B3" s="553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="554"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="578" t="s">
+      <c r="H3" s="555" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="578"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="570" t="s">
+      <c r="P3" s="547" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="599" t="s">
+      <c r="R3" s="601" t="s">
         <v>3</v>
       </c>
     </row>
@@ -50676,14 +50679,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="545" t="s">
+      <c r="E4" s="558" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="546"/>
-      <c r="H4" s="547" t="s">
+      <c r="F4" s="559"/>
+      <c r="H4" s="560" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="561"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -50693,11 +50696,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="571"/>
+      <c r="P4" s="548"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="600"/>
+      <c r="R4" s="602"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -52700,11 +52703,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="554">
+      <c r="M49" s="567">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="554">
+      <c r="N49" s="567">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -52712,7 +52715,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="566">
+      <c r="Q49" s="579">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -52745,10 +52748,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="555"/>
-      <c r="N50" s="555"/>
+      <c r="M50" s="568"/>
+      <c r="N50" s="568"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="567"/>
+      <c r="Q50" s="580"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -52827,11 +52830,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="568">
+      <c r="M53" s="545">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="569"/>
+      <c r="N53" s="546"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -53310,26 +53313,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="562" t="s">
+      <c r="H77" s="575" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="563"/>
+      <c r="I77" s="576"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="564">
+      <c r="K77" s="577">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="565"/>
+      <c r="L77" s="578"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="556" t="s">
+      <c r="D78" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="556"/>
+      <c r="E78" s="569"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -53338,22 +53341,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="557" t="s">
+      <c r="D79" s="570" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="557"/>
+      <c r="E79" s="570"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="558" t="s">
+      <c r="I79" s="571" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="559"/>
-      <c r="K79" s="560">
+      <c r="J79" s="572"/>
+      <c r="K79" s="573">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="560"/>
+      <c r="L79" s="573"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -53394,11 +53397,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="561">
+      <c r="K81" s="574">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="560"/>
+      <c r="L81" s="573"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -53415,22 +53418,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="549" t="s">
+      <c r="D83" s="562" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="550"/>
+      <c r="E83" s="563"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="594" t="s">
+      <c r="I83" s="596" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="595"/>
-      <c r="K83" s="596">
+      <c r="J83" s="597"/>
+      <c r="K83" s="598">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="596"/>
+      <c r="L83" s="598"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -53578,12 +53581,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53600,6 +53597,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="921">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3384,6 +3384,9 @@
   </si>
   <si>
     <t>ARABE-VERDURA-POLLO-QUESOS-SALCHICHA</t>
+  </si>
+  <si>
+    <t>pollo</t>
   </si>
 </sst>
 </file>
@@ -6091,39 +6094,6 @@
     <xf numFmtId="16" fontId="23" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6198,6 +6168,39 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10076,23 +10079,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="574"/>
+      <c r="C1" s="576" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="575"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10102,24 +10105,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="578" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="579"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="580"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="547" t="s">
+      <c r="P3" s="572" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="556" t="s">
+      <c r="R3" s="545" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10134,14 +10137,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="558" t="s">
+      <c r="E4" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="H4" s="560" t="s">
+      <c r="F4" s="548"/>
+      <c r="H4" s="549" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="561"/>
+      <c r="I4" s="550"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10151,11 +10154,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="548"/>
+      <c r="P4" s="573"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="557"/>
+      <c r="R4" s="546"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11990,11 +11993,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="567">
+      <c r="M49" s="556">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="567">
+      <c r="N49" s="556">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -12002,7 +12005,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="579">
+      <c r="Q49" s="568">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -12023,10 +12026,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="568"/>
-      <c r="N50" s="568"/>
+      <c r="M50" s="557"/>
+      <c r="N50" s="557"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="580"/>
+      <c r="Q50" s="569"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -12081,11 +12084,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="545">
+      <c r="M53" s="570">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="546"/>
+      <c r="N53" s="571"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -12510,26 +12513,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="575" t="s">
+      <c r="H77" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="576"/>
+      <c r="I77" s="565"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="577">
+      <c r="K77" s="566">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="578"/>
+      <c r="L77" s="567"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="569" t="s">
+      <c r="D78" s="558" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="569"/>
+      <c r="E78" s="558"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -12538,22 +12541,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="570" t="s">
+      <c r="D79" s="559" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="570"/>
+      <c r="E79" s="559"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="571" t="s">
+      <c r="I79" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="572"/>
-      <c r="K79" s="573">
+      <c r="J79" s="561"/>
+      <c r="K79" s="562">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="573"/>
+      <c r="L79" s="562"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -12594,11 +12597,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="574">
+      <c r="K81" s="563">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="573"/>
+      <c r="L81" s="562"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -12615,22 +12618,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="562" t="s">
+      <c r="D83" s="551" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="563"/>
+      <c r="E83" s="552"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="564" t="s">
+      <c r="I83" s="553" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="565"/>
-      <c r="K83" s="566">
+      <c r="J83" s="554"/>
+      <c r="K83" s="555">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="566"/>
+      <c r="L83" s="555"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -12777,6 +12780,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12793,12 +12802,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15197,23 +15200,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="574"/>
+      <c r="C1" s="576" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="575"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15223,21 +15226,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="578" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="579"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="580"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="547" t="s">
+      <c r="P3" s="572" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -15258,14 +15261,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="558" t="s">
+      <c r="E4" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="H4" s="560" t="s">
+      <c r="F4" s="548"/>
+      <c r="H4" s="549" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="561"/>
+      <c r="I4" s="550"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15275,7 +15278,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="548"/>
+      <c r="P4" s="573"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -17335,11 +17338,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="567">
+      <c r="M49" s="556">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="567">
+      <c r="N49" s="556">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -17347,7 +17350,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="579">
+      <c r="Q49" s="568">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -17380,10 +17383,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="568"/>
-      <c r="N50" s="568"/>
+      <c r="M50" s="557"/>
+      <c r="N50" s="557"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="580"/>
+      <c r="Q50" s="569"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -17468,11 +17471,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="545">
+      <c r="M53" s="570">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="546"/>
+      <c r="N53" s="571"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17801,26 +17804,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="575" t="s">
+      <c r="H69" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="576"/>
+      <c r="I69" s="565"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="577">
+      <c r="K69" s="566">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="578"/>
+      <c r="L69" s="567"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="569" t="s">
+      <c r="D70" s="558" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="569"/>
+      <c r="E70" s="558"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -17829,23 +17832,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="570" t="s">
+      <c r="D71" s="559" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="570"/>
+      <c r="E71" s="559"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="571" t="s">
+      <c r="I71" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="572"/>
-      <c r="K71" s="573">
+      <c r="J71" s="561"/>
+      <c r="K71" s="562">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="573"/>
+      <c r="L71" s="562"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -17887,11 +17890,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="574">
+      <c r="K73" s="563">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="573"/>
+      <c r="L73" s="562"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -17908,22 +17911,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="562" t="s">
+      <c r="D75" s="551" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="563"/>
+      <c r="E75" s="552"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="564" t="s">
+      <c r="I75" s="553" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="565"/>
-      <c r="K75" s="566">
+      <c r="J75" s="554"/>
+      <c r="K75" s="555">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="566"/>
+      <c r="L75" s="555"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -18071,12 +18074,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18093,6 +18090,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20492,23 +20495,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="574"/>
+      <c r="C1" s="576" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="575"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20518,21 +20521,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="578" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="579"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="580"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="547" t="s">
+      <c r="P3" s="572" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -20551,14 +20554,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="558" t="s">
+      <c r="E4" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="H4" s="560" t="s">
+      <c r="F4" s="548"/>
+      <c r="H4" s="549" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="561"/>
+      <c r="I4" s="550"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20568,7 +20571,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="548"/>
+      <c r="P4" s="573"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -22659,11 +22662,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="567">
+      <c r="M49" s="556">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="567">
+      <c r="N49" s="556">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -22671,7 +22674,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="579">
+      <c r="Q49" s="568">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -22698,10 +22701,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="568"/>
-      <c r="N50" s="568"/>
+      <c r="M50" s="557"/>
+      <c r="N50" s="557"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="580"/>
+      <c r="Q50" s="569"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -22768,11 +22771,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="545">
+      <c r="M53" s="570">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="546"/>
+      <c r="N53" s="571"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23055,26 +23058,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="575" t="s">
+      <c r="H69" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="576"/>
+      <c r="I69" s="565"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="577">
+      <c r="K69" s="566">
         <f>I67+L67</f>
         <v>594414.23</v>
       </c>
-      <c r="L69" s="578"/>
+      <c r="L69" s="567"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="569" t="s">
+      <c r="D70" s="558" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="569"/>
+      <c r="E70" s="558"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>2892974.0700000003</v>
@@ -23083,22 +23086,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="570" t="s">
+      <c r="D71" s="559" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="570"/>
+      <c r="E71" s="559"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="571" t="s">
+      <c r="I71" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="572"/>
-      <c r="K71" s="573">
+      <c r="J71" s="561"/>
+      <c r="K71" s="562">
         <f>F73+F74+F75</f>
         <v>4814667.01</v>
       </c>
-      <c r="L71" s="573"/>
+      <c r="L71" s="562"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -23143,11 +23146,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="574">
+      <c r="K73" s="563">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="573"/>
+      <c r="L73" s="562"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -23168,22 +23171,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="562" t="s">
+      <c r="D75" s="551" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="563"/>
+      <c r="E75" s="552"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="564" t="s">
+      <c r="I75" s="553" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="565"/>
-      <c r="K75" s="566">
+      <c r="J75" s="554"/>
+      <c r="K75" s="555">
         <f>K71+K73</f>
         <v>1683279.9699999997</v>
       </c>
-      <c r="L75" s="566"/>
+      <c r="L75" s="555"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -23328,12 +23331,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23350,6 +23347,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25797,8 +25800,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25824,23 +25827,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="574"/>
+      <c r="C1" s="576" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="575"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -25850,21 +25853,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="578" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="579"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="580"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="547" t="s">
+      <c r="P3" s="572" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -25883,14 +25886,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="558" t="s">
+      <c r="E4" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="H4" s="560" t="s">
+      <c r="F4" s="548"/>
+      <c r="H4" s="549" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="561"/>
+      <c r="I4" s="550"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -25900,7 +25903,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="548"/>
+      <c r="P4" s="573"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -27267,38 +27270,44 @@
       <c r="B31" s="32">
         <v>45162</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="33">
+        <v>2070</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>920</v>
+      </c>
       <c r="E31" s="35">
         <v>45162</v>
       </c>
-      <c r="F31" s="36" t="s">
-        <v>10</v>
+      <c r="F31" s="36">
+        <v>140850</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="38">
         <v>45162</v>
       </c>
-      <c r="I31" s="39"/>
+      <c r="I31" s="39">
+        <v>1675</v>
+      </c>
       <c r="J31" s="338"/>
       <c r="K31" s="347"/>
       <c r="L31" s="68"/>
       <c r="M31" s="42">
-        <v>0</v>
+        <v>90791</v>
       </c>
       <c r="N31" s="43">
-        <v>0</v>
+        <v>46314</v>
       </c>
       <c r="P31" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R31" s="46">
-        <v>0</v>
+        <v>140850</v>
+      </c>
+      <c r="Q31" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="S31" s="233"/>
     </row>
@@ -27907,21 +27916,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="567">
+      <c r="M49" s="556">
         <f>SUM(M5:M40)</f>
-        <v>2166427.23</v>
-      </c>
-      <c r="N49" s="567">
+        <v>2257218.23</v>
+      </c>
+      <c r="N49" s="556">
         <f>SUM(N5:N40)</f>
-        <v>1515459</v>
+        <v>1561773</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>4324743.54</v>
-      </c>
-      <c r="Q49" s="579" t="e">
+        <v>4465593.54</v>
+      </c>
+      <c r="Q49" s="568">
         <f>SUM(Q5:Q40)</f>
-        <v>#VALUE!</v>
+        <v>-130072.45999999999</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -27940,10 +27949,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="568"/>
-      <c r="N50" s="568"/>
+      <c r="M50" s="557"/>
+      <c r="N50" s="557"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="580"/>
+      <c r="Q50" s="569"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -27998,11 +28007,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="545">
+      <c r="M53" s="570">
         <f>M49+N49</f>
-        <v>3681886.23</v>
-      </c>
-      <c r="N53" s="546"/>
+        <v>3818991.23</v>
+      </c>
+      <c r="N53" s="571"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -28241,7 +28250,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>455779</v>
+        <v>457849</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -28249,7 +28258,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>4308294</v>
+        <v>4449144</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -28257,7 +28266,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>73975.5</v>
+        <v>75650.5</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -28283,50 +28292,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="575" t="s">
+      <c r="H69" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="576"/>
+      <c r="I69" s="565"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="577">
+      <c r="K69" s="566">
         <f>I67+L67</f>
-        <v>258658.02</v>
-      </c>
-      <c r="L69" s="578"/>
+        <v>260333.02</v>
+      </c>
+      <c r="L69" s="567"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="569" t="s">
+      <c r="D70" s="558" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="569"/>
+      <c r="E70" s="558"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>3593856.98</v>
+        <v>3730961.98</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="570" t="s">
+      <c r="D71" s="559" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="570"/>
+      <c r="E71" s="559"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="571" t="s">
+      <c r="I71" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="572"/>
-      <c r="K71" s="573">
+      <c r="J71" s="561"/>
+      <c r="K71" s="562">
         <f>F73+F74+F75</f>
-        <v>6740317.6400000006</v>
-      </c>
-      <c r="L71" s="573"/>
+        <v>6877422.6400000006</v>
+      </c>
+      <c r="L71" s="562"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -28360,18 +28369,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>3593856.98</v>
+        <v>3730961.98</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="574">
+      <c r="K73" s="563">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L73" s="573"/>
+      <c r="L73" s="562"/>
       <c r="O73" s="536"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28389,22 +28398,22 @@
       <c r="C75" s="172">
         <v>45171</v>
       </c>
-      <c r="D75" s="562" t="s">
+      <c r="D75" s="551" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="563"/>
+      <c r="E75" s="552"/>
       <c r="F75" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I75" s="564" t="s">
+      <c r="I75" s="553" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="565"/>
-      <c r="K75" s="566">
+      <c r="J75" s="554"/>
+      <c r="K75" s="555">
         <f>K71+K73</f>
-        <v>3919766.3300000005</v>
-      </c>
-      <c r="L75" s="566"/>
+        <v>4056871.3300000005</v>
+      </c>
+      <c r="L75" s="555"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -28549,6 +28558,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28565,12 +28580,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33524,23 +33533,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="574"/>
+      <c r="C1" s="576" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="575"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33550,24 +33559,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="578" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="579"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="580"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="547" t="s">
+      <c r="P3" s="572" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="556" t="s">
+      <c r="R3" s="545" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33582,14 +33591,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="558" t="s">
+      <c r="E4" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="H4" s="560" t="s">
+      <c r="F4" s="548"/>
+      <c r="H4" s="549" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="561"/>
+      <c r="I4" s="550"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33599,11 +33608,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="548"/>
+      <c r="P4" s="573"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="557"/>
+      <c r="R4" s="546"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35579,11 +35588,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="567">
+      <c r="M49" s="556">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="567">
+      <c r="N49" s="556">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -35591,7 +35600,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="579">
+      <c r="Q49" s="568">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -35624,10 +35633,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="568"/>
-      <c r="N50" s="568"/>
+      <c r="M50" s="557"/>
+      <c r="N50" s="557"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="580"/>
+      <c r="Q50" s="569"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -35718,11 +35727,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="545">
+      <c r="M53" s="570">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="546"/>
+      <c r="N53" s="571"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36281,26 +36290,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="575" t="s">
+      <c r="H77" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="576"/>
+      <c r="I77" s="565"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="577">
+      <c r="K77" s="566">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="578"/>
+      <c r="L77" s="567"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="569" t="s">
+      <c r="D78" s="558" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="569"/>
+      <c r="E78" s="558"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -36309,22 +36318,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="570" t="s">
+      <c r="D79" s="559" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="570"/>
+      <c r="E79" s="559"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="571" t="s">
+      <c r="I79" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="572"/>
-      <c r="K79" s="573">
+      <c r="J79" s="561"/>
+      <c r="K79" s="562">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="573"/>
+      <c r="L79" s="562"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -36365,11 +36374,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="574">
+      <c r="K81" s="563">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="573"/>
+      <c r="L81" s="562"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -36386,10 +36395,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="562" t="s">
+      <c r="D83" s="551" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="563"/>
+      <c r="E83" s="552"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -36548,12 +36557,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36570,6 +36573,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39281,23 +39290,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="574"/>
+      <c r="C1" s="576" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="575"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -39307,21 +39316,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="578" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="579"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="580"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="547" t="s">
+      <c r="P3" s="572" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="601" t="s">
@@ -39339,14 +39348,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="558" t="s">
+      <c r="E4" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="H4" s="560" t="s">
+      <c r="F4" s="548"/>
+      <c r="H4" s="549" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="561"/>
+      <c r="I4" s="550"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -39356,7 +39365,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="548"/>
+      <c r="P4" s="573"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -41341,11 +41350,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="567">
+      <c r="M49" s="556">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="567">
+      <c r="N49" s="556">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -41353,7 +41362,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="579">
+      <c r="Q49" s="568">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -41386,10 +41395,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="568"/>
-      <c r="N50" s="568"/>
+      <c r="M50" s="557"/>
+      <c r="N50" s="557"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="580"/>
+      <c r="Q50" s="569"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -41480,11 +41489,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="545">
+      <c r="M53" s="570">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="546"/>
+      <c r="N53" s="571"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41963,26 +41972,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="575" t="s">
+      <c r="H77" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="576"/>
+      <c r="I77" s="565"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="577">
+      <c r="K77" s="566">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="578"/>
+      <c r="L77" s="567"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="569" t="s">
+      <c r="D78" s="558" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="569"/>
+      <c r="E78" s="558"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -41991,22 +42000,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="570" t="s">
+      <c r="D79" s="559" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="570"/>
+      <c r="E79" s="559"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="571" t="s">
+      <c r="I79" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="572"/>
-      <c r="K79" s="573">
+      <c r="J79" s="561"/>
+      <c r="K79" s="562">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="573"/>
+      <c r="L79" s="562"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -42047,11 +42056,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="574">
+      <c r="K81" s="563">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="573"/>
+      <c r="L81" s="562"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -42068,22 +42077,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="562" t="s">
+      <c r="D83" s="551" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="563"/>
+      <c r="E83" s="552"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="564" t="s">
+      <c r="I83" s="553" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="565"/>
-      <c r="K83" s="566">
+      <c r="J83" s="554"/>
+      <c r="K83" s="555">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="566"/>
+      <c r="L83" s="555"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -42230,6 +42239,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -42246,12 +42261,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44825,23 +44834,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="574"/>
+      <c r="C1" s="576" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="575"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44851,21 +44860,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="578" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="579"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="580"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="547" t="s">
+      <c r="P3" s="572" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="601" t="s">
@@ -44883,14 +44892,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="558" t="s">
+      <c r="E4" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="H4" s="560" t="s">
+      <c r="F4" s="548"/>
+      <c r="H4" s="549" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="561"/>
+      <c r="I4" s="550"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44900,7 +44909,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="548"/>
+      <c r="P4" s="573"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -46925,11 +46934,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="567">
+      <c r="M49" s="556">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="567">
+      <c r="N49" s="556">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -46937,7 +46946,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="579">
+      <c r="Q49" s="568">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -46964,10 +46973,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="568"/>
-      <c r="N50" s="568"/>
+      <c r="M50" s="557"/>
+      <c r="N50" s="557"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="580"/>
+      <c r="Q50" s="569"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -47041,11 +47050,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="545">
+      <c r="M53" s="570">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="546"/>
+      <c r="N53" s="571"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47674,26 +47683,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="575" t="s">
+      <c r="H79" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="576"/>
+      <c r="I79" s="565"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="577">
+      <c r="K79" s="566">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="578"/>
+      <c r="L79" s="567"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="569" t="s">
+      <c r="D80" s="558" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="569"/>
+      <c r="E80" s="558"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -47702,22 +47711,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="570" t="s">
+      <c r="D81" s="559" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="570"/>
+      <c r="E81" s="559"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="571" t="s">
+      <c r="I81" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="572"/>
-      <c r="K81" s="573">
+      <c r="J81" s="561"/>
+      <c r="K81" s="562">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="573"/>
+      <c r="L81" s="562"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -47758,11 +47767,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="574">
+      <c r="K83" s="563">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="573"/>
+      <c r="L83" s="562"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -47779,22 +47788,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="562" t="s">
+      <c r="D85" s="551" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="563"/>
+      <c r="E85" s="552"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="564" t="s">
+      <c r="I85" s="553" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="565"/>
-      <c r="K85" s="566">
+      <c r="J85" s="554"/>
+      <c r="K85" s="555">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="566"/>
+      <c r="L85" s="555"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -47942,12 +47951,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47964,6 +47967,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50618,23 +50627,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="549"/>
-      <c r="C1" s="551" t="s">
+      <c r="B1" s="574"/>
+      <c r="C1" s="576" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
-      <c r="L1" s="552"/>
-      <c r="M1" s="552"/>
+      <c r="D1" s="577"/>
+      <c r="E1" s="577"/>
+      <c r="F1" s="577"/>
+      <c r="G1" s="577"/>
+      <c r="H1" s="577"/>
+      <c r="I1" s="577"/>
+      <c r="J1" s="577"/>
+      <c r="K1" s="577"/>
+      <c r="L1" s="577"/>
+      <c r="M1" s="577"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="550"/>
+      <c r="B2" s="575"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -50644,21 +50653,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="554"/>
+      <c r="B3" s="578" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="579"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="555" t="s">
+      <c r="H3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="555"/>
+      <c r="I3" s="580"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="547" t="s">
+      <c r="P3" s="572" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -50679,14 +50688,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="558" t="s">
+      <c r="E4" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="H4" s="560" t="s">
+      <c r="F4" s="548"/>
+      <c r="H4" s="549" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="561"/>
+      <c r="I4" s="550"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -50696,7 +50705,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="548"/>
+      <c r="P4" s="573"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -52703,11 +52712,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="567">
+      <c r="M49" s="556">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="567">
+      <c r="N49" s="556">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -52715,7 +52724,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="579">
+      <c r="Q49" s="568">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -52748,10 +52757,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="568"/>
-      <c r="N50" s="568"/>
+      <c r="M50" s="557"/>
+      <c r="N50" s="557"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="580"/>
+      <c r="Q50" s="569"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -52830,11 +52839,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="545">
+      <c r="M53" s="570">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="546"/>
+      <c r="N53" s="571"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -53313,26 +53322,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="575" t="s">
+      <c r="H77" s="564" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="576"/>
+      <c r="I77" s="565"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="577">
+      <c r="K77" s="566">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="578"/>
+      <c r="L77" s="567"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="569" t="s">
+      <c r="D78" s="558" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="569"/>
+      <c r="E78" s="558"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -53341,22 +53350,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="570" t="s">
+      <c r="D79" s="559" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="570"/>
+      <c r="E79" s="559"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="571" t="s">
+      <c r="I79" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="572"/>
-      <c r="K79" s="573">
+      <c r="J79" s="561"/>
+      <c r="K79" s="562">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="573"/>
+      <c r="L79" s="562"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -53397,11 +53406,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="574">
+      <c r="K81" s="563">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="573"/>
+      <c r="L81" s="562"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -53418,10 +53427,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="562" t="s">
+      <c r="D83" s="551" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="563"/>
+      <c r="E83" s="552"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -53581,6 +53590,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53597,12 +53612,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="936">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3365,9 +3365,6 @@
     <t>FLETE-POLLO-JAMON-CHORIZO-MAIZ-QUESOS-SLCHICHA</t>
   </si>
   <si>
-    <t>Nomian # 33</t>
-  </si>
-  <si>
     <t>Nomina # 33</t>
   </si>
   <si>
@@ -3387,6 +3384,54 @@
   </si>
   <si>
     <t>pollo</t>
+  </si>
+  <si>
+    <t>POLLO-JAMON-CHIMICHURRI-PASTOR</t>
+  </si>
+  <si>
+    <t>Noimina  # 34</t>
+  </si>
+  <si>
+    <t>Nomina # 34</t>
+  </si>
+  <si>
+    <t>CHORIZO-QUESOS-CHISTORRA *TOCINETA</t>
+  </si>
+  <si>
+    <t>QUESOS-CHISTORRA-ROAS BEFF-JAMON-SALCHICHA-POLLO-CHORIZO</t>
+  </si>
+  <si>
+    <t>VACACIONES Julio</t>
+  </si>
+  <si>
+    <t>BIMBO-SALCHICHA-PIMIENTA-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>POLLO-JAMON-CHORIZO-MAIZ-QUESOS</t>
+  </si>
+  <si>
+    <t>NOTA 2404 ALBICIA</t>
+  </si>
+  <si>
+    <t>NOTA 2667 ALBICIA</t>
+  </si>
+  <si>
+    <t>NOTA 2940 ALBICIA</t>
+  </si>
+  <si>
+    <t>NOTA 3268 ALBICIA</t>
+  </si>
+  <si>
+    <t>NOTA 3491 ALBICIA</t>
+  </si>
+  <si>
+    <t>NOTA 3747 ALBICIA</t>
+  </si>
+  <si>
+    <t>NOTA 4176 ALBICIA</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-PASTOR-ARABE</t>
   </si>
 </sst>
 </file>
@@ -5070,7 +5115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="603">
+  <cellXfs count="604">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6268,6 +6313,7 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="19" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -20469,7 +20515,7 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25800,8 +25846,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="N42" sqref="N41:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25953,7 +25999,7 @@
         <v>62709</v>
       </c>
       <c r="P5" s="44">
-        <f t="shared" ref="P5:P33" si="0">N5+M5+L5+I5+C5</f>
+        <f t="shared" ref="P5:P39" si="0">N5+M5+L5+I5+C5</f>
         <v>179455</v>
       </c>
       <c r="Q5" s="45">
@@ -27073,7 +27119,7 @@
         <v>26314</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E27" s="35">
         <v>45158</v>
@@ -27122,7 +27168,7 @@
         <v>65201</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E28" s="35">
         <v>45159</v>
@@ -27141,19 +27187,19 @@
       <c r="K28" s="70"/>
       <c r="L28" s="68"/>
       <c r="M28" s="42">
-        <f>18114.5+122997</f>
-        <v>141111.5</v>
+        <f>18114.5+122997+130000</f>
+        <v>271111.5</v>
       </c>
       <c r="N28" s="43">
         <v>34139</v>
       </c>
       <c r="P28" s="69">
         <f t="shared" si="0"/>
-        <v>244324</v>
-      </c>
-      <c r="Q28" s="285">
+        <v>374324</v>
+      </c>
+      <c r="Q28" s="45">
         <f>P28-F28-144338</f>
-        <v>-130000</v>
+        <v>0</v>
       </c>
       <c r="R28" s="543">
         <v>144338</v>
@@ -27171,7 +27217,7 @@
         <v>13817</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E29" s="35">
         <v>45160</v>
@@ -27190,7 +27236,7 @@
         <v>45160</v>
       </c>
       <c r="K29" s="544" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L29" s="68">
         <v>943</v>
@@ -27225,7 +27271,7 @@
         <v>9837</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E30" s="35">
         <v>45161</v>
@@ -27274,7 +27320,7 @@
         <v>2070</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E31" s="35">
         <v>45162</v>
@@ -27318,32 +27364,40 @@
       <c r="B32" s="32">
         <v>45163</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="305"/>
+      <c r="C32" s="33">
+        <v>13497</v>
+      </c>
+      <c r="D32" s="305" t="s">
+        <v>920</v>
+      </c>
       <c r="E32" s="35">
         <v>45163</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="36">
+        <v>138559</v>
+      </c>
       <c r="G32" s="37"/>
       <c r="H32" s="38">
         <v>45163</v>
       </c>
-      <c r="I32" s="39"/>
+      <c r="I32" s="39">
+        <v>3047.5</v>
+      </c>
       <c r="J32" s="367"/>
       <c r="K32" s="368"/>
       <c r="L32" s="369"/>
       <c r="M32" s="42">
-        <v>0</v>
+        <v>74281.5</v>
       </c>
       <c r="N32" s="43">
-        <v>0</v>
+        <v>47733</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P32" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138559</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" si="1"/>
@@ -27358,29 +27412,43 @@
       <c r="B33" s="32">
         <v>45164</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="83"/>
+      <c r="C33" s="33">
+        <v>10391.5</v>
+      </c>
+      <c r="D33" s="83" t="s">
+        <v>122</v>
+      </c>
       <c r="E33" s="35">
         <v>45164</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="36">
+        <v>183836</v>
+      </c>
       <c r="G33" s="37"/>
       <c r="H33" s="38">
         <v>45164</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="370"/>
-      <c r="K33" s="371"/>
-      <c r="L33" s="372"/>
+      <c r="I33" s="39">
+        <v>3779</v>
+      </c>
+      <c r="J33" s="338">
+        <v>45164</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>921</v>
+      </c>
+      <c r="L33" s="101">
+        <v>24256</v>
+      </c>
       <c r="M33" s="42">
-        <v>0</v>
+        <v>71660.5</v>
       </c>
       <c r="N33" s="43">
-        <v>0</v>
+        <v>73749</v>
       </c>
       <c r="P33" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>183836</v>
       </c>
       <c r="Q33" s="45">
         <f t="shared" si="1"/>
@@ -27395,28 +27463,37 @@
       <c r="B34" s="32">
         <v>45165</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="83"/>
+      <c r="C34" s="33">
+        <v>23416</v>
+      </c>
+      <c r="D34" s="83" t="s">
+        <v>923</v>
+      </c>
       <c r="E34" s="35">
         <v>45165</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="36">
+        <v>156871</v>
+      </c>
       <c r="G34" s="37"/>
       <c r="H34" s="38">
         <v>45165</v>
       </c>
-      <c r="I34" s="39"/>
+      <c r="I34" s="39">
+        <v>1724</v>
+      </c>
       <c r="J34" s="534"/>
       <c r="K34" s="373"/>
       <c r="L34" s="369"/>
       <c r="M34" s="42">
-        <v>0</v>
+        <v>78590</v>
       </c>
       <c r="N34" s="43">
-        <v>0</v>
+        <v>53141</v>
       </c>
       <c r="P34" s="69">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>156871</v>
       </c>
       <c r="Q34" s="45">
         <f t="shared" si="1"/>
@@ -27434,28 +27511,44 @@
       <c r="B35" s="32">
         <v>45166</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="86">
+        <v>22731</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>924</v>
+      </c>
       <c r="E35" s="35">
         <v>45166</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="36">
+        <v>132570</v>
+      </c>
       <c r="G35" s="37"/>
       <c r="H35" s="38">
         <v>45166</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="374"/>
-      <c r="K35" s="373"/>
-      <c r="L35" s="375"/>
+      <c r="I35" s="39">
+        <v>4341</v>
+      </c>
+      <c r="J35" s="374">
+        <v>45166</v>
+      </c>
+      <c r="K35" s="373" t="s">
+        <v>925</v>
+      </c>
+      <c r="L35" s="375">
+        <v>4829</v>
+      </c>
       <c r="M35" s="42">
-        <v>0</v>
+        <f>49296+3082</f>
+        <v>52378</v>
       </c>
       <c r="N35" s="43">
-        <v>0</v>
+        <v>48291</v>
       </c>
       <c r="P35" s="69">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>132570</v>
       </c>
       <c r="Q35" s="45">
         <f t="shared" si="1"/>
@@ -27470,28 +27563,38 @@
       <c r="B36" s="32">
         <v>45167</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="94"/>
+      <c r="C36" s="90">
+        <v>22872</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>926</v>
+      </c>
       <c r="E36" s="35">
         <v>45167</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="36">
+        <v>128058</v>
+      </c>
       <c r="G36" s="92"/>
       <c r="H36" s="38">
         <v>45167</v>
       </c>
-      <c r="I36" s="39"/>
+      <c r="I36" s="39">
+        <v>3101</v>
+      </c>
       <c r="J36" s="338"/>
       <c r="K36" s="88"/>
       <c r="L36" s="49"/>
       <c r="M36" s="42">
-        <v>0</v>
+        <f>42195+6667</f>
+        <v>48862</v>
       </c>
       <c r="N36" s="43">
-        <v>0</v>
+        <v>53223</v>
       </c>
       <c r="P36" s="69">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>128058</v>
       </c>
       <c r="Q36" s="45">
         <f t="shared" si="1"/>
@@ -27506,28 +27609,38 @@
       <c r="B37" s="32">
         <v>45168</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
+      <c r="C37" s="93">
+        <v>19567</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>927</v>
+      </c>
       <c r="E37" s="35">
         <v>45168</v>
       </c>
-      <c r="F37" s="36"/>
+      <c r="F37" s="36">
+        <v>200350</v>
+      </c>
       <c r="G37" s="92"/>
       <c r="H37" s="38">
         <v>45168</v>
       </c>
-      <c r="I37" s="39"/>
+      <c r="I37" s="39">
+        <v>2655</v>
+      </c>
       <c r="J37" s="338"/>
       <c r="K37" s="350"/>
       <c r="L37" s="49"/>
       <c r="M37" s="42">
-        <v>0</v>
+        <f>3544+6600+8800+115416</f>
+        <v>134360</v>
       </c>
       <c r="N37" s="43">
-        <v>0</v>
+        <v>43768</v>
       </c>
       <c r="P37" s="69">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>200350</v>
       </c>
       <c r="Q37" s="45">
         <f t="shared" si="1"/>
@@ -27542,32 +27655,41 @@
       <c r="B38" s="32">
         <v>45169</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
+      <c r="C38" s="93">
+        <v>11722</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>935</v>
+      </c>
       <c r="E38" s="35">
         <v>45169</v>
       </c>
-      <c r="F38" s="36"/>
+      <c r="F38" s="36">
+        <v>229401</v>
+      </c>
       <c r="G38" s="92"/>
       <c r="H38" s="38">
         <v>45169</v>
       </c>
-      <c r="I38" s="39"/>
+      <c r="I38" s="39">
+        <v>2648</v>
+      </c>
       <c r="J38" s="338"/>
       <c r="K38" s="383"/>
       <c r="L38" s="49"/>
-      <c r="M38" s="42">
+      <c r="M38" s="603">
         <v>0</v>
       </c>
       <c r="N38" s="43">
-        <v>0</v>
+        <v>44699</v>
       </c>
       <c r="P38" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>59069</v>
+      </c>
+      <c r="Q38" s="285">
+        <f t="shared" si="1"/>
+        <v>-170332</v>
       </c>
       <c r="R38" s="46">
         <v>0</v>
@@ -27599,6 +27721,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="69">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q39" s="45">
@@ -27748,9 +27871,15 @@
     </row>
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="102"/>
+      <c r="B44" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C44" s="93">
+        <v>10380</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>928</v>
+      </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
       <c r="G44" s="37"/>
@@ -27784,9 +27913,15 @@
     </row>
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="403"/>
+      <c r="B45" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C45" s="93">
+        <v>10704</v>
+      </c>
+      <c r="D45" s="403" t="s">
+        <v>929</v>
+      </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
       <c r="G45" s="37"/>
@@ -27796,7 +27931,7 @@
         <v>45157</v>
       </c>
       <c r="K45" s="343" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L45" s="49">
         <v>29180.27</v>
@@ -27820,17 +27955,29 @@
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="403"/>
+      <c r="B46" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C46" s="93">
+        <v>10338</v>
+      </c>
+      <c r="D46" s="403" t="s">
+        <v>930</v>
+      </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="103"/>
-      <c r="J46" s="338"/>
-      <c r="K46" s="349"/>
-      <c r="L46" s="49"/>
+      <c r="J46" s="338">
+        <v>45164</v>
+      </c>
+      <c r="K46" s="343" t="s">
+        <v>922</v>
+      </c>
+      <c r="L46" s="49">
+        <v>26378</v>
+      </c>
       <c r="M46" s="42">
         <v>0</v>
       </c>
@@ -27850,9 +27997,15 @@
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="102"/>
+      <c r="B47" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C47" s="93">
+        <v>10971</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>931</v>
+      </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
       <c r="G47" s="37"/>
@@ -27880,9 +28033,15 @@
     </row>
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="94"/>
+      <c r="B48" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C48" s="93">
+        <v>2459</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>932</v>
+      </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
       <c r="G48" s="37"/>
@@ -27905,9 +28064,15 @@
     </row>
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="403"/>
+      <c r="B49" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C49" s="93">
+        <v>8032</v>
+      </c>
+      <c r="D49" s="403" t="s">
+        <v>933</v>
+      </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
       <c r="G49" s="37"/>
@@ -27918,19 +28083,19 @@
       <c r="L49" s="49"/>
       <c r="M49" s="556">
         <f>SUM(M5:M40)</f>
-        <v>2257218.23</v>
+        <v>2847350.23</v>
       </c>
       <c r="N49" s="556">
         <f>SUM(N5:N40)</f>
-        <v>1561773</v>
+        <v>1926377</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>4465593.54</v>
+        <v>5594906.54</v>
       </c>
       <c r="Q49" s="568">
         <f>SUM(Q5:Q40)</f>
-        <v>-130072.45999999999</v>
+        <v>-170404.46</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -27938,9 +28103,15 @@
     </row>
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="403"/>
+      <c r="B50" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C50" s="93">
+        <v>6205</v>
+      </c>
+      <c r="D50" s="403" t="s">
+        <v>934</v>
+      </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
       <c r="G50" s="37"/>
@@ -28009,7 +28180,7 @@
       <c r="L53" s="49"/>
       <c r="M53" s="570">
         <f>M49+N49</f>
-        <v>3818991.23</v>
+        <v>4773727.2300000004</v>
       </c>
       <c r="N53" s="571"/>
       <c r="P53" s="44"/>
@@ -28250,7 +28421,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>457849</v>
+        <v>641134.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -28258,7 +28429,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>4449144</v>
+        <v>5618789</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -28266,7 +28437,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>75650.5</v>
+        <v>96946</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -28274,7 +28445,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>184682.52</v>
+        <v>240145.52000000002</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -28299,7 +28470,7 @@
       <c r="J69" s="154"/>
       <c r="K69" s="566">
         <f>I67+L67</f>
-        <v>260333.02</v>
+        <v>337091.52</v>
       </c>
       <c r="L69" s="567"/>
       <c r="M69" s="155"/>
@@ -28314,7 +28485,7 @@
       <c r="E70" s="558"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>3730961.98</v>
+        <v>4640562.9800000004</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
@@ -28333,7 +28504,7 @@
       <c r="J71" s="561"/>
       <c r="K71" s="562">
         <f>F73+F74+F75</f>
-        <v>6877422.6400000006</v>
+        <v>7787023.6400000006</v>
       </c>
       <c r="L71" s="562"/>
       <c r="M71" s="159"/>
@@ -28369,7 +28540,7 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>3730961.98</v>
+        <v>4640562.9800000004</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
@@ -28411,7 +28582,7 @@
       <c r="J75" s="554"/>
       <c r="K75" s="555">
         <f>K71+K73</f>
-        <v>4056871.3300000005</v>
+        <v>4966472.33</v>
       </c>
       <c r="L75" s="555"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="938">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3432,6 +3432,12 @@
   </si>
   <si>
     <t>QUESOS-POLLO-PASTOR-ARABE</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO</t>
+  </si>
+  <si>
+    <t>CUENTA CENTRAL</t>
   </si>
 </sst>
 </file>
@@ -5115,7 +5121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="604">
+  <cellXfs count="606">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6139,6 +6145,40 @@
     <xf numFmtId="16" fontId="23" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="19" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6214,39 +6254,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6313,7 +6320,8 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6323,6 +6331,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66FF66"/>
       <color rgb="FF990099"/>
@@ -6330,7 +6339,6 @@
       <color rgb="FFCCFF99"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
@@ -10125,23 +10133,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="574"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="550"/>
+      <c r="C1" s="552" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="575"/>
+      <c r="B2" s="551"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10151,24 +10159,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="579"/>
+      <c r="B3" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="555"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="580" t="s">
+      <c r="H3" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="580"/>
+      <c r="I3" s="556"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="572" t="s">
+      <c r="P3" s="548" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="545" t="s">
+      <c r="R3" s="557" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10183,14 +10191,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="547" t="s">
+      <c r="E4" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="548"/>
-      <c r="H4" s="549" t="s">
+      <c r="F4" s="560"/>
+      <c r="H4" s="561" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="550"/>
+      <c r="I4" s="562"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10200,11 +10208,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="573"/>
+      <c r="P4" s="549"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="546"/>
+      <c r="R4" s="558"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -12039,11 +12047,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="556">
+      <c r="M49" s="568">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="556">
+      <c r="N49" s="568">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -12051,7 +12059,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="568">
+      <c r="Q49" s="580">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -12072,10 +12080,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="557"/>
-      <c r="N50" s="557"/>
+      <c r="M50" s="569"/>
+      <c r="N50" s="569"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="569"/>
+      <c r="Q50" s="581"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -12130,11 +12138,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="570">
+      <c r="M53" s="546">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="571"/>
+      <c r="N53" s="547"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -12559,26 +12567,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="564" t="s">
+      <c r="H77" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="565"/>
+      <c r="I77" s="577"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="566">
+      <c r="K77" s="578">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="567"/>
+      <c r="L77" s="579"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="558" t="s">
+      <c r="D78" s="570" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="558"/>
+      <c r="E78" s="570"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -12587,22 +12595,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="559" t="s">
+      <c r="D79" s="571" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="559"/>
+      <c r="E79" s="571"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="560" t="s">
+      <c r="I79" s="572" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="561"/>
-      <c r="K79" s="562">
+      <c r="J79" s="573"/>
+      <c r="K79" s="574">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="562"/>
+      <c r="L79" s="574"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -12643,11 +12651,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="563">
+      <c r="K81" s="575">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="562"/>
+      <c r="L81" s="574"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -12664,22 +12672,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="551" t="s">
+      <c r="D83" s="563" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="552"/>
+      <c r="E83" s="564"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="553" t="s">
+      <c r="I83" s="565" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="554"/>
-      <c r="K83" s="555">
+      <c r="J83" s="566"/>
+      <c r="K83" s="567">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="555"/>
+      <c r="L83" s="567"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -12826,12 +12834,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12848,6 +12850,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14017,10 +14025,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="584" t="s">
+      <c r="I37" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="585"/>
+      <c r="J37" s="586"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -14039,8 +14047,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="586"/>
-      <c r="J38" s="587"/>
+      <c r="I38" s="587"/>
+      <c r="J38" s="588"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -14059,8 +14067,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="588"/>
-      <c r="J39" s="589"/>
+      <c r="I39" s="589"/>
+      <c r="J39" s="590"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -14618,10 +14626,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="590" t="s">
+      <c r="I67" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="591"/>
+      <c r="J67" s="592"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -14643,11 +14651,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="594" t="s">
+      <c r="G68" s="595" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="599"/>
-      <c r="J68" s="600"/>
+      <c r="I68" s="600"/>
+      <c r="J68" s="601"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -14658,7 +14666,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="595"/>
+      <c r="G69" s="596"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -15246,23 +15254,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="574"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="550"/>
+      <c r="C1" s="552" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="575"/>
+      <c r="B2" s="551"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15272,27 +15280,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="579"/>
+      <c r="B3" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="555"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="580" t="s">
+      <c r="H3" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="580"/>
+      <c r="I3" s="556"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="572" t="s">
+      <c r="P3" s="548" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="601" t="s">
+      <c r="R3" s="602" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15307,14 +15315,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="547" t="s">
+      <c r="E4" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="548"/>
-      <c r="H4" s="549" t="s">
+      <c r="F4" s="560"/>
+      <c r="H4" s="561" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="550"/>
+      <c r="I4" s="562"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15324,11 +15332,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="573"/>
+      <c r="P4" s="549"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="602"/>
+      <c r="R4" s="603"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -17384,11 +17392,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="556">
+      <c r="M49" s="568">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="556">
+      <c r="N49" s="568">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -17396,7 +17404,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="568">
+      <c r="Q49" s="580">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -17429,10 +17437,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="557"/>
-      <c r="N50" s="557"/>
+      <c r="M50" s="569"/>
+      <c r="N50" s="569"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="569"/>
+      <c r="Q50" s="581"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -17517,11 +17525,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="570">
+      <c r="M53" s="546">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="571"/>
+      <c r="N53" s="547"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17850,26 +17858,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="564" t="s">
+      <c r="H69" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="565"/>
+      <c r="I69" s="577"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="566">
+      <c r="K69" s="578">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="567"/>
+      <c r="L69" s="579"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="558" t="s">
+      <c r="D70" s="570" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="558"/>
+      <c r="E70" s="570"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -17878,23 +17886,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="559" t="s">
+      <c r="D71" s="571" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="559"/>
+      <c r="E71" s="571"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="560" t="s">
+      <c r="I71" s="572" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="561"/>
-      <c r="K71" s="562">
+      <c r="J71" s="573"/>
+      <c r="K71" s="574">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="562"/>
+      <c r="L71" s="574"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -17936,11 +17944,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="563">
+      <c r="K73" s="575">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="562"/>
+      <c r="L73" s="574"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -17957,22 +17965,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="551" t="s">
+      <c r="D75" s="563" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="552"/>
+      <c r="E75" s="564"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="553" t="s">
+      <c r="I75" s="565" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="554"/>
-      <c r="K75" s="555">
+      <c r="J75" s="566"/>
+      <c r="K75" s="567">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="555"/>
+      <c r="L75" s="567"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -18120,6 +18128,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18136,12 +18150,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19311,10 +19319,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="584" t="s">
+      <c r="I37" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="585"/>
+      <c r="J37" s="586"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -19333,8 +19341,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="586"/>
-      <c r="J38" s="587"/>
+      <c r="I38" s="587"/>
+      <c r="J38" s="588"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -19353,8 +19361,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="588"/>
-      <c r="J39" s="589"/>
+      <c r="I39" s="589"/>
+      <c r="J39" s="590"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -19912,10 +19920,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="590" t="s">
+      <c r="I67" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="591"/>
+      <c r="J67" s="592"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -19937,11 +19945,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="594" t="s">
+      <c r="G68" s="595" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="599"/>
-      <c r="J68" s="600"/>
+      <c r="I68" s="600"/>
+      <c r="J68" s="601"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -19952,7 +19960,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="595"/>
+      <c r="G69" s="596"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -20541,23 +20549,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="574"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="550"/>
+      <c r="C1" s="552" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="575"/>
+      <c r="B2" s="551"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20567,25 +20575,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="579"/>
+      <c r="B3" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="555"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="580" t="s">
+      <c r="H3" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="580"/>
+      <c r="I3" s="556"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="572" t="s">
+      <c r="P3" s="548" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="601" t="s">
+      <c r="R3" s="602" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20600,14 +20608,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="547" t="s">
+      <c r="E4" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="548"/>
-      <c r="H4" s="549" t="s">
+      <c r="F4" s="560"/>
+      <c r="H4" s="561" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="550"/>
+      <c r="I4" s="562"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20617,11 +20625,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="573"/>
+      <c r="P4" s="549"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="602"/>
+      <c r="R4" s="603"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -22708,11 +22716,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="556">
+      <c r="M49" s="568">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="556">
+      <c r="N49" s="568">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -22720,7 +22728,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="568">
+      <c r="Q49" s="580">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -22747,10 +22755,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="557"/>
-      <c r="N50" s="557"/>
+      <c r="M50" s="569"/>
+      <c r="N50" s="569"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="569"/>
+      <c r="Q50" s="581"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -22817,11 +22825,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="570">
+      <c r="M53" s="546">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="571"/>
+      <c r="N53" s="547"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23104,26 +23112,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="564" t="s">
+      <c r="H69" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="565"/>
+      <c r="I69" s="577"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="566">
+      <c r="K69" s="578">
         <f>I67+L67</f>
         <v>594414.23</v>
       </c>
-      <c r="L69" s="567"/>
+      <c r="L69" s="579"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="558" t="s">
+      <c r="D70" s="570" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="558"/>
+      <c r="E70" s="570"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>2892974.0700000003</v>
@@ -23132,22 +23140,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="559" t="s">
+      <c r="D71" s="571" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="559"/>
+      <c r="E71" s="571"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="560" t="s">
+      <c r="I71" s="572" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="561"/>
-      <c r="K71" s="562">
+      <c r="J71" s="573"/>
+      <c r="K71" s="574">
         <f>F73+F74+F75</f>
         <v>4814667.01</v>
       </c>
-      <c r="L71" s="562"/>
+      <c r="L71" s="574"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -23192,11 +23200,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="563">
+      <c r="K73" s="575">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="562"/>
+      <c r="L73" s="574"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -23217,22 +23225,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="551" t="s">
+      <c r="D75" s="563" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="552"/>
+      <c r="E75" s="564"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="553" t="s">
+      <c r="I75" s="565" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="554"/>
-      <c r="K75" s="555">
+      <c r="J75" s="566"/>
+      <c r="K75" s="567">
         <f>K71+K73</f>
         <v>1683279.9699999997</v>
       </c>
-      <c r="L75" s="555"/>
+      <c r="L75" s="567"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -23377,6 +23385,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23393,12 +23407,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24584,10 +24592,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="584" t="s">
+      <c r="I37" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="585"/>
+      <c r="J37" s="586"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -24612,8 +24620,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="586"/>
-      <c r="J38" s="587"/>
+      <c r="I38" s="587"/>
+      <c r="J38" s="588"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -24638,8 +24646,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="588"/>
-      <c r="J39" s="589"/>
+      <c r="I39" s="589"/>
+      <c r="J39" s="590"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -25245,10 +25253,10 @@
         <f>SUM(G3:G66)</f>
         <v>917631.77</v>
       </c>
-      <c r="I67" s="590" t="s">
+      <c r="I67" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="591"/>
+      <c r="J67" s="592"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -25270,11 +25278,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="594" t="s">
+      <c r="G68" s="595" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="599"/>
-      <c r="J68" s="600"/>
+      <c r="I68" s="600"/>
+      <c r="J68" s="601"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -25285,7 +25293,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="595"/>
+      <c r="G69" s="596"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -25846,8 +25854,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="N42" sqref="N41:N42"/>
+    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25873,23 +25881,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="574"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="550"/>
+      <c r="C1" s="552" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="575"/>
+      <c r="B2" s="551"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -25899,25 +25907,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="579"/>
+      <c r="B3" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="555"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="580" t="s">
+      <c r="H3" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="580"/>
+      <c r="I3" s="556"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="572" t="s">
+      <c r="P3" s="548" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="601" t="s">
+      <c r="R3" s="602" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25932,14 +25940,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="547" t="s">
+      <c r="E4" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="548"/>
-      <c r="H4" s="549" t="s">
+      <c r="F4" s="560"/>
+      <c r="H4" s="561" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="550"/>
+      <c r="I4" s="562"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -25949,11 +25957,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="573"/>
+      <c r="P4" s="549"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="602"/>
+      <c r="R4" s="603"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -27408,7 +27416,9 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="504"/>
+      <c r="A33" s="504" t="s">
+        <v>656</v>
+      </c>
       <c r="B33" s="32">
         <v>45164</v>
       </c>
@@ -27459,7 +27469,9 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="504"/>
+      <c r="A34" s="504" t="s">
+        <v>650</v>
+      </c>
       <c r="B34" s="32">
         <v>45165</v>
       </c>
@@ -27507,7 +27519,9 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="504"/>
+      <c r="A35" s="504" t="s">
+        <v>651</v>
+      </c>
       <c r="B35" s="32">
         <v>45166</v>
       </c>
@@ -27559,7 +27573,9 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
+      <c r="A36" s="504" t="s">
+        <v>652</v>
+      </c>
       <c r="B36" s="32">
         <v>45167</v>
       </c>
@@ -27605,7 +27621,9 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
+      <c r="A37" s="504" t="s">
+        <v>653</v>
+      </c>
       <c r="B37" s="32">
         <v>45168</v>
       </c>
@@ -27651,7 +27669,9 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
+      <c r="A38" s="504" t="s">
+        <v>654</v>
+      </c>
       <c r="B38" s="32">
         <v>45169</v>
       </c>
@@ -27677,12 +27697,15 @@
       <c r="J38" s="338"/>
       <c r="K38" s="383"/>
       <c r="L38" s="49"/>
-      <c r="M38" s="603">
+      <c r="M38" s="545">
         <v>0</v>
       </c>
       <c r="N38" s="43">
         <v>44699</v>
       </c>
+      <c r="O38" s="2" t="s">
+        <v>937</v>
+      </c>
       <c r="P38" s="69">
         <f t="shared" si="0"/>
         <v>59069</v>
@@ -27696,44 +27719,62 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
+      <c r="A39" s="504" t="s">
+        <v>655</v>
+      </c>
       <c r="B39" s="32">
         <v>45170</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="94"/>
+      <c r="C39" s="93">
+        <v>3458</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>936</v>
+      </c>
       <c r="E39" s="35">
         <v>45170</v>
       </c>
-      <c r="F39" s="97"/>
+      <c r="F39" s="97">
+        <v>117570</v>
+      </c>
       <c r="G39" s="92"/>
       <c r="H39" s="38">
         <v>45170</v>
       </c>
-      <c r="I39" s="98"/>
+      <c r="I39" s="98">
+        <v>3080.5</v>
+      </c>
       <c r="J39" s="338"/>
       <c r="K39" s="343"/>
-      <c r="L39" s="49"/>
+      <c r="L39" s="605">
+        <v>61389.5</v>
+      </c>
       <c r="M39" s="42">
-        <v>0</v>
+        <f>3491</f>
+        <v>3491</v>
       </c>
       <c r="N39" s="43">
-        <v>0</v>
+        <v>45031</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>937</v>
       </c>
       <c r="P39" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>116450</v>
+      </c>
+      <c r="Q39" s="604">
+        <f t="shared" si="1"/>
+        <v>-1120</v>
       </c>
       <c r="R39" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
+      <c r="A40" s="504" t="s">
+        <v>656</v>
+      </c>
       <c r="B40" s="32">
         <v>45171</v>
       </c>
@@ -27750,12 +27791,17 @@
       <c r="I40" s="98"/>
       <c r="J40" s="338"/>
       <c r="K40" s="343"/>
-      <c r="L40" s="49"/>
+      <c r="L40" s="605">
+        <v>71117</v>
+      </c>
       <c r="M40" s="42">
         <v>0</v>
       </c>
       <c r="N40" s="43">
         <v>0</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>937</v>
       </c>
       <c r="P40" s="69">
         <v>0</v>
@@ -28081,21 +28127,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="556">
+      <c r="M49" s="568">
         <f>SUM(M5:M40)</f>
-        <v>2847350.23</v>
-      </c>
-      <c r="N49" s="556">
+        <v>2850841.23</v>
+      </c>
+      <c r="N49" s="568">
         <f>SUM(N5:N40)</f>
-        <v>1926377</v>
+        <v>1971408</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>5594906.54</v>
-      </c>
-      <c r="Q49" s="568">
+        <v>5711356.54</v>
+      </c>
+      <c r="Q49" s="580">
         <f>SUM(Q5:Q40)</f>
-        <v>-170404.46</v>
+        <v>-171524.46</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -28120,10 +28166,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="557"/>
-      <c r="N50" s="557"/>
+      <c r="M50" s="569"/>
+      <c r="N50" s="569"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="569"/>
+      <c r="Q50" s="581"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -28178,11 +28224,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="570">
+      <c r="M53" s="546">
         <f>M49+N49</f>
-        <v>4773727.2300000004</v>
-      </c>
-      <c r="N53" s="571"/>
+        <v>4822249.2300000004</v>
+      </c>
+      <c r="N53" s="547"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -28421,7 +28467,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>641134.5</v>
+        <v>644592.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -28429,7 +28475,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>5618789</v>
+        <v>5736359</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -28437,7 +28483,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>96946</v>
+        <v>100026.5</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -28445,7 +28491,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>240145.52000000002</v>
+        <v>372652.02</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -28463,50 +28509,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="564" t="s">
+      <c r="H69" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="565"/>
+      <c r="I69" s="577"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="566">
+      <c r="K69" s="578">
         <f>I67+L67</f>
-        <v>337091.52</v>
-      </c>
-      <c r="L69" s="567"/>
+        <v>472678.52</v>
+      </c>
+      <c r="L69" s="579"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="558" t="s">
+      <c r="D70" s="570" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="558"/>
+      <c r="E70" s="570"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>4640562.9800000004</v>
+        <v>4619087.9800000004</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="559" t="s">
+      <c r="D71" s="571" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="559"/>
+      <c r="E71" s="571"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="560" t="s">
+      <c r="I71" s="572" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="561"/>
-      <c r="K71" s="562">
+      <c r="J71" s="573"/>
+      <c r="K71" s="574">
         <f>F73+F74+F75</f>
-        <v>7787023.6400000006</v>
-      </c>
-      <c r="L71" s="562"/>
+        <v>7765548.6400000006</v>
+      </c>
+      <c r="L71" s="574"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -28540,18 +28586,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>4640562.9800000004</v>
+        <v>4619087.9800000004</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="563">
+      <c r="K73" s="575">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L73" s="562"/>
+      <c r="L73" s="574"/>
       <c r="O73" s="536"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28569,22 +28615,22 @@
       <c r="C75" s="172">
         <v>45171</v>
       </c>
-      <c r="D75" s="551" t="s">
+      <c r="D75" s="563" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="552"/>
+      <c r="E75" s="564"/>
       <c r="F75" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I75" s="553" t="s">
+      <c r="I75" s="565" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="554"/>
-      <c r="K75" s="555">
+      <c r="J75" s="566"/>
+      <c r="K75" s="567">
         <f>K71+K73</f>
-        <v>4966472.33</v>
-      </c>
-      <c r="L75" s="555"/>
+        <v>4944997.33</v>
+      </c>
+      <c r="L75" s="567"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -28729,12 +28775,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28751,6 +28791,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29763,10 +29809,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="584" t="s">
+      <c r="I37" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="585"/>
+      <c r="J37" s="586"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -29791,8 +29837,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="586"/>
-      <c r="J38" s="587"/>
+      <c r="I38" s="587"/>
+      <c r="J38" s="588"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -29817,8 +29863,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="588"/>
-      <c r="J39" s="589"/>
+      <c r="I39" s="589"/>
+      <c r="J39" s="590"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -30424,10 +30470,10 @@
         <f>SUM(G3:G66)</f>
         <v>917631.77</v>
       </c>
-      <c r="I67" s="590" t="s">
+      <c r="I67" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="591"/>
+      <c r="J67" s="592"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -30449,11 +30495,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="594" t="s">
+      <c r="G68" s="595" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="599"/>
-      <c r="J68" s="600"/>
+      <c r="I68" s="600"/>
+      <c r="J68" s="601"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -30464,7 +30510,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="595"/>
+      <c r="G69" s="596"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -32398,10 +32444,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="581"/>
-      <c r="J36" s="582"/>
-      <c r="K36" s="582"/>
-      <c r="L36" s="583"/>
+      <c r="I36" s="582"/>
+      <c r="J36" s="583"/>
+      <c r="K36" s="583"/>
+      <c r="L36" s="584"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -32428,10 +32474,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="581"/>
-      <c r="J37" s="582"/>
-      <c r="K37" s="582"/>
-      <c r="L37" s="583"/>
+      <c r="I37" s="582"/>
+      <c r="J37" s="583"/>
+      <c r="K37" s="583"/>
+      <c r="L37" s="584"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -32488,10 +32534,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="584" t="s">
+      <c r="I40" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="585"/>
+      <c r="J40" s="586"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -32510,8 +32556,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="586"/>
-      <c r="J41" s="587"/>
+      <c r="I41" s="587"/>
+      <c r="J41" s="588"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -32530,8 +32576,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="588"/>
-      <c r="J42" s="589"/>
+      <c r="I42" s="589"/>
+      <c r="J42" s="590"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -33035,10 +33081,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="590" t="s">
+      <c r="I67" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="591"/>
+      <c r="J67" s="592"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -33058,11 +33104,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="594" t="s">
+      <c r="G68" s="595" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="592"/>
-      <c r="J68" s="593"/>
+      <c r="I68" s="593"/>
+      <c r="J68" s="594"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -33073,7 +33119,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="595"/>
+      <c r="G69" s="596"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -33704,23 +33750,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="574"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="550"/>
+      <c r="C1" s="552" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="575"/>
+      <c r="B2" s="551"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33730,24 +33776,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="579"/>
+      <c r="B3" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="555"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="580" t="s">
+      <c r="H3" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="580"/>
+      <c r="I3" s="556"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="572" t="s">
+      <c r="P3" s="548" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="545" t="s">
+      <c r="R3" s="557" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33762,14 +33808,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="547" t="s">
+      <c r="E4" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="548"/>
-      <c r="H4" s="549" t="s">
+      <c r="F4" s="560"/>
+      <c r="H4" s="561" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="550"/>
+      <c r="I4" s="562"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33779,11 +33825,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="573"/>
+      <c r="P4" s="549"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="546"/>
+      <c r="R4" s="558"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35759,11 +35805,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="556">
+      <c r="M49" s="568">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="556">
+      <c r="N49" s="568">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -35771,7 +35817,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="568">
+      <c r="Q49" s="580">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -35804,10 +35850,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="557"/>
-      <c r="N50" s="557"/>
+      <c r="M50" s="569"/>
+      <c r="N50" s="569"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="569"/>
+      <c r="Q50" s="581"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -35898,11 +35944,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="570">
+      <c r="M53" s="546">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="571"/>
+      <c r="N53" s="547"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36461,26 +36507,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="564" t="s">
+      <c r="H77" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="565"/>
+      <c r="I77" s="577"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="566">
+      <c r="K77" s="578">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="567"/>
+      <c r="L77" s="579"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="558" t="s">
+      <c r="D78" s="570" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="558"/>
+      <c r="E78" s="570"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -36489,22 +36535,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="559" t="s">
+      <c r="D79" s="571" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="559"/>
+      <c r="E79" s="571"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="560" t="s">
+      <c r="I79" s="572" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="561"/>
-      <c r="K79" s="562">
+      <c r="J79" s="573"/>
+      <c r="K79" s="574">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="562"/>
+      <c r="L79" s="574"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -36545,11 +36591,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="563">
+      <c r="K81" s="575">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="562"/>
+      <c r="L81" s="574"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -36566,22 +36612,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="551" t="s">
+      <c r="D83" s="563" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="552"/>
+      <c r="E83" s="564"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="596" t="s">
+      <c r="I83" s="597" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="597"/>
-      <c r="K83" s="598">
+      <c r="J83" s="598"/>
+      <c r="K83" s="599">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="598"/>
+      <c r="L83" s="599"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -36728,6 +36774,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36744,12 +36796,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38161,10 +38207,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="581"/>
-      <c r="J36" s="582"/>
-      <c r="K36" s="582"/>
-      <c r="L36" s="583"/>
+      <c r="I36" s="582"/>
+      <c r="J36" s="583"/>
+      <c r="K36" s="583"/>
+      <c r="L36" s="584"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -38191,10 +38237,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="581"/>
-      <c r="J37" s="582"/>
-      <c r="K37" s="582"/>
-      <c r="L37" s="583"/>
+      <c r="I37" s="582"/>
+      <c r="J37" s="583"/>
+      <c r="K37" s="583"/>
+      <c r="L37" s="584"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -38261,10 +38307,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="584" t="s">
+      <c r="I40" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="585"/>
+      <c r="J40" s="586"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -38283,8 +38329,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="586"/>
-      <c r="J41" s="587"/>
+      <c r="I41" s="587"/>
+      <c r="J41" s="588"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -38303,8 +38349,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="588"/>
-      <c r="J42" s="589"/>
+      <c r="I42" s="589"/>
+      <c r="J42" s="590"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -38808,10 +38854,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="590" t="s">
+      <c r="I67" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="591"/>
+      <c r="J67" s="592"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -38831,11 +38877,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="594" t="s">
+      <c r="G68" s="595" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="599"/>
-      <c r="J68" s="600"/>
+      <c r="I68" s="600"/>
+      <c r="J68" s="601"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -38846,7 +38892,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="595"/>
+      <c r="G69" s="596"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -39461,23 +39507,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="574"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="550"/>
+      <c r="C1" s="552" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="575"/>
+      <c r="B2" s="551"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -39487,24 +39533,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="579"/>
+      <c r="B3" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="555"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="580" t="s">
+      <c r="H3" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="580"/>
+      <c r="I3" s="556"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="572" t="s">
+      <c r="P3" s="548" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="601" t="s">
+      <c r="R3" s="602" t="s">
         <v>3</v>
       </c>
     </row>
@@ -39519,14 +39565,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="547" t="s">
+      <c r="E4" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="548"/>
-      <c r="H4" s="549" t="s">
+      <c r="F4" s="560"/>
+      <c r="H4" s="561" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="550"/>
+      <c r="I4" s="562"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -39536,11 +39582,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="573"/>
+      <c r="P4" s="549"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="602"/>
+      <c r="R4" s="603"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -41521,11 +41567,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="556">
+      <c r="M49" s="568">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="556">
+      <c r="N49" s="568">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -41533,7 +41579,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="568">
+      <c r="Q49" s="580">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -41566,10 +41612,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="557"/>
-      <c r="N50" s="557"/>
+      <c r="M50" s="569"/>
+      <c r="N50" s="569"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="569"/>
+      <c r="Q50" s="581"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -41660,11 +41706,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="570">
+      <c r="M53" s="546">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="571"/>
+      <c r="N53" s="547"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -42143,26 +42189,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="564" t="s">
+      <c r="H77" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="565"/>
+      <c r="I77" s="577"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="566">
+      <c r="K77" s="578">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="567"/>
+      <c r="L77" s="579"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="558" t="s">
+      <c r="D78" s="570" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="558"/>
+      <c r="E78" s="570"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -42171,22 +42217,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="559" t="s">
+      <c r="D79" s="571" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="559"/>
+      <c r="E79" s="571"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="560" t="s">
+      <c r="I79" s="572" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="561"/>
-      <c r="K79" s="562">
+      <c r="J79" s="573"/>
+      <c r="K79" s="574">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="562"/>
+      <c r="L79" s="574"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -42227,11 +42273,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="563">
+      <c r="K81" s="575">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="562"/>
+      <c r="L81" s="574"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -42248,22 +42294,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="551" t="s">
+      <c r="D83" s="563" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="552"/>
+      <c r="E83" s="564"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="553" t="s">
+      <c r="I83" s="565" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="554"/>
-      <c r="K83" s="555">
+      <c r="J83" s="566"/>
+      <c r="K83" s="567">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="555"/>
+      <c r="L83" s="567"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -42410,12 +42456,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -42432,6 +42472,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -43734,10 +43780,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="581"/>
-      <c r="J36" s="582"/>
-      <c r="K36" s="582"/>
-      <c r="L36" s="583"/>
+      <c r="I36" s="582"/>
+      <c r="J36" s="583"/>
+      <c r="K36" s="583"/>
+      <c r="L36" s="584"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -43754,10 +43800,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="581"/>
-      <c r="J37" s="582"/>
-      <c r="K37" s="582"/>
-      <c r="L37" s="583"/>
+      <c r="I37" s="582"/>
+      <c r="J37" s="583"/>
+      <c r="K37" s="583"/>
+      <c r="L37" s="584"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -43814,10 +43860,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="584" t="s">
+      <c r="I40" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="585"/>
+      <c r="J40" s="586"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -43836,8 +43882,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="586"/>
-      <c r="J41" s="587"/>
+      <c r="I41" s="587"/>
+      <c r="J41" s="588"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -43856,8 +43902,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="588"/>
-      <c r="J42" s="589"/>
+      <c r="I42" s="589"/>
+      <c r="J42" s="590"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -44361,10 +44407,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="590" t="s">
+      <c r="I67" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="591"/>
+      <c r="J67" s="592"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -44384,11 +44430,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="594" t="s">
+      <c r="G68" s="595" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="599"/>
-      <c r="J68" s="600"/>
+      <c r="I68" s="600"/>
+      <c r="J68" s="601"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -44399,7 +44445,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="595"/>
+      <c r="G69" s="596"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -45005,23 +45051,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="574"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="550"/>
+      <c r="C1" s="552" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="575"/>
+      <c r="B2" s="551"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -45031,24 +45077,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="579"/>
+      <c r="B3" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="555"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="580" t="s">
+      <c r="H3" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="580"/>
+      <c r="I3" s="556"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="572" t="s">
+      <c r="P3" s="548" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="601" t="s">
+      <c r="R3" s="602" t="s">
         <v>3</v>
       </c>
     </row>
@@ -45063,14 +45109,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="547" t="s">
+      <c r="E4" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="548"/>
-      <c r="H4" s="549" t="s">
+      <c r="F4" s="560"/>
+      <c r="H4" s="561" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="550"/>
+      <c r="I4" s="562"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -45080,11 +45126,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="573"/>
+      <c r="P4" s="549"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="602"/>
+      <c r="R4" s="603"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -47105,11 +47151,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="556">
+      <c r="M49" s="568">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="556">
+      <c r="N49" s="568">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -47117,7 +47163,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="568">
+      <c r="Q49" s="580">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -47144,10 +47190,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="557"/>
-      <c r="N50" s="557"/>
+      <c r="M50" s="569"/>
+      <c r="N50" s="569"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="569"/>
+      <c r="Q50" s="581"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -47221,11 +47267,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="570">
+      <c r="M53" s="546">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="571"/>
+      <c r="N53" s="547"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47854,26 +47900,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="564" t="s">
+      <c r="H79" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="565"/>
+      <c r="I79" s="577"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="566">
+      <c r="K79" s="578">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="567"/>
+      <c r="L79" s="579"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="558" t="s">
+      <c r="D80" s="570" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="558"/>
+      <c r="E80" s="570"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -47882,22 +47928,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="559" t="s">
+      <c r="D81" s="571" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="559"/>
+      <c r="E81" s="571"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="560" t="s">
+      <c r="I81" s="572" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="561"/>
-      <c r="K81" s="562">
+      <c r="J81" s="573"/>
+      <c r="K81" s="574">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="562"/>
+      <c r="L81" s="574"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -47938,11 +47984,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="563">
+      <c r="K83" s="575">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="562"/>
+      <c r="L83" s="574"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -47959,22 +48005,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="551" t="s">
+      <c r="D85" s="563" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="552"/>
+      <c r="E85" s="564"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="553" t="s">
+      <c r="I85" s="565" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="554"/>
-      <c r="K85" s="555">
+      <c r="J85" s="566"/>
+      <c r="K85" s="567">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="555"/>
+      <c r="L85" s="567"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -48122,6 +48168,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -48138,12 +48190,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49463,10 +49509,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="581"/>
-      <c r="J36" s="582"/>
-      <c r="K36" s="582"/>
-      <c r="L36" s="583"/>
+      <c r="I36" s="582"/>
+      <c r="J36" s="583"/>
+      <c r="K36" s="583"/>
+      <c r="L36" s="584"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -49489,10 +49535,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="581"/>
-      <c r="J37" s="582"/>
-      <c r="K37" s="582"/>
-      <c r="L37" s="583"/>
+      <c r="I37" s="582"/>
+      <c r="J37" s="583"/>
+      <c r="K37" s="583"/>
+      <c r="L37" s="584"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -49567,10 +49613,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="584" t="s">
+      <c r="I40" s="585" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="585"/>
+      <c r="J40" s="586"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -49595,8 +49641,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="586"/>
-      <c r="J41" s="587"/>
+      <c r="I41" s="587"/>
+      <c r="J41" s="588"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -49621,8 +49667,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="588"/>
-      <c r="J42" s="589"/>
+      <c r="I42" s="589"/>
+      <c r="J42" s="590"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -50144,10 +50190,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="590" t="s">
+      <c r="I67" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="591"/>
+      <c r="J67" s="592"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -50167,11 +50213,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="594" t="s">
+      <c r="G68" s="595" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="599"/>
-      <c r="J68" s="600"/>
+      <c r="I68" s="600"/>
+      <c r="J68" s="601"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -50182,7 +50228,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="595"/>
+      <c r="G69" s="596"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -50798,23 +50844,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="574"/>
-      <c r="C1" s="576" t="s">
+      <c r="B1" s="550"/>
+      <c r="C1" s="552" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="577"/>
-      <c r="E1" s="577"/>
-      <c r="F1" s="577"/>
-      <c r="G1" s="577"/>
-      <c r="H1" s="577"/>
-      <c r="I1" s="577"/>
-      <c r="J1" s="577"/>
-      <c r="K1" s="577"/>
-      <c r="L1" s="577"/>
-      <c r="M1" s="577"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="575"/>
+      <c r="B2" s="551"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -50824,27 +50870,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="579"/>
+      <c r="B3" s="554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="555"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="580" t="s">
+      <c r="H3" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="580"/>
+      <c r="I3" s="556"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="572" t="s">
+      <c r="P3" s="548" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="601" t="s">
+      <c r="R3" s="602" t="s">
         <v>3</v>
       </c>
     </row>
@@ -50859,14 +50905,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="547" t="s">
+      <c r="E4" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="548"/>
-      <c r="H4" s="549" t="s">
+      <c r="F4" s="560"/>
+      <c r="H4" s="561" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="550"/>
+      <c r="I4" s="562"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -50876,11 +50922,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="573"/>
+      <c r="P4" s="549"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="602"/>
+      <c r="R4" s="603"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -52883,11 +52929,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="556">
+      <c r="M49" s="568">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="556">
+      <c r="N49" s="568">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -52895,7 +52941,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="568">
+      <c r="Q49" s="580">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -52928,10 +52974,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="557"/>
-      <c r="N50" s="557"/>
+      <c r="M50" s="569"/>
+      <c r="N50" s="569"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="569"/>
+      <c r="Q50" s="581"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -53010,11 +53056,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="570">
+      <c r="M53" s="546">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="571"/>
+      <c r="N53" s="547"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -53493,26 +53539,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="564" t="s">
+      <c r="H77" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="565"/>
+      <c r="I77" s="577"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="566">
+      <c r="K77" s="578">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="567"/>
+      <c r="L77" s="579"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="558" t="s">
+      <c r="D78" s="570" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="558"/>
+      <c r="E78" s="570"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -53521,22 +53567,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="559" t="s">
+      <c r="D79" s="571" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="559"/>
+      <c r="E79" s="571"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="560" t="s">
+      <c r="I79" s="572" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="561"/>
-      <c r="K79" s="562">
+      <c r="J79" s="573"/>
+      <c r="K79" s="574">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="562"/>
+      <c r="L79" s="574"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -53577,11 +53623,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="563">
+      <c r="K81" s="575">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="562"/>
+      <c r="L81" s="574"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -53598,22 +53644,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="551" t="s">
+      <c r="D83" s="563" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="552"/>
+      <c r="E83" s="564"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="596" t="s">
+      <c r="I83" s="597" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="597"/>
-      <c r="K83" s="598">
+      <c r="J83" s="598"/>
+      <c r="K83" s="599">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="598"/>
+      <c r="L83" s="599"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -53761,12 +53807,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -53783,6 +53823,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="1081">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3438,6 +3438,435 @@
   </si>
   <si>
     <t>CUENTA CENTRAL</t>
+  </si>
+  <si>
+    <t>NOMINA # 35</t>
+  </si>
+  <si>
+    <t>1-ago-2023</t>
+  </si>
+  <si>
+    <t>E-18268</t>
+  </si>
+  <si>
+    <t>E-18269</t>
+  </si>
+  <si>
+    <t>E-18293</t>
+  </si>
+  <si>
+    <t>E-18298</t>
+  </si>
+  <si>
+    <t>2-ago-2023</t>
+  </si>
+  <si>
+    <t>E-18338</t>
+  </si>
+  <si>
+    <t>3-ago-2023</t>
+  </si>
+  <si>
+    <t>E-18487</t>
+  </si>
+  <si>
+    <t>4-ago-2023</t>
+  </si>
+  <si>
+    <t>E-18573</t>
+  </si>
+  <si>
+    <t>5-ago-2023</t>
+  </si>
+  <si>
+    <t>E-18676</t>
+  </si>
+  <si>
+    <t>E-18680</t>
+  </si>
+  <si>
+    <t>E-18719</t>
+  </si>
+  <si>
+    <t>7-ago-2023</t>
+  </si>
+  <si>
+    <t>E-18789</t>
+  </si>
+  <si>
+    <t>8-ago-2023</t>
+  </si>
+  <si>
+    <t>E-18894</t>
+  </si>
+  <si>
+    <t>E-18943</t>
+  </si>
+  <si>
+    <t>9-ago-2023</t>
+  </si>
+  <si>
+    <t>E-19013</t>
+  </si>
+  <si>
+    <t>10-ago-2023</t>
+  </si>
+  <si>
+    <t>E-19145</t>
+  </si>
+  <si>
+    <t>E-19146</t>
+  </si>
+  <si>
+    <t>E-19161</t>
+  </si>
+  <si>
+    <t>E-19172</t>
+  </si>
+  <si>
+    <t>E-19176</t>
+  </si>
+  <si>
+    <t>12-ago-2023</t>
+  </si>
+  <si>
+    <t>E-19373</t>
+  </si>
+  <si>
+    <t>E-19387</t>
+  </si>
+  <si>
+    <t>E-19388</t>
+  </si>
+  <si>
+    <t>E-19404</t>
+  </si>
+  <si>
+    <t>14-ago-2023</t>
+  </si>
+  <si>
+    <t>E-19514</t>
+  </si>
+  <si>
+    <t>15-ago-2023</t>
+  </si>
+  <si>
+    <t>E-19631</t>
+  </si>
+  <si>
+    <t>16-ago-2023</t>
+  </si>
+  <si>
+    <t>E-19652</t>
+  </si>
+  <si>
+    <t>E-19657</t>
+  </si>
+  <si>
+    <t>E-19701</t>
+  </si>
+  <si>
+    <t>E-19705</t>
+  </si>
+  <si>
+    <t>E-19706</t>
+  </si>
+  <si>
+    <t>E-19715</t>
+  </si>
+  <si>
+    <t>17-ago-2023</t>
+  </si>
+  <si>
+    <t>E-19811</t>
+  </si>
+  <si>
+    <t>18-ago-2023</t>
+  </si>
+  <si>
+    <t>E-19915</t>
+  </si>
+  <si>
+    <t>E-19971</t>
+  </si>
+  <si>
+    <t>19-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20052</t>
+  </si>
+  <si>
+    <t>21-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20126</t>
+  </si>
+  <si>
+    <t>E-20127</t>
+  </si>
+  <si>
+    <t>E-20172</t>
+  </si>
+  <si>
+    <t>22-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20294</t>
+  </si>
+  <si>
+    <t>23-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20320</t>
+  </si>
+  <si>
+    <t>24-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20475</t>
+  </si>
+  <si>
+    <t>25-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20577</t>
+  </si>
+  <si>
+    <t>E-20602</t>
+  </si>
+  <si>
+    <t>E-20605</t>
+  </si>
+  <si>
+    <t>E-20606</t>
+  </si>
+  <si>
+    <t>26-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20608</t>
+  </si>
+  <si>
+    <t>E-20615</t>
+  </si>
+  <si>
+    <t>E-20737</t>
+  </si>
+  <si>
+    <t>28-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20792</t>
+  </si>
+  <si>
+    <t>E-20793</t>
+  </si>
+  <si>
+    <t>E-20797</t>
+  </si>
+  <si>
+    <t>29-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20916</t>
+  </si>
+  <si>
+    <t>E-20926</t>
+  </si>
+  <si>
+    <t>E-20927</t>
+  </si>
+  <si>
+    <t>E-20944</t>
+  </si>
+  <si>
+    <t>30-ago-2023</t>
+  </si>
+  <si>
+    <t>E-20990</t>
+  </si>
+  <si>
+    <t>31-ago-2023</t>
+  </si>
+  <si>
+    <t>E-21117</t>
+  </si>
+  <si>
+    <t>E-21118</t>
+  </si>
+  <si>
+    <t>E-21145</t>
+  </si>
+  <si>
+    <t>29-jul-2023</t>
+  </si>
+  <si>
+    <t>E-18021</t>
+  </si>
+  <si>
+    <t>E-18024</t>
+  </si>
+  <si>
+    <t>E-18077</t>
+  </si>
+  <si>
+    <t>31-jul-2023</t>
+  </si>
+  <si>
+    <t>E-18157</t>
+  </si>
+  <si>
+    <t>11-ago-2023</t>
+  </si>
+  <si>
+    <t>1-sep-2023</t>
+  </si>
+  <si>
+    <t>2-sep-2023</t>
+  </si>
+  <si>
+    <t>E-21208</t>
+  </si>
+  <si>
+    <t>E-21377</t>
+  </si>
+  <si>
+    <t>CHORIZOS</t>
+  </si>
+  <si>
+    <t>CHORIZO--ROASBEEF</t>
+  </si>
+  <si>
+    <t>RES-PULPA RES, HUESO BLANCO</t>
+  </si>
+  <si>
+    <t>FLETE  RES</t>
+  </si>
+  <si>
+    <t>Servicio Camaras</t>
+  </si>
+  <si>
+    <t>PULPA RES</t>
+  </si>
+  <si>
+    <t>PECHUGA PAVO</t>
+  </si>
+  <si>
+    <t>ANALISIS AGUA</t>
+  </si>
+  <si>
+    <t>CHORIZO ESPAÑOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANDILES </t>
+  </si>
+  <si>
+    <t>SEGURO AUDI</t>
+  </si>
+  <si>
+    <t>SEGURO TORNADO</t>
+  </si>
+  <si>
+    <t>COMISION BANCO</t>
+  </si>
+  <si>
+    <t>Baltas traser Tornado</t>
+  </si>
+  <si>
+    <t>Vigilante</t>
+  </si>
+  <si>
+    <t>FLETE RES 2-ago</t>
+  </si>
+  <si>
+    <t>Limpieza trampa grasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestion agua </t>
+  </si>
+  <si>
+    <t>RES  anticipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serv Bascula </t>
+  </si>
+  <si>
+    <t>Carbon Anticipo</t>
+  </si>
+  <si>
+    <t>CHORIZO</t>
+  </si>
+  <si>
+    <t>SALSAS Oaxaca</t>
+  </si>
+  <si>
+    <t>Pulpa RES</t>
+  </si>
+  <si>
+    <t>Cintas Sierra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIB EYE </t>
+  </si>
+  <si>
+    <t>ROAS BEFF-CHORIZO</t>
+  </si>
+  <si>
+    <t>Serv TORNADO</t>
+  </si>
+  <si>
+    <t>RES-PULPA--HUESO</t>
+  </si>
+  <si>
+    <t>ADUANA ACCESE23-06</t>
+  </si>
+  <si>
+    <t>FLETE RES 23-Ago</t>
+  </si>
+  <si>
+    <t>FLETE ACCESE23-06</t>
+  </si>
+  <si>
+    <t>BOLSAS EN ROLLO</t>
+  </si>
+  <si>
+    <t>ADUANA ACCESE23-07</t>
+  </si>
+  <si>
+    <t>ADT SEGURITY</t>
+  </si>
+  <si>
+    <t>SEGUROS CARGAS JULIO</t>
+  </si>
+  <si>
+    <t>SEGUROS CARGAS  JULIO</t>
+  </si>
+  <si>
+    <t>FLETE ACCESE23-07</t>
+  </si>
+  <si>
+    <t>CAMARA VIDEOVIGILANCIA</t>
+  </si>
+  <si>
+    <t>ACCSE23-02</t>
+  </si>
+  <si>
+    <t>FLETE ACCSE23-02</t>
+  </si>
+  <si>
+    <t>ACCSE23-04</t>
+  </si>
+  <si>
+    <t>ADUANA ACCE23-02</t>
+  </si>
+  <si>
+    <t>ACCSE23-07</t>
+  </si>
+  <si>
+    <t>FLETE ACCSE23-04</t>
   </si>
 </sst>
 </file>
@@ -3452,7 +3881,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3851,8 +4280,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3983,6 +4420,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF99"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5121,7 +5564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="606">
+  <cellXfs count="645">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6134,11 +6577,6 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6146,6 +6584,74 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="15" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6320,8 +6826,34 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="23" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="23" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6331,6 +6863,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66FF66"/>
@@ -6338,9 +6873,6 @@
       <color rgb="FF800080"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FF66FFFF"/>
-      <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -9418,13 +9950,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9471,13 +10003,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9524,13 +10056,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9577,13 +10109,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9630,13 +10162,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>304799</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9691,7 +10223,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>26151</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -9786,13 +10318,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10133,23 +10665,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="550"/>
-      <c r="C1" s="552" t="s">
+      <c r="B1" s="577"/>
+      <c r="C1" s="579" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="553"/>
-      <c r="L1" s="553"/>
-      <c r="M1" s="553"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="580"/>
+      <c r="F1" s="580"/>
+      <c r="G1" s="580"/>
+      <c r="H1" s="580"/>
+      <c r="I1" s="580"/>
+      <c r="J1" s="580"/>
+      <c r="K1" s="580"/>
+      <c r="L1" s="580"/>
+      <c r="M1" s="580"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="551"/>
+      <c r="B2" s="578"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10159,24 +10691,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="555"/>
+      <c r="B3" s="581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="582"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="556" t="s">
+      <c r="H3" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="556"/>
+      <c r="I3" s="583"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="548" t="s">
+      <c r="P3" s="575" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="557" t="s">
+      <c r="R3" s="584" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10191,14 +10723,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="560"/>
-      <c r="H4" s="561" t="s">
+      <c r="F4" s="587"/>
+      <c r="H4" s="588" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="562"/>
+      <c r="I4" s="589"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10208,11 +10740,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="549"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="558"/>
+      <c r="R4" s="585"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -12047,11 +12579,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="568">
+      <c r="M49" s="595">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="568">
+      <c r="N49" s="595">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -12059,7 +12591,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="580">
+      <c r="Q49" s="607">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -12080,10 +12612,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="569"/>
-      <c r="N50" s="569"/>
+      <c r="M50" s="596"/>
+      <c r="N50" s="596"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="581"/>
+      <c r="Q50" s="608"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -12138,11 +12670,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="546">
+      <c r="M53" s="573">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="547"/>
+      <c r="N53" s="574"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -12567,26 +13099,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="576" t="s">
+      <c r="H77" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="577"/>
+      <c r="I77" s="604"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="578">
+      <c r="K77" s="605">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="579"/>
+      <c r="L77" s="606"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="570" t="s">
+      <c r="D78" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="570"/>
+      <c r="E78" s="597"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -12595,22 +13127,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="571" t="s">
+      <c r="D79" s="598" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="571"/>
+      <c r="E79" s="598"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="572" t="s">
+      <c r="I79" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="573"/>
-      <c r="K79" s="574">
+      <c r="J79" s="600"/>
+      <c r="K79" s="601">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="574"/>
+      <c r="L79" s="601"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -12651,11 +13183,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="575">
+      <c r="K81" s="602">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="574"/>
+      <c r="L81" s="601"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -12672,22 +13204,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="563" t="s">
+      <c r="D83" s="590" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="564"/>
+      <c r="E83" s="591"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="565" t="s">
+      <c r="I83" s="592" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="566"/>
-      <c r="K83" s="567">
+      <c r="J83" s="593"/>
+      <c r="K83" s="594">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="567"/>
+      <c r="L83" s="594"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14025,10 +14557,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="585" t="s">
+      <c r="I37" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="586"/>
+      <c r="J37" s="613"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -14047,8 +14579,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="587"/>
-      <c r="J38" s="588"/>
+      <c r="I38" s="614"/>
+      <c r="J38" s="615"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -14067,8 +14599,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="589"/>
-      <c r="J39" s="590"/>
+      <c r="I39" s="616"/>
+      <c r="J39" s="617"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -14626,10 +15158,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="591" t="s">
+      <c r="I67" s="618" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="592"/>
+      <c r="J67" s="619"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -14651,11 +15183,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="595" t="s">
+      <c r="G68" s="622" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="600"/>
-      <c r="J68" s="601"/>
+      <c r="I68" s="627"/>
+      <c r="J68" s="628"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -14666,7 +15198,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="596"/>
+      <c r="G69" s="623"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -15227,7 +15759,7 @@
   </sheetPr>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -15254,23 +15786,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="550"/>
-      <c r="C1" s="552" t="s">
+      <c r="B1" s="577"/>
+      <c r="C1" s="579" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="553"/>
-      <c r="L1" s="553"/>
-      <c r="M1" s="553"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="580"/>
+      <c r="F1" s="580"/>
+      <c r="G1" s="580"/>
+      <c r="H1" s="580"/>
+      <c r="I1" s="580"/>
+      <c r="J1" s="580"/>
+      <c r="K1" s="580"/>
+      <c r="L1" s="580"/>
+      <c r="M1" s="580"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="551"/>
+      <c r="B2" s="578"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15280,27 +15812,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="555"/>
+      <c r="B3" s="581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="582"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="556" t="s">
+      <c r="H3" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="556"/>
+      <c r="I3" s="583"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="548" t="s">
+      <c r="P3" s="575" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="602" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15315,14 +15847,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="560"/>
-      <c r="H4" s="561" t="s">
+      <c r="F4" s="587"/>
+      <c r="H4" s="588" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="562"/>
+      <c r="I4" s="589"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15332,11 +15864,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="549"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="603"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -17392,11 +17924,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="568">
+      <c r="M49" s="595">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="568">
+      <c r="N49" s="595">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -17404,7 +17936,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="580">
+      <c r="Q49" s="607">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -17437,10 +17969,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="569"/>
-      <c r="N50" s="569"/>
+      <c r="M50" s="596"/>
+      <c r="N50" s="596"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="581"/>
+      <c r="Q50" s="608"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -17525,11 +18057,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="546">
+      <c r="M53" s="573">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="547"/>
+      <c r="N53" s="574"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17858,26 +18390,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="576" t="s">
+      <c r="H69" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="577"/>
+      <c r="I69" s="604"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="578">
+      <c r="K69" s="605">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="579"/>
+      <c r="L69" s="606"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="570" t="s">
+      <c r="D70" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="570"/>
+      <c r="E70" s="597"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -17886,23 +18418,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="571" t="s">
+      <c r="D71" s="598" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="571"/>
+      <c r="E71" s="598"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="572" t="s">
+      <c r="I71" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="573"/>
-      <c r="K71" s="574">
+      <c r="J71" s="600"/>
+      <c r="K71" s="601">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="574"/>
+      <c r="L71" s="601"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -17944,11 +18476,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="575">
+      <c r="K73" s="602">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="574"/>
+      <c r="L73" s="601"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -17965,22 +18497,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="563" t="s">
+      <c r="D75" s="590" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="564"/>
+      <c r="E75" s="591"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="565" t="s">
+      <c r="I75" s="592" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="566"/>
-      <c r="K75" s="567">
+      <c r="J75" s="593"/>
+      <c r="K75" s="594">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="567"/>
+      <c r="L75" s="594"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -19319,10 +19851,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="585" t="s">
+      <c r="I37" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="586"/>
+      <c r="J37" s="613"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -19341,8 +19873,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="587"/>
-      <c r="J38" s="588"/>
+      <c r="I38" s="614"/>
+      <c r="J38" s="615"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -19361,8 +19893,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="589"/>
-      <c r="J39" s="590"/>
+      <c r="I39" s="616"/>
+      <c r="J39" s="617"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -19920,10 +20452,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="591" t="s">
+      <c r="I67" s="618" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="592"/>
+      <c r="J67" s="619"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -19945,11 +20477,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="595" t="s">
+      <c r="G68" s="622" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="600"/>
-      <c r="J68" s="601"/>
+      <c r="I68" s="627"/>
+      <c r="J68" s="628"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -19960,7 +20492,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="596"/>
+      <c r="G69" s="623"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -20522,8 +21054,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20549,23 +21081,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="550"/>
-      <c r="C1" s="552" t="s">
+      <c r="B1" s="577"/>
+      <c r="C1" s="579" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="553"/>
-      <c r="L1" s="553"/>
-      <c r="M1" s="553"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="580"/>
+      <c r="F1" s="580"/>
+      <c r="G1" s="580"/>
+      <c r="H1" s="580"/>
+      <c r="I1" s="580"/>
+      <c r="J1" s="580"/>
+      <c r="K1" s="580"/>
+      <c r="L1" s="580"/>
+      <c r="M1" s="580"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="551"/>
+      <c r="B2" s="578"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20575,25 +21107,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="555"/>
+      <c r="B3" s="581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="582"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="556" t="s">
+      <c r="H3" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="556"/>
+      <c r="I3" s="583"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="548" t="s">
+      <c r="P3" s="575" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="602" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20608,14 +21140,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="560"/>
-      <c r="H4" s="561" t="s">
+      <c r="F4" s="587"/>
+      <c r="H4" s="588" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="562"/>
+      <c r="I4" s="589"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20625,11 +21157,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="549"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="603"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -22326,13 +22858,13 @@
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
       <c r="B39" s="32">
-        <v>45114</v>
+        <v>45108</v>
       </c>
       <c r="C39" s="93">
-        <v>70000</v>
-      </c>
-      <c r="D39" s="94" t="s">
-        <v>808</v>
+        <v>8611.6</v>
+      </c>
+      <c r="D39" s="569" t="s">
+        <v>1035</v>
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="97"/>
@@ -22362,13 +22894,13 @@
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="32">
-        <v>45121</v>
+        <v>45108</v>
       </c>
       <c r="C40" s="93">
-        <v>2784</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>810</v>
+        <v>7509.6</v>
+      </c>
+      <c r="D40" s="569" t="s">
+        <v>1036</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>10</v>
@@ -22405,13 +22937,13 @@
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="32">
-        <v>45124</v>
+        <v>45111</v>
       </c>
       <c r="C41" s="93">
-        <v>100000</v>
+        <v>34165.4</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>232</v>
+        <v>1037</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
@@ -22447,10 +22979,10 @@
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="32">
-        <v>45128</v>
+        <v>45114</v>
       </c>
       <c r="C42" s="93">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="D42" s="102" t="s">
         <v>808</v>
@@ -22489,13 +23021,13 @@
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
       <c r="B43" s="32">
-        <v>45132</v>
+        <v>45115</v>
       </c>
       <c r="C43" s="93">
-        <v>119630.7</v>
+        <v>27000</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>811</v>
+        <v>612</v>
       </c>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
@@ -22503,13 +23035,13 @@
       <c r="H43" s="38"/>
       <c r="I43" s="103"/>
       <c r="J43" s="338">
-        <v>45113</v>
-      </c>
-      <c r="K43" s="343" t="s">
-        <v>806</v>
+        <v>45112</v>
+      </c>
+      <c r="K43" s="349" t="s">
+        <v>216</v>
       </c>
       <c r="L43" s="49">
-        <v>4908.49</v>
+        <v>7755.5</v>
       </c>
       <c r="M43" s="42">
         <v>0</v>
@@ -22531,13 +23063,13 @@
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
       <c r="B44" s="32">
-        <v>45135</v>
-      </c>
-      <c r="C44" s="93">
-        <v>100000</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>808</v>
+        <v>45117</v>
+      </c>
+      <c r="C44" s="567">
+        <v>768600</v>
+      </c>
+      <c r="D44" s="568" t="s">
+        <v>1075</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
@@ -22547,11 +23079,11 @@
       <c r="J44" s="338">
         <v>45113</v>
       </c>
-      <c r="K44" s="471" t="s">
-        <v>807</v>
+      <c r="K44" s="343" t="s">
+        <v>806</v>
       </c>
       <c r="L44" s="49">
-        <v>850</v>
+        <v>4908.49</v>
       </c>
       <c r="M44" s="42">
         <v>0</v>
@@ -22572,22 +23104,28 @@
     </row>
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="403"/>
+      <c r="B45" s="32">
+        <v>45117</v>
+      </c>
+      <c r="C45" s="93">
+        <v>3562.55</v>
+      </c>
+      <c r="D45" s="114" t="s">
+        <v>613</v>
+      </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
       <c r="I45" s="103"/>
       <c r="J45" s="338">
-        <v>45120</v>
-      </c>
-      <c r="K45" s="343" t="s">
-        <v>809</v>
+        <v>45113</v>
+      </c>
+      <c r="K45" s="471" t="s">
+        <v>807</v>
       </c>
       <c r="L45" s="49">
-        <v>3420</v>
+        <v>850</v>
       </c>
       <c r="M45" s="42">
         <v>0</v>
@@ -22608,22 +23146,28 @@
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="403"/>
+      <c r="B46" s="32">
+        <v>45118</v>
+      </c>
+      <c r="C46" s="93">
+        <v>15786.4</v>
+      </c>
+      <c r="D46" s="114" t="s">
+        <v>1040</v>
+      </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="103"/>
       <c r="J46" s="338">
-        <v>45135</v>
+        <v>45113</v>
       </c>
       <c r="K46" s="349" t="s">
-        <v>812</v>
+        <v>1038</v>
       </c>
       <c r="L46" s="49">
-        <v>1298.04</v>
+        <v>28000</v>
       </c>
       <c r="M46" s="42">
         <v>0</v>
@@ -22644,17 +23188,29 @@
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="102"/>
+      <c r="B47" s="32">
+        <v>45121</v>
+      </c>
+      <c r="C47" s="93">
+        <v>2784</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>810</v>
+      </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
       <c r="G47" s="37"/>
       <c r="H47" s="106"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="338"/>
-      <c r="K47" s="349"/>
-      <c r="L47" s="49"/>
+      <c r="J47" s="338">
+        <v>45115</v>
+      </c>
+      <c r="K47" s="343" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L47" s="49">
+        <v>20648</v>
+      </c>
       <c r="M47" s="42">
         <v>0</v>
       </c>
@@ -22674,17 +23230,29 @@
     </row>
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="94"/>
+      <c r="B48" s="32">
+        <v>45124</v>
+      </c>
+      <c r="C48" s="93">
+        <v>100000</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>232</v>
+      </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
       <c r="G48" s="37"/>
       <c r="H48" s="106"/>
       <c r="I48" s="103"/>
-      <c r="J48" s="338"/>
-      <c r="K48" s="349"/>
-      <c r="L48" s="49"/>
+      <c r="J48" s="338">
+        <v>45117</v>
+      </c>
+      <c r="K48" s="343" t="s">
+        <v>216</v>
+      </c>
+      <c r="L48" s="49">
+        <v>5006.47</v>
+      </c>
       <c r="M48" s="107"/>
       <c r="N48" s="44"/>
       <c r="P48" s="44">
@@ -22699,28 +23267,34 @@
     </row>
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
-      <c r="B49" s="32">
-        <v>45128</v>
-      </c>
-      <c r="C49" s="93">
-        <v>5280</v>
-      </c>
-      <c r="D49" s="102" t="s">
-        <v>890</v>
+      <c r="B49" s="631">
+        <v>45124</v>
+      </c>
+      <c r="C49" s="567">
+        <v>12434</v>
+      </c>
+      <c r="D49" s="636" t="s">
+        <v>1078</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
       <c r="G49" s="37"/>
       <c r="H49" s="106"/>
       <c r="I49" s="103"/>
-      <c r="J49" s="338"/>
-      <c r="K49" s="343"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="568">
+      <c r="J49" s="338">
+        <v>45118</v>
+      </c>
+      <c r="K49" s="343" t="s">
+        <v>216</v>
+      </c>
+      <c r="L49" s="49">
+        <v>5250</v>
+      </c>
+      <c r="M49" s="595">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="568">
+      <c r="N49" s="595">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -22728,7 +23302,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="580">
+      <c r="Q49" s="607">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -22739,26 +23313,32 @@
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="32">
-        <v>45128</v>
+        <v>45125</v>
       </c>
       <c r="C50" s="93">
-        <v>13441</v>
-      </c>
-      <c r="D50" s="102" t="s">
-        <v>891</v>
+        <v>122545</v>
+      </c>
+      <c r="D50" s="114" t="s">
+        <v>1040</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
       <c r="G50" s="37"/>
       <c r="H50" s="106"/>
       <c r="I50" s="103"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="343"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="569"/>
-      <c r="N50" s="569"/>
+      <c r="J50" s="87">
+        <v>45120</v>
+      </c>
+      <c r="K50" s="343" t="s">
+        <v>809</v>
+      </c>
+      <c r="L50" s="89">
+        <v>3420</v>
+      </c>
+      <c r="M50" s="596"/>
+      <c r="N50" s="596"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="581"/>
+      <c r="Q50" s="608"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -22767,22 +23347,28 @@
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
       <c r="B51" s="32">
-        <v>45128</v>
+        <v>45125</v>
       </c>
       <c r="C51" s="93">
-        <v>9580</v>
-      </c>
-      <c r="D51" s="102" t="s">
-        <v>892</v>
+        <v>10690.8</v>
+      </c>
+      <c r="D51" s="114" t="s">
+        <v>1041</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="110"/>
       <c r="G51" s="37"/>
       <c r="H51" s="106"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="338"/>
-      <c r="K51" s="343"/>
-      <c r="L51" s="49"/>
+      <c r="J51" s="338">
+        <v>45122</v>
+      </c>
+      <c r="K51" s="343" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L51" s="49">
+        <v>5395.16</v>
+      </c>
       <c r="M51" s="113"/>
       <c r="N51" s="113"/>
       <c r="P51" s="44"/>
@@ -22790,23 +23376,29 @@
     </row>
     <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
-      <c r="B52" s="32">
-        <v>45128</v>
-      </c>
-      <c r="C52" s="93">
-        <v>5321</v>
-      </c>
-      <c r="D52" s="102" t="s">
-        <v>893</v>
+      <c r="B52" s="632">
+        <v>45125</v>
+      </c>
+      <c r="C52" s="634">
+        <v>37120</v>
+      </c>
+      <c r="D52" s="637" t="s">
+        <v>1076</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="110"/>
       <c r="G52" s="37"/>
       <c r="H52" s="106"/>
       <c r="I52" s="103"/>
-      <c r="J52" s="363"/>
-      <c r="K52" s="349"/>
-      <c r="L52" s="55"/>
+      <c r="J52" s="338">
+        <v>45128</v>
+      </c>
+      <c r="K52" s="343" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L52" s="49">
+        <v>28000</v>
+      </c>
       <c r="M52" s="113"/>
       <c r="N52" s="113"/>
       <c r="P52" s="44"/>
@@ -22814,40 +23406,62 @@
     </row>
     <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="114"/>
+      <c r="B53" s="32">
+        <v>45126</v>
+      </c>
+      <c r="C53" s="93">
+        <v>49350</v>
+      </c>
+      <c r="D53" s="114" t="s">
+        <v>612</v>
+      </c>
       <c r="E53" s="104"/>
       <c r="F53" s="110"/>
       <c r="G53" s="37"/>
       <c r="H53" s="106"/>
       <c r="I53" s="103"/>
-      <c r="J53" s="338"/>
-      <c r="K53" s="343"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="546">
+      <c r="J53" s="338">
+        <v>45131</v>
+      </c>
+      <c r="K53" s="349" t="s">
+        <v>216</v>
+      </c>
+      <c r="L53" s="49">
+        <v>8015.92</v>
+      </c>
+      <c r="M53" s="573">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="547"/>
+      <c r="N53" s="574"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="114" t="s">
-        <v>11</v>
+      <c r="B54" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C54" s="93">
+        <v>100000</v>
+      </c>
+      <c r="D54" s="102" t="s">
+        <v>808</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="110"/>
       <c r="G54" s="37"/>
       <c r="H54" s="106"/>
       <c r="I54" s="103"/>
-      <c r="J54" s="338"/>
-      <c r="K54" s="343"/>
-      <c r="L54" s="49"/>
+      <c r="J54" s="338">
+        <v>45135</v>
+      </c>
+      <c r="K54" s="349" t="s">
+        <v>812</v>
+      </c>
+      <c r="L54" s="49">
+        <v>1298.04</v>
+      </c>
       <c r="M54" s="113"/>
       <c r="N54" s="113"/>
       <c r="P54" s="44"/>
@@ -22855,17 +23469,29 @@
     </row>
     <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="114"/>
+      <c r="B55" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C55" s="93">
+        <v>5280</v>
+      </c>
+      <c r="D55" s="102" t="s">
+        <v>890</v>
+      </c>
       <c r="E55" s="104"/>
       <c r="F55" s="110"/>
       <c r="G55" s="37"/>
       <c r="H55" s="106"/>
       <c r="I55" s="103"/>
-      <c r="J55" s="338"/>
-      <c r="K55" s="343"/>
-      <c r="L55" s="49"/>
+      <c r="J55" s="338">
+        <v>45135</v>
+      </c>
+      <c r="K55" s="343" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L55" s="49">
+        <v>3786.75</v>
+      </c>
       <c r="M55" s="113"/>
       <c r="N55" s="113"/>
       <c r="P55" s="44"/>
@@ -22873,17 +23499,29 @@
     </row>
     <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="114"/>
+      <c r="B56" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C56" s="93">
+        <v>13441</v>
+      </c>
+      <c r="D56" s="102" t="s">
+        <v>891</v>
+      </c>
       <c r="E56" s="104"/>
       <c r="F56" s="110"/>
       <c r="G56" s="37"/>
       <c r="H56" s="106"/>
       <c r="I56" s="103"/>
-      <c r="J56" s="341"/>
-      <c r="K56" s="349"/>
-      <c r="L56" s="84"/>
+      <c r="J56" s="341">
+        <v>45135</v>
+      </c>
+      <c r="K56" s="343" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L56" s="84">
+        <v>6531.7</v>
+      </c>
       <c r="M56" s="113"/>
       <c r="N56" s="113"/>
       <c r="P56" s="44"/>
@@ -22891,17 +23529,29 @@
     </row>
     <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="114"/>
+      <c r="B57" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C57" s="93">
+        <v>9580</v>
+      </c>
+      <c r="D57" s="102" t="s">
+        <v>892</v>
+      </c>
       <c r="E57" s="104"/>
       <c r="F57" s="110"/>
       <c r="G57" s="37"/>
       <c r="H57" s="106"/>
       <c r="I57" s="103"/>
-      <c r="J57" s="341"/>
-      <c r="K57" s="343"/>
-      <c r="L57" s="84"/>
+      <c r="J57" s="341">
+        <v>45135</v>
+      </c>
+      <c r="K57" s="349" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L57" s="84">
+        <v>6170.82</v>
+      </c>
       <c r="M57" s="113"/>
       <c r="N57" s="113"/>
       <c r="P57" s="44"/>
@@ -22909,17 +23559,29 @@
     </row>
     <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="114"/>
+      <c r="B58" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C58" s="93">
+        <v>5321</v>
+      </c>
+      <c r="D58" s="102" t="s">
+        <v>893</v>
+      </c>
       <c r="E58" s="104"/>
       <c r="F58" s="110"/>
       <c r="G58" s="37"/>
       <c r="H58" s="106"/>
       <c r="I58" s="103"/>
-      <c r="J58" s="341"/>
-      <c r="K58" s="343"/>
-      <c r="L58" s="84"/>
+      <c r="J58" s="341">
+        <v>45135</v>
+      </c>
+      <c r="K58" s="350" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L58" s="84">
+        <v>42299.360000000001</v>
+      </c>
       <c r="M58" s="113"/>
       <c r="N58" s="113"/>
       <c r="P58" s="44"/>
@@ -22927,17 +23589,29 @@
     </row>
     <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="114"/>
+      <c r="B59" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C59" s="93">
+        <v>7806.4</v>
+      </c>
+      <c r="D59" s="114" t="s">
+        <v>1043</v>
+      </c>
       <c r="E59" s="104"/>
       <c r="F59" s="110"/>
       <c r="G59" s="37"/>
       <c r="H59" s="106"/>
       <c r="I59" s="103"/>
-      <c r="J59" s="341"/>
-      <c r="K59" s="349"/>
-      <c r="L59" s="84"/>
+      <c r="J59" s="341">
+        <v>45153</v>
+      </c>
+      <c r="K59" s="349" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L59" s="84">
+        <v>9744</v>
+      </c>
       <c r="M59" s="113"/>
       <c r="N59" s="113"/>
       <c r="P59" s="44"/>
@@ -22945,17 +23619,29 @@
     </row>
     <row r="60" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="114"/>
+      <c r="B60" s="32">
+        <v>45131</v>
+      </c>
+      <c r="C60" s="567">
+        <v>792561</v>
+      </c>
+      <c r="D60" s="568" t="s">
+        <v>1077</v>
+      </c>
       <c r="E60" s="104"/>
       <c r="F60" s="110"/>
       <c r="G60" s="37"/>
       <c r="H60" s="106"/>
       <c r="I60" s="103"/>
-      <c r="J60" s="341"/>
-      <c r="K60" s="350"/>
-      <c r="L60" s="84"/>
+      <c r="J60" s="475">
+        <v>45167</v>
+      </c>
+      <c r="K60" s="350" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L60" s="84">
+        <v>21634</v>
+      </c>
       <c r="M60" s="113"/>
       <c r="N60" s="113"/>
       <c r="P60" s="44"/>
@@ -22963,40 +23649,52 @@
     </row>
     <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="114"/>
+      <c r="B61" s="633">
+        <v>45132</v>
+      </c>
+      <c r="C61" s="635">
+        <v>119630.7</v>
+      </c>
+      <c r="D61" s="639" t="s">
+        <v>811</v>
+      </c>
       <c r="E61" s="104"/>
       <c r="F61" s="110"/>
       <c r="G61" s="37"/>
       <c r="H61" s="106"/>
       <c r="I61" s="103"/>
-      <c r="J61" s="341"/>
+      <c r="J61" s="638"/>
       <c r="K61" s="349"/>
-      <c r="L61" s="84"/>
+      <c r="L61" s="68"/>
       <c r="M61" s="113"/>
       <c r="N61" s="113"/>
       <c r="P61" s="44"/>
       <c r="Q61" s="19"/>
     </row>
-    <row r="62" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="135"/>
+      <c r="B62" s="130">
+        <v>45135</v>
+      </c>
+      <c r="C62" s="131">
+        <v>100000</v>
+      </c>
+      <c r="D62" s="403" t="s">
+        <v>808</v>
+      </c>
       <c r="E62" s="136"/>
       <c r="F62" s="44"/>
       <c r="H62" s="137"/>
       <c r="I62" s="44"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="125"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="121"/>
       <c r="L62" s="84"/>
       <c r="M62" s="44"/>
       <c r="N62" s="44"/>
       <c r="P62" s="44"/>
       <c r="Q62" s="19"/>
     </row>
-    <row r="63" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31"/>
       <c r="B63" s="134"/>
       <c r="C63" s="131"/>
@@ -23013,7 +23711,7 @@
       <c r="P63" s="44"/>
       <c r="Q63" s="19"/>
     </row>
-    <row r="64" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
       <c r="B64" s="134"/>
       <c r="C64" s="131"/>
@@ -23030,7 +23728,7 @@
       <c r="P64" s="44"/>
       <c r="Q64" s="19"/>
     </row>
-    <row r="65" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31"/>
       <c r="B65" s="134"/>
       <c r="C65" s="131"/>
@@ -23070,7 +23768,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>998598.7</v>
+        <v>2796341.45</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -23094,7 +23792,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>533930.23</v>
+        <v>732167.90999999992</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -23112,50 +23810,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="576" t="s">
+      <c r="H69" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="577"/>
+      <c r="I69" s="604"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="578">
+      <c r="K69" s="605">
         <f>I67+L67</f>
-        <v>594414.23</v>
-      </c>
-      <c r="L69" s="579"/>
+        <v>792651.90999999992</v>
+      </c>
+      <c r="L69" s="606"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="570" t="s">
+      <c r="D70" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="570"/>
+      <c r="E70" s="597"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>2892974.0700000003</v>
+        <v>896993.63999999966</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="571" t="s">
+      <c r="D71" s="598" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="571"/>
+      <c r="E71" s="598"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="572" t="s">
+      <c r="I71" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="573"/>
-      <c r="K71" s="574">
+      <c r="J71" s="600"/>
+      <c r="K71" s="601">
         <f>F73+F74+F75</f>
-        <v>4814667.01</v>
-      </c>
-      <c r="L71" s="574"/>
+        <v>2818686.5799999996</v>
+      </c>
+      <c r="L71" s="601"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -23193,18 +23891,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>1838798.7000000002</v>
+        <v>-157181.73000000036</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="575">
+      <c r="K73" s="602">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="574"/>
+      <c r="L73" s="601"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -23225,22 +23923,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="563" t="s">
+      <c r="D75" s="590" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="564"/>
+      <c r="E75" s="591"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="565" t="s">
-        <v>764</v>
-      </c>
-      <c r="J75" s="566"/>
-      <c r="K75" s="567">
+      <c r="I75" s="592" t="s">
+        <v>220</v>
+      </c>
+      <c r="J75" s="593"/>
+      <c r="K75" s="594">
         <f>K71+K73</f>
-        <v>1683279.9699999997</v>
-      </c>
-      <c r="L75" s="567"/>
+        <v>-312700.46000000043</v>
+      </c>
+      <c r="L75" s="594"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -23384,6 +24082,9 @@
       <c r="F97" s="189"/>
     </row>
   </sheetData>
+  <sortState ref="J40:L62">
+    <sortCondition ref="J40:J62"/>
+  </sortState>
   <mergeCells count="22">
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="P3:P4"/>
@@ -23422,8 +24123,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I48" sqref="I46:I48"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24592,10 +25293,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="585" t="s">
+      <c r="I37" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="586"/>
+      <c r="J37" s="613"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -24620,8 +25321,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="587"/>
-      <c r="J38" s="588"/>
+      <c r="I38" s="614"/>
+      <c r="J38" s="615"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -24646,8 +25347,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="589"/>
-      <c r="J39" s="590"/>
+      <c r="I39" s="616"/>
+      <c r="J39" s="617"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -25253,10 +25954,10 @@
         <f>SUM(G3:G66)</f>
         <v>917631.77</v>
       </c>
-      <c r="I67" s="591" t="s">
+      <c r="I67" s="618" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="592"/>
+      <c r="J67" s="619"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -25278,11 +25979,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="595" t="s">
+      <c r="G68" s="622" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="600"/>
-      <c r="J68" s="601"/>
+      <c r="I68" s="627"/>
+      <c r="J68" s="628"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -25293,7 +25994,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="596"/>
+      <c r="G69" s="623"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -25852,10 +26553,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25881,23 +26582,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="550"/>
-      <c r="C1" s="552" t="s">
+      <c r="B1" s="577"/>
+      <c r="C1" s="579" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="553"/>
-      <c r="L1" s="553"/>
-      <c r="M1" s="553"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="580"/>
+      <c r="F1" s="580"/>
+      <c r="G1" s="580"/>
+      <c r="H1" s="580"/>
+      <c r="I1" s="580"/>
+      <c r="J1" s="580"/>
+      <c r="K1" s="580"/>
+      <c r="L1" s="580"/>
+      <c r="M1" s="580"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="551"/>
+      <c r="B2" s="578"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -25907,25 +26608,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="555"/>
+      <c r="B3" s="581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="582"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="556" t="s">
+      <c r="H3" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="556"/>
+      <c r="I3" s="583"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="548" t="s">
+      <c r="P3" s="575" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="602" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -25940,14 +26641,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="560"/>
-      <c r="H4" s="561" t="s">
+      <c r="F4" s="587"/>
+      <c r="H4" s="588" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="562"/>
+      <c r="I4" s="589"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -25957,11 +26658,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="549"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="603"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -26007,7 +26708,7 @@
         <v>62709</v>
       </c>
       <c r="P5" s="44">
-        <f t="shared" ref="P5:P39" si="0">N5+M5+L5+I5+C5</f>
+        <f t="shared" ref="P5:P41" si="0">N5+M5+L5+I5+C5</f>
         <v>179455</v>
       </c>
       <c r="Q5" s="45">
@@ -26109,7 +26810,7 @@
         <v>152870</v>
       </c>
       <c r="Q7" s="45">
-        <f t="shared" ref="Q7:Q39" si="1">P7-F7</f>
+        <f t="shared" ref="Q7:Q41" si="1">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="46">
@@ -27209,7 +27910,7 @@
         <f>P28-F28-144338</f>
         <v>0</v>
       </c>
-      <c r="R28" s="543">
+      <c r="R28" s="538">
         <v>144338</v>
       </c>
       <c r="S28" s="233"/>
@@ -27243,7 +27944,7 @@
       <c r="J29" s="339">
         <v>45160</v>
       </c>
-      <c r="K29" s="544" t="s">
+      <c r="K29" s="539" t="s">
         <v>917</v>
       </c>
       <c r="L29" s="68">
@@ -27697,7 +28398,7 @@
       <c r="J38" s="338"/>
       <c r="K38" s="383"/>
       <c r="L38" s="49"/>
-      <c r="M38" s="545">
+      <c r="M38" s="540">
         <v>0</v>
       </c>
       <c r="N38" s="43">
@@ -27746,7 +28447,7 @@
       </c>
       <c r="J39" s="338"/>
       <c r="K39" s="343"/>
-      <c r="L39" s="605">
+      <c r="L39" s="542">
         <v>61389.5</v>
       </c>
       <c r="M39" s="42">
@@ -27763,7 +28464,7 @@
         <f t="shared" si="0"/>
         <v>116450</v>
       </c>
-      <c r="Q39" s="604">
+      <c r="Q39" s="541">
         <f t="shared" si="1"/>
         <v>-1120</v>
       </c>
@@ -27778,36 +28479,52 @@
       <c r="B40" s="32">
         <v>45171</v>
       </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
+      <c r="C40" s="93">
+        <v>10199</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>431</v>
+      </c>
       <c r="E40" s="35">
         <v>45171</v>
       </c>
-      <c r="F40" s="97"/>
+      <c r="F40" s="97">
+        <v>239641</v>
+      </c>
       <c r="G40" s="37"/>
       <c r="H40" s="38">
         <v>45171</v>
       </c>
-      <c r="I40" s="98"/>
-      <c r="J40" s="338"/>
-      <c r="K40" s="343"/>
-      <c r="L40" s="605">
-        <v>71117</v>
+      <c r="I40" s="98">
+        <v>2094</v>
+      </c>
+      <c r="J40" s="338">
+        <v>45171</v>
+      </c>
+      <c r="K40" s="343" t="s">
+        <v>938</v>
+      </c>
+      <c r="L40" s="49">
+        <f>22683+300</f>
+        <v>22983</v>
       </c>
       <c r="M40" s="42">
-        <v>0</v>
+        <f>46236+4026</f>
+        <v>50262</v>
       </c>
       <c r="N40" s="43">
-        <v>0</v>
+        <v>82986</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>937</v>
       </c>
       <c r="P40" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="45">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>168524</v>
+      </c>
+      <c r="Q40" s="285">
+        <f t="shared" si="1"/>
+        <v>-71117</v>
       </c>
       <c r="R40" s="46">
         <v>0</v>
@@ -27816,7 +28533,9 @@
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
-      <c r="C41" s="93"/>
+      <c r="C41" s="93">
+        <v>0</v>
+      </c>
       <c r="D41" s="102"/>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
@@ -27832,11 +28551,13 @@
       <c r="N41" s="43">
         <v>0</v>
       </c>
+      <c r="O41" s="543"/>
       <c r="P41" s="69">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q41" s="45">
-        <f t="shared" ref="Q41:Q47" si="2">P41-F41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" s="46">
@@ -27846,7 +28567,9 @@
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="32"/>
-      <c r="C42" s="93"/>
+      <c r="C42" s="93">
+        <v>0</v>
+      </c>
       <c r="D42" s="102"/>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
@@ -27872,7 +28595,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q42:Q47" si="2">P42-F42</f>
         <v>0</v>
       </c>
       <c r="R42" s="46">
@@ -27882,7 +28605,9 @@
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
       <c r="B43" s="32"/>
-      <c r="C43" s="93"/>
+      <c r="C43" s="93">
+        <v>0</v>
+      </c>
       <c r="D43" s="102"/>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
@@ -27918,13 +28643,13 @@
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
       <c r="B44" s="32">
-        <v>45157</v>
+        <v>45139</v>
       </c>
       <c r="C44" s="93">
-        <v>10380</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>928</v>
+        <v>118065.8</v>
+      </c>
+      <c r="D44" s="114" t="s">
+        <v>232</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
@@ -27960,13 +28685,13 @@
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
       <c r="B45" s="32">
-        <v>45157</v>
-      </c>
-      <c r="C45" s="93">
-        <v>10704</v>
-      </c>
-      <c r="D45" s="403" t="s">
-        <v>929</v>
+        <v>45139</v>
+      </c>
+      <c r="C45" s="640">
+        <v>37120</v>
+      </c>
+      <c r="D45" s="641" t="s">
+        <v>1080</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
@@ -28002,13 +28727,13 @@
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="32">
-        <v>45157</v>
+        <v>45140</v>
       </c>
       <c r="C46" s="93">
-        <v>10338</v>
-      </c>
-      <c r="D46" s="403" t="s">
-        <v>930</v>
+        <v>28000</v>
+      </c>
+      <c r="D46" s="114" t="s">
+        <v>1050</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
@@ -28044,22 +28769,28 @@
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="32">
-        <v>45157</v>
+        <v>45142</v>
       </c>
       <c r="C47" s="93">
-        <v>10971</v>
-      </c>
-      <c r="D47" s="102" t="s">
-        <v>931</v>
+        <v>150000</v>
+      </c>
+      <c r="D47" s="114" t="s">
+        <v>1053</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
       <c r="G47" s="37"/>
       <c r="H47" s="106"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="338"/>
-      <c r="K47" s="349"/>
-      <c r="L47" s="49"/>
+      <c r="J47" s="338">
+        <v>45171</v>
+      </c>
+      <c r="K47" s="349" t="s">
+        <v>938</v>
+      </c>
+      <c r="L47" s="49">
+        <v>29446</v>
+      </c>
       <c r="M47" s="42">
         <v>0</v>
       </c>
@@ -28080,14 +28811,12 @@
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" s="32">
-        <v>45157</v>
-      </c>
-      <c r="C48" s="93">
-        <v>2459</v>
-      </c>
-      <c r="D48" s="94" t="s">
-        <v>932</v>
-      </c>
+        <v>45145</v>
+      </c>
+      <c r="C48" s="640">
+        <v>801820</v>
+      </c>
+      <c r="D48" s="642"/>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
       <c r="G48" s="37"/>
@@ -28111,13 +28840,13 @@
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="32">
-        <v>45157</v>
+        <v>45146</v>
       </c>
       <c r="C49" s="93">
-        <v>8032</v>
-      </c>
-      <c r="D49" s="403" t="s">
-        <v>933</v>
+        <v>40500</v>
+      </c>
+      <c r="D49" s="114" t="s">
+        <v>612</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
@@ -28125,23 +28854,23 @@
       <c r="H49" s="106"/>
       <c r="I49" s="103"/>
       <c r="J49" s="338"/>
-      <c r="K49" s="343"/>
+      <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="568">
+      <c r="M49" s="595">
         <f>SUM(M5:M40)</f>
-        <v>2850841.23</v>
-      </c>
-      <c r="N49" s="568">
+        <v>2901103.23</v>
+      </c>
+      <c r="N49" s="595">
         <f>SUM(N5:N40)</f>
-        <v>1971408</v>
+        <v>2054394</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>5711356.54</v>
-      </c>
-      <c r="Q49" s="580">
+        <v>5879880.54</v>
+      </c>
+      <c r="Q49" s="607">
         <f>SUM(Q5:Q40)</f>
-        <v>-171524.46</v>
+        <v>-242641.46</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -28150,26 +28879,32 @@
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="32">
-        <v>45157</v>
+        <v>45146</v>
       </c>
       <c r="C50" s="93">
-        <v>6205</v>
-      </c>
-      <c r="D50" s="403" t="s">
-        <v>934</v>
+        <v>83198.350000000006</v>
+      </c>
+      <c r="D50" s="114" t="s">
+        <v>232</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
       <c r="G50" s="37"/>
       <c r="H50" s="106"/>
       <c r="I50" s="103"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="343"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="569"/>
-      <c r="N50" s="569"/>
+      <c r="J50" s="87">
+        <v>45139</v>
+      </c>
+      <c r="K50" s="343" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L50" s="89">
+        <v>2958</v>
+      </c>
+      <c r="M50" s="596"/>
+      <c r="N50" s="596"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="581"/>
+      <c r="Q50" s="608"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -28177,17 +28912,29 @@
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="114"/>
+      <c r="B51" s="32">
+        <v>45148</v>
+      </c>
+      <c r="C51" s="93">
+        <v>2735.5</v>
+      </c>
+      <c r="D51" s="114" t="s">
+        <v>1057</v>
+      </c>
       <c r="E51" s="104"/>
       <c r="F51" s="110"/>
       <c r="G51" s="37"/>
       <c r="H51" s="106"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="338"/>
-      <c r="K51" s="343"/>
-      <c r="L51" s="49"/>
+      <c r="J51" s="338">
+        <v>32540</v>
+      </c>
+      <c r="K51" s="343" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L51" s="49">
+        <v>14500</v>
+      </c>
       <c r="M51" s="113"/>
       <c r="N51" s="113"/>
       <c r="P51" s="44"/>
@@ -28195,17 +28942,29 @@
     </row>
     <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="114"/>
+      <c r="B52" s="32">
+        <v>45148</v>
+      </c>
+      <c r="C52" s="93">
+        <v>5762.7</v>
+      </c>
+      <c r="D52" s="114" t="s">
+        <v>1058</v>
+      </c>
       <c r="E52" s="104"/>
       <c r="F52" s="110"/>
       <c r="G52" s="37"/>
       <c r="H52" s="106"/>
       <c r="I52" s="103"/>
-      <c r="J52" s="363"/>
-      <c r="K52" s="349"/>
-      <c r="L52" s="55"/>
+      <c r="J52" s="363">
+        <v>45141</v>
+      </c>
+      <c r="K52" s="349" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L52" s="55">
+        <v>850</v>
+      </c>
       <c r="M52" s="113"/>
       <c r="N52" s="113"/>
       <c r="P52" s="44"/>
@@ -28213,38 +28972,62 @@
     </row>
     <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="114"/>
+      <c r="B53" s="32">
+        <v>45149</v>
+      </c>
+      <c r="C53" s="93">
+        <v>100000</v>
+      </c>
+      <c r="D53" s="114" t="s">
+        <v>1059</v>
+      </c>
       <c r="E53" s="104"/>
       <c r="F53" s="110"/>
       <c r="G53" s="37"/>
       <c r="H53" s="106"/>
       <c r="I53" s="103"/>
-      <c r="J53" s="338"/>
-      <c r="K53" s="343"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="546">
+      <c r="J53" s="338">
+        <v>45141</v>
+      </c>
+      <c r="K53" s="343" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L53" s="49">
+        <v>1100.01</v>
+      </c>
+      <c r="M53" s="573">
         <f>M49+N49</f>
-        <v>4822249.2300000004</v>
-      </c>
-      <c r="N53" s="547"/>
+        <v>4955497.2300000004</v>
+      </c>
+      <c r="N53" s="574"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="114"/>
+      <c r="B54" s="32">
+        <v>45152</v>
+      </c>
+      <c r="C54" s="93">
+        <v>9682.81</v>
+      </c>
+      <c r="D54" s="114" t="s">
+        <v>1061</v>
+      </c>
       <c r="E54" s="104"/>
       <c r="F54" s="110"/>
       <c r="G54" s="37"/>
       <c r="H54" s="106"/>
       <c r="I54" s="103"/>
-      <c r="J54" s="338"/>
-      <c r="K54" s="343"/>
-      <c r="L54" s="49"/>
+      <c r="J54" s="338">
+        <v>45145</v>
+      </c>
+      <c r="K54" s="343" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L54" s="49">
+        <v>4908.49</v>
+      </c>
       <c r="M54" s="113"/>
       <c r="N54" s="113"/>
       <c r="P54" s="44"/>
@@ -28252,17 +29035,29 @@
     </row>
     <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="114"/>
+      <c r="B55" s="631">
+        <v>45153</v>
+      </c>
+      <c r="C55" s="93">
+        <v>8912.9500000000007</v>
+      </c>
+      <c r="D55" s="135" t="s">
+        <v>1059</v>
+      </c>
       <c r="E55" s="104"/>
       <c r="F55" s="110"/>
       <c r="G55" s="37"/>
       <c r="H55" s="106"/>
       <c r="I55" s="103"/>
-      <c r="J55" s="338"/>
-      <c r="K55" s="343"/>
-      <c r="L55" s="49"/>
+      <c r="J55" s="338">
+        <v>45145</v>
+      </c>
+      <c r="K55" s="343" t="s">
+        <v>343</v>
+      </c>
+      <c r="L55" s="49">
+        <v>13940.01</v>
+      </c>
       <c r="M55" s="113"/>
       <c r="N55" s="113"/>
       <c r="P55" s="44"/>
@@ -28270,17 +29065,29 @@
     </row>
     <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="114"/>
+      <c r="B56" s="631">
+        <v>45156</v>
+      </c>
+      <c r="C56" s="93">
+        <v>100000</v>
+      </c>
+      <c r="D56" s="135" t="s">
+        <v>232</v>
+      </c>
       <c r="E56" s="104"/>
       <c r="F56" s="110"/>
       <c r="G56" s="37"/>
       <c r="H56" s="106"/>
       <c r="I56" s="103"/>
-      <c r="J56" s="341"/>
-      <c r="K56" s="349"/>
-      <c r="L56" s="84"/>
+      <c r="J56" s="341">
+        <v>45147</v>
+      </c>
+      <c r="K56" s="349" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L56" s="84">
+        <v>522</v>
+      </c>
       <c r="M56" s="113"/>
       <c r="N56" s="113"/>
       <c r="P56" s="44"/>
@@ -28288,17 +29095,29 @@
     </row>
     <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="114"/>
+      <c r="B57" s="631">
+        <v>45156</v>
+      </c>
+      <c r="C57" s="93">
+        <v>13081</v>
+      </c>
+      <c r="D57" s="135" t="s">
+        <v>1062</v>
+      </c>
       <c r="E57" s="104"/>
       <c r="F57" s="110"/>
       <c r="G57" s="37"/>
       <c r="H57" s="106"/>
       <c r="I57" s="103"/>
-      <c r="J57" s="341"/>
-      <c r="K57" s="343"/>
-      <c r="L57" s="84"/>
+      <c r="J57" s="341">
+        <v>45147</v>
+      </c>
+      <c r="K57" s="343" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L57" s="84">
+        <v>1087.5</v>
+      </c>
       <c r="M57" s="113"/>
       <c r="N57" s="113"/>
       <c r="P57" s="44"/>
@@ -28306,17 +29125,29 @@
     </row>
     <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="114"/>
+      <c r="B58" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C58" s="93">
+        <v>10380</v>
+      </c>
+      <c r="D58" s="102" t="s">
+        <v>928</v>
+      </c>
       <c r="E58" s="104"/>
       <c r="F58" s="110"/>
       <c r="G58" s="37"/>
       <c r="H58" s="106"/>
       <c r="I58" s="103"/>
-      <c r="J58" s="341"/>
-      <c r="K58" s="343"/>
-      <c r="L58" s="84"/>
+      <c r="J58" s="341">
+        <v>45149</v>
+      </c>
+      <c r="K58" s="343" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L58" s="84">
+        <v>13000</v>
+      </c>
       <c r="M58" s="113"/>
       <c r="N58" s="113"/>
       <c r="P58" s="44"/>
@@ -28324,17 +29155,29 @@
     </row>
     <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="114"/>
+      <c r="B59" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C59" s="93">
+        <v>10704</v>
+      </c>
+      <c r="D59" s="403" t="s">
+        <v>929</v>
+      </c>
       <c r="E59" s="104"/>
       <c r="F59" s="110"/>
       <c r="G59" s="37"/>
       <c r="H59" s="106"/>
       <c r="I59" s="103"/>
-      <c r="J59" s="341"/>
-      <c r="K59" s="349"/>
-      <c r="L59" s="84"/>
+      <c r="J59" s="341">
+        <v>45152</v>
+      </c>
+      <c r="K59" s="349" t="s">
+        <v>343</v>
+      </c>
+      <c r="L59" s="84">
+        <v>5890.42</v>
+      </c>
       <c r="M59" s="113"/>
       <c r="N59" s="113"/>
       <c r="P59" s="44"/>
@@ -28342,17 +29185,29 @@
     </row>
     <row r="60" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="114"/>
+      <c r="B60" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C60" s="93">
+        <v>10338</v>
+      </c>
+      <c r="D60" s="403" t="s">
+        <v>930</v>
+      </c>
       <c r="E60" s="104"/>
       <c r="F60" s="110"/>
       <c r="G60" s="37"/>
       <c r="H60" s="106"/>
       <c r="I60" s="103"/>
-      <c r="J60" s="341"/>
-      <c r="K60" s="350"/>
-      <c r="L60" s="84"/>
+      <c r="J60" s="341">
+        <v>45154</v>
+      </c>
+      <c r="K60" s="350" t="s">
+        <v>225</v>
+      </c>
+      <c r="L60" s="84">
+        <v>549</v>
+      </c>
       <c r="M60" s="113"/>
       <c r="N60" s="113"/>
       <c r="P60" s="44"/>
@@ -28360,85 +29215,145 @@
     </row>
     <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="114"/>
+      <c r="B61" s="32">
+        <v>45157</v>
+      </c>
+      <c r="C61" s="93">
+        <v>10971</v>
+      </c>
+      <c r="D61" s="102" t="s">
+        <v>931</v>
+      </c>
       <c r="E61" s="104"/>
       <c r="F61" s="110"/>
       <c r="G61" s="37"/>
       <c r="H61" s="106"/>
       <c r="I61" s="103"/>
-      <c r="J61" s="341"/>
-      <c r="K61" s="349"/>
-      <c r="L61" s="84"/>
+      <c r="J61" s="341">
+        <v>45155</v>
+      </c>
+      <c r="K61" s="349" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L61" s="84">
+        <v>6081.3</v>
+      </c>
       <c r="M61" s="113"/>
       <c r="N61" s="113"/>
       <c r="P61" s="44"/>
       <c r="Q61" s="19"/>
     </row>
-    <row r="62" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="135"/>
+      <c r="B62" s="130">
+        <v>45157</v>
+      </c>
+      <c r="C62" s="131">
+        <v>2459</v>
+      </c>
+      <c r="D62" s="102" t="s">
+        <v>932</v>
+      </c>
       <c r="E62" s="136"/>
       <c r="F62" s="44"/>
       <c r="H62" s="137"/>
       <c r="I62" s="44"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="125"/>
-      <c r="L62" s="84"/>
+      <c r="J62" s="133">
+        <v>45155</v>
+      </c>
+      <c r="K62" s="125" t="s">
+        <v>593</v>
+      </c>
+      <c r="L62" s="84">
+        <v>2320</v>
+      </c>
       <c r="M62" s="44"/>
       <c r="N62" s="44"/>
       <c r="P62" s="44"/>
       <c r="Q62" s="19"/>
     </row>
-    <row r="63" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31"/>
-      <c r="B63" s="134"/>
-      <c r="C63" s="131"/>
-      <c r="D63" s="135"/>
+      <c r="B63" s="130">
+        <v>45157</v>
+      </c>
+      <c r="C63" s="131">
+        <v>8032</v>
+      </c>
+      <c r="D63" s="403" t="s">
+        <v>933</v>
+      </c>
       <c r="E63" s="136"/>
       <c r="F63" s="44"/>
       <c r="H63" s="137"/>
       <c r="I63" s="44"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="125"/>
-      <c r="L63" s="84"/>
+      <c r="J63" s="133">
+        <v>45160</v>
+      </c>
+      <c r="K63" s="125" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L63" s="84">
+        <v>2571.7199999999998</v>
+      </c>
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
       <c r="P63" s="44"/>
       <c r="Q63" s="19"/>
     </row>
-    <row r="64" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
-      <c r="B64" s="134"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="135"/>
+      <c r="B64" s="130">
+        <v>45157</v>
+      </c>
+      <c r="C64" s="131">
+        <v>6205</v>
+      </c>
+      <c r="D64" s="403" t="s">
+        <v>934</v>
+      </c>
       <c r="E64" s="136"/>
       <c r="F64" s="44"/>
       <c r="H64" s="137"/>
       <c r="I64" s="44"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="125"/>
-      <c r="L64" s="84"/>
+      <c r="J64" s="133">
+        <v>45161</v>
+      </c>
+      <c r="K64" s="125" t="s">
+        <v>224</v>
+      </c>
+      <c r="L64" s="84">
+        <v>1856</v>
+      </c>
       <c r="M64" s="44"/>
       <c r="N64" s="44"/>
       <c r="P64" s="44"/>
       <c r="Q64" s="19"/>
     </row>
-    <row r="65" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31"/>
-      <c r="B65" s="134"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="135"/>
+      <c r="B65" s="134">
+        <v>45159</v>
+      </c>
+      <c r="C65" s="643">
+        <v>732290</v>
+      </c>
+      <c r="D65" s="644" t="s">
+        <v>1079</v>
+      </c>
       <c r="E65" s="136"/>
       <c r="F65" s="44"/>
       <c r="H65" s="137"/>
       <c r="I65" s="44"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="125"/>
-      <c r="L65" s="84"/>
+      <c r="J65" s="133">
+        <v>45167</v>
+      </c>
+      <c r="K65" s="125" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L65" s="84">
+        <v>6824.86</v>
+      </c>
       <c r="M65" s="44"/>
       <c r="N65" s="44"/>
       <c r="P65" s="44"/>
@@ -28446,350 +29361,643 @@
     </row>
     <row r="66" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="31"/>
-      <c r="B66" s="529"/>
-      <c r="C66" s="530"/>
-      <c r="D66" s="135"/>
+      <c r="B66" s="134">
+        <v>45160</v>
+      </c>
+      <c r="C66" s="131">
+        <v>40608.1</v>
+      </c>
+      <c r="D66" s="135" t="s">
+        <v>1064</v>
+      </c>
       <c r="E66" s="136"/>
       <c r="F66" s="44"/>
       <c r="H66" s="137"/>
       <c r="I66" s="44"/>
-      <c r="J66" s="138"/>
-      <c r="K66" s="139"/>
-      <c r="L66" s="13"/>
+      <c r="J66" s="133">
+        <v>45167</v>
+      </c>
+      <c r="K66" s="125" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L66" s="84">
+        <v>1298.04</v>
+      </c>
       <c r="M66" s="44"/>
       <c r="N66" s="44"/>
       <c r="P66" s="44"/>
       <c r="Q66" s="19"/>
     </row>
-    <row r="67" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="528" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="519">
-        <f>SUM(C5:C61)</f>
-        <v>644592.5</v>
-      </c>
-      <c r="D67" s="520"/>
-      <c r="E67" s="521" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="522">
-        <f>SUM(F5:F61)</f>
-        <v>5736359</v>
-      </c>
-      <c r="G67" s="523"/>
-      <c r="H67" s="521" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="524">
-        <f>SUM(I5:I61)</f>
-        <v>100026.5</v>
-      </c>
-      <c r="J67" s="525"/>
-      <c r="K67" s="526" t="s">
-        <v>14</v>
-      </c>
-      <c r="L67" s="527">
-        <f>SUM(L5:L65)-L26</f>
-        <v>372652.02</v>
-      </c>
-      <c r="M67" s="150"/>
-      <c r="N67" s="150"/>
+    <row r="67" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31"/>
+      <c r="B67" s="134">
+        <v>45162</v>
+      </c>
+      <c r="C67" s="131">
+        <v>12424</v>
+      </c>
+      <c r="D67" s="135" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E67" s="136"/>
+      <c r="F67" s="44"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="133">
+        <v>45169</v>
+      </c>
+      <c r="K67" s="570" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L67" s="84">
+        <v>1160</v>
+      </c>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
       <c r="P67" s="44"/>
       <c r="Q67" s="19"/>
     </row>
-    <row r="68" spans="1:17" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="5" t="s">
-        <v>10</v>
-      </c>
+    <row r="68" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="31"/>
+      <c r="B68" s="134">
+        <v>45162</v>
+      </c>
+      <c r="C68" s="131">
+        <v>28000</v>
+      </c>
+      <c r="D68" s="135" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E68" s="136"/>
+      <c r="F68" s="44"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="125"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
       <c r="P68" s="44"/>
       <c r="Q68" s="19"/>
     </row>
-    <row r="69" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
-      <c r="B69" s="153"/>
-      <c r="C69" s="1"/>
-      <c r="H69" s="576" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="577"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="578">
-        <f>I67+L67</f>
-        <v>472678.52</v>
-      </c>
-      <c r="L69" s="579"/>
-      <c r="M69" s="155"/>
-      <c r="N69" s="155"/>
+    <row r="69" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="31"/>
+      <c r="B69" s="134">
+        <v>45163</v>
+      </c>
+      <c r="C69" s="131">
+        <v>200000</v>
+      </c>
+      <c r="D69" s="135" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="136"/>
+      <c r="F69" s="44"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="125"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="570" t="s">
+    <row r="70" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
+      <c r="B70" s="134">
+        <v>45163</v>
+      </c>
+      <c r="C70" s="131">
+        <v>37120</v>
+      </c>
+      <c r="D70" s="135" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E70" s="136"/>
+      <c r="F70" s="44"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="19"/>
+    </row>
+    <row r="71" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31"/>
+      <c r="B71" s="134">
+        <v>45167</v>
+      </c>
+      <c r="C71" s="131">
+        <v>12424</v>
+      </c>
+      <c r="D71" s="135" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E71" s="136"/>
+      <c r="F71" s="44"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="125"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="19"/>
+    </row>
+    <row r="72" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31"/>
+      <c r="B72" s="134">
+        <v>45168</v>
+      </c>
+      <c r="C72" s="131">
+        <v>2695.35</v>
+      </c>
+      <c r="D72" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="136"/>
+      <c r="F72" s="44"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="133"/>
+      <c r="K72" s="125"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="19"/>
+    </row>
+    <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="31"/>
+      <c r="B73" s="134">
+        <v>45168</v>
+      </c>
+      <c r="C73" s="131">
+        <v>104110.55</v>
+      </c>
+      <c r="D73" s="135" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E73" s="136"/>
+      <c r="F73" s="44"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="133"/>
+      <c r="K73" s="125"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="19"/>
+    </row>
+    <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="31"/>
+      <c r="B74" s="134">
+        <v>45168</v>
+      </c>
+      <c r="C74" s="131">
+        <v>37120</v>
+      </c>
+      <c r="D74" s="135" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E74" s="136"/>
+      <c r="F74" s="44"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="133"/>
+      <c r="K74" s="125"/>
+      <c r="L74" s="84"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="19"/>
+    </row>
+    <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31"/>
+      <c r="B75" s="134">
+        <v>45170</v>
+      </c>
+      <c r="C75" s="571">
+        <v>19516.2</v>
+      </c>
+      <c r="D75" s="572" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E75" s="136"/>
+      <c r="F75" s="44"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="133"/>
+      <c r="K75" s="125"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="19"/>
+    </row>
+    <row r="76" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31"/>
+      <c r="B76" s="134">
+        <v>45170</v>
+      </c>
+      <c r="C76" s="131">
+        <v>100000</v>
+      </c>
+      <c r="D76" s="135" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="136"/>
+      <c r="F76" s="44"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="133"/>
+      <c r="K76" s="125"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="19"/>
+    </row>
+    <row r="77" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="31"/>
+      <c r="B77" s="134">
+        <v>45171</v>
+      </c>
+      <c r="C77" s="131">
+        <v>2367.75</v>
+      </c>
+      <c r="D77" s="135" t="s">
+        <v>613</v>
+      </c>
+      <c r="E77" s="136"/>
+      <c r="F77" s="44"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="133"/>
+      <c r="K77" s="125"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="19"/>
+    </row>
+    <row r="78" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31"/>
+      <c r="B78" s="529"/>
+      <c r="C78" s="530">
+        <v>0</v>
+      </c>
+      <c r="D78" s="135"/>
+      <c r="E78" s="136"/>
+      <c r="F78" s="44"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="138"/>
+      <c r="K78" s="139"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="19"/>
+    </row>
+    <row r="79" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="528" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="519">
+        <f>SUM(C4:C78)</f>
+        <v>6302897.8699999982</v>
+      </c>
+      <c r="D79" s="520"/>
+      <c r="E79" s="521" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="522">
+        <f>SUM(F5:F61)</f>
+        <v>5976000</v>
+      </c>
+      <c r="G79" s="523"/>
+      <c r="H79" s="521" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="524">
+        <f>SUM(I5:I61)</f>
+        <v>102120.5</v>
+      </c>
+      <c r="J79" s="525"/>
+      <c r="K79" s="526" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="527">
+        <f>SUM(L5:L77)-L26</f>
+        <v>435381.37</v>
+      </c>
+      <c r="M79" s="150"/>
+      <c r="N79" s="150"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="19"/>
+    </row>
+    <row r="80" spans="1:17" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="19"/>
+    </row>
+    <row r="81" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="152"/>
+      <c r="B81" s="153"/>
+      <c r="C81" s="1"/>
+      <c r="H81" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="604"/>
+      <c r="J81" s="154"/>
+      <c r="K81" s="605">
+        <f>I79+L79</f>
+        <v>537501.87</v>
+      </c>
+      <c r="L81" s="606"/>
+      <c r="M81" s="155"/>
+      <c r="N81" s="155"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="19"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D82" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="570"/>
-      <c r="F70" s="156">
-        <f>F67-K69-C67</f>
-        <v>4619087.9800000004</v>
-      </c>
-      <c r="I70" s="157"/>
-      <c r="J70" s="158"/>
-    </row>
-    <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="571" t="s">
+      <c r="E82" s="597"/>
+      <c r="F82" s="156">
+        <f>F79-K81-C79</f>
+        <v>-864399.73999999836</v>
+      </c>
+      <c r="I82" s="157"/>
+      <c r="J82" s="158"/>
+    </row>
+    <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D83" s="598" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="571"/>
-      <c r="F71" s="101">
-        <v>0</v>
-      </c>
-      <c r="I71" s="572" t="s">
+      <c r="E83" s="598"/>
+      <c r="F83" s="101">
+        <v>-1249902.31</v>
+      </c>
+      <c r="I83" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="573"/>
-      <c r="K71" s="574">
-        <f>F73+F74+F75</f>
-        <v>7765548.6400000006</v>
-      </c>
-      <c r="L71" s="574"/>
-      <c r="M71" s="159"/>
-      <c r="N71" s="159"/>
-      <c r="O71" s="160"/>
-      <c r="P71" s="159"/>
-      <c r="Q71" s="159"/>
-    </row>
-    <row r="72" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D72" s="161" t="s">
+      <c r="J83" s="600"/>
+      <c r="K83" s="601">
+        <f>F85+F86+F87</f>
+        <v>925006.01000000164</v>
+      </c>
+      <c r="L83" s="601"/>
+      <c r="M83" s="159"/>
+      <c r="N83" s="159"/>
+      <c r="O83" s="160"/>
+      <c r="P83" s="159"/>
+      <c r="Q83" s="159"/>
+    </row>
+    <row r="84" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D84" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="162"/>
-      <c r="F72" s="163">
-        <v>0</v>
-      </c>
-      <c r="I72" s="164"/>
-      <c r="J72" s="165"/>
-      <c r="K72" s="166"/>
-      <c r="L72" s="167"/>
-      <c r="M72" s="159"/>
-      <c r="N72" s="159"/>
-      <c r="O72" s="160"/>
-      <c r="P72" s="159"/>
-      <c r="Q72" s="159"/>
-    </row>
-    <row r="73" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="7" t="s">
+      <c r="E84" s="162"/>
+      <c r="F84" s="163">
+        <v>-226585.60000000001</v>
+      </c>
+      <c r="I84" s="164"/>
+      <c r="J84" s="165"/>
+      <c r="K84" s="166"/>
+      <c r="L84" s="167"/>
+      <c r="M84" s="159"/>
+      <c r="N84" s="159"/>
+      <c r="O84" s="160"/>
+      <c r="P84" s="159"/>
+      <c r="Q84" s="159"/>
+    </row>
+    <row r="85" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="152" t="s">
+      <c r="E85" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="150">
-        <f>SUM(F70:F72)</f>
-        <v>4619087.9800000004</v>
-      </c>
-      <c r="H73" s="168"/>
-      <c r="I73" s="169" t="s">
+      <c r="F85" s="150">
+        <f>SUM(F82:F84)</f>
+        <v>-2340887.6499999985</v>
+      </c>
+      <c r="H85" s="168"/>
+      <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="170"/>
-      <c r="K73" s="575">
+      <c r="J85" s="170"/>
+      <c r="K85" s="602">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L73" s="574"/>
-      <c r="O73" s="536"/>
-    </row>
-    <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="171" t="s">
+      <c r="L85" s="601"/>
+      <c r="O85" s="536"/>
+    </row>
+    <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="152" t="s">
+      <c r="E86" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="F74" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="172">
+      <c r="F86" s="101">
+        <v>119433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D75" s="563" t="s">
+      <c r="D87" s="590" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="564"/>
-      <c r="F75" s="173">
+      <c r="E87" s="591"/>
+      <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I75" s="565" t="s">
+      <c r="I87" s="592" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="566"/>
-      <c r="K75" s="567">
-        <f>K71+K73</f>
-        <v>4944997.33</v>
-      </c>
-      <c r="L75" s="567"/>
-    </row>
-    <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C76" s="174"/>
-      <c r="D76" s="175"/>
-      <c r="E76" s="152"/>
-      <c r="F76" s="176"/>
-      <c r="J76" s="177"/>
-    </row>
-    <row r="77" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
-      <c r="K77" s="179"/>
-      <c r="L77" s="180"/>
-    </row>
-    <row r="78" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="181"/>
-      <c r="C78" s="182"/>
-      <c r="D78" s="183"/>
-      <c r="E78" s="44"/>
-      <c r="I78" s="178"/>
-      <c r="J78" s="178"/>
-      <c r="K78" s="179"/>
-      <c r="L78" s="180"/>
-      <c r="M78" s="184"/>
-      <c r="N78" s="152"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="181"/>
-      <c r="C79" s="185"/>
-      <c r="E79" s="44"/>
-      <c r="M79" s="184"/>
-      <c r="N79" s="152"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="181"/>
-      <c r="C80" s="185"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="186"/>
-      <c r="L80" s="187"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="181"/>
-      <c r="C81" s="185"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="186"/>
-      <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="181"/>
-      <c r="C82" s="185"/>
-      <c r="D82" s="188"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D83" s="188"/>
-      <c r="E83" s="190"/>
-      <c r="F83" s="44"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D84" s="188"/>
-      <c r="E84" s="190"/>
-      <c r="F84" s="44"/>
-      <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D85" s="188"/>
-      <c r="E85" s="190"/>
-      <c r="F85" s="44"/>
-      <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D86" s="188"/>
-      <c r="E86" s="190"/>
-      <c r="F86" s="454"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D87" s="188"/>
-      <c r="E87" s="190"/>
-      <c r="F87" s="454"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D88" s="188"/>
-      <c r="E88" s="190"/>
-      <c r="F88" s="454"/>
-      <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D89" s="188"/>
-      <c r="E89" s="190"/>
-      <c r="F89" s="44"/>
-      <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D90" s="188"/>
-      <c r="E90" s="190"/>
-      <c r="F90" s="44"/>
-      <c r="M90" s="1"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D91" s="188"/>
-      <c r="E91" s="190"/>
-      <c r="F91" s="44"/>
-      <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D92" s="188"/>
-      <c r="E92" s="190"/>
-      <c r="F92" s="44"/>
+      <c r="J87" s="593"/>
+      <c r="K87" s="594">
+        <f>K83+K85</f>
+        <v>-1895545.2999999984</v>
+      </c>
+      <c r="L87" s="594"/>
+    </row>
+    <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C88" s="174"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="152"/>
+      <c r="F88" s="176"/>
+      <c r="J88" s="177"/>
+    </row>
+    <row r="89" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="178"/>
+      <c r="J89" s="178"/>
+      <c r="K89" s="179"/>
+      <c r="L89" s="180"/>
+    </row>
+    <row r="90" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="181"/>
+      <c r="C90" s="182"/>
+      <c r="D90" s="183"/>
+      <c r="E90" s="44"/>
+      <c r="I90" s="178"/>
+      <c r="J90" s="178"/>
+      <c r="K90" s="179"/>
+      <c r="L90" s="180"/>
+      <c r="M90" s="184"/>
+      <c r="N90" s="152"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="181"/>
+      <c r="C91" s="185"/>
+      <c r="E91" s="44"/>
+      <c r="M91" s="184"/>
+      <c r="N91" s="152"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B92" s="181"/>
+      <c r="C92" s="185"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="186"/>
+      <c r="L92" s="187"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D93" s="188"/>
-      <c r="E93" s="190"/>
-      <c r="F93" s="44"/>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B93" s="181"/>
+      <c r="C93" s="185"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="186"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B94" s="181"/>
+      <c r="C94" s="185"/>
       <c r="D94" s="188"/>
-      <c r="E94" s="190"/>
+      <c r="E94" s="44"/>
       <c r="F94" s="44"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D95" s="188"/>
-      <c r="E95" s="191"/>
-      <c r="F95" s="189"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E95" s="190"/>
+      <c r="F95" s="44"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D96" s="188"/>
-      <c r="E96" s="191"/>
-      <c r="F96" s="189"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="190"/>
+      <c r="F96" s="44"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D97" s="188"/>
-      <c r="E97" s="191"/>
-      <c r="F97" s="189"/>
+      <c r="E97" s="190"/>
+      <c r="F97" s="44"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D98" s="188"/>
+      <c r="E98" s="190"/>
+      <c r="F98" s="454"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D99" s="188"/>
+      <c r="E99" s="190"/>
+      <c r="F99" s="454"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D100" s="188"/>
+      <c r="E100" s="190"/>
+      <c r="F100" s="454"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D101" s="188"/>
+      <c r="E101" s="190"/>
+      <c r="F101" s="44"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D102" s="188"/>
+      <c r="E102" s="190"/>
+      <c r="F102" s="44"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D103" s="188"/>
+      <c r="E103" s="190"/>
+      <c r="F103" s="44"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D104" s="188"/>
+      <c r="E104" s="190"/>
+      <c r="F104" s="44"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D105" s="188"/>
+      <c r="E105" s="190"/>
+      <c r="F105" s="44"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D106" s="188"/>
+      <c r="E106" s="190"/>
+      <c r="F106" s="44"/>
+    </row>
+    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D107" s="188"/>
+      <c r="E107" s="191"/>
+      <c r="F107" s="189"/>
+    </row>
+    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D108" s="188"/>
+      <c r="E108" s="191"/>
+      <c r="F108" s="189"/>
+    </row>
+    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D109" s="188"/>
+      <c r="E109" s="191"/>
+      <c r="F109" s="189"/>
     </row>
   </sheetData>
+  <sortState ref="B44:D74">
+    <sortCondition ref="B44:B74"/>
+  </sortState>
   <mergeCells count="22">
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
     <mergeCell ref="M49:M50"/>
     <mergeCell ref="N49:N50"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="P3:P4"/>
@@ -28809,13 +30017,13 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="258" bestFit="1" customWidth="1"/>
@@ -28826,8 +30034,8 @@
     <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="152" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="271" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="554" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="561" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="274" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -28847,8 +30055,8 @@
       <c r="I1" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="200"/>
-      <c r="K1" s="201"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="555"/>
       <c r="L1" s="202"/>
       <c r="M1" s="201"/>
       <c r="N1" s="203" t="s">
@@ -28905,767 +30113,940 @@
         <f>D3-F3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="352"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="220">
-        <v>0</v>
+      <c r="I3" s="287" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J3" s="544">
+        <v>13035</v>
+      </c>
+      <c r="K3" s="289">
+        <v>12283.8</v>
       </c>
       <c r="L3" s="218"/>
       <c r="M3" s="237"/>
       <c r="N3" s="221">
         <f>K3-M3</f>
-        <v>0</v>
+        <v>12283.8</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="277" t="s">
-        <v>813</v>
-      </c>
-      <c r="C4" s="382" t="s">
-        <v>814</v>
-      </c>
-      <c r="D4" s="279">
-        <v>93194.36</v>
+      <c r="B4" s="235" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C4" s="461" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D4" s="237">
+        <v>107803.18</v>
       </c>
       <c r="E4" s="224"/>
       <c r="F4" s="101"/>
       <c r="G4" s="225">
         <f t="shared" ref="G4:G65" si="0">D4-F4</f>
-        <v>93194.36</v>
+        <v>107803.18</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="513"/>
-      <c r="J4" s="514"/>
-      <c r="K4" s="515"/>
+      <c r="I4" s="228" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J4" s="229">
+        <v>13045</v>
+      </c>
+      <c r="K4" s="230">
+        <v>6682</v>
+      </c>
       <c r="L4" s="218"/>
       <c r="M4" s="237"/>
       <c r="N4" s="227">
         <f>N3+K4-M4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="277" t="s">
-        <v>815</v>
-      </c>
-      <c r="C5" s="382" t="s">
-        <v>816</v>
-      </c>
-      <c r="D5" s="279">
-        <v>5796</v>
+        <v>18965.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="235" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C5" s="461" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D5" s="237">
+        <v>14304</v>
       </c>
       <c r="E5" s="224"/>
       <c r="F5" s="101"/>
       <c r="G5" s="225">
         <f t="shared" si="0"/>
-        <v>5796</v>
-      </c>
-      <c r="I5" s="513"/>
-      <c r="J5" s="514"/>
-      <c r="K5" s="515"/>
+        <v>14304</v>
+      </c>
+      <c r="I5" s="287" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J5" s="544">
+        <v>13050</v>
+      </c>
+      <c r="K5" s="289">
+        <v>360</v>
+      </c>
       <c r="L5" s="218"/>
       <c r="M5" s="237"/>
       <c r="N5" s="227">
-        <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="277" t="s">
-        <v>815</v>
-      </c>
-      <c r="C6" s="382" t="s">
-        <v>817</v>
-      </c>
-      <c r="D6" s="279">
-        <v>41205.24</v>
+        <f t="shared" ref="N5:N63" si="1">N4+K5-M5</f>
+        <v>19325.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="235" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C6" s="461" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D6" s="237">
+        <v>6325.8</v>
       </c>
       <c r="E6" s="224"/>
       <c r="F6" s="101"/>
       <c r="G6" s="225">
         <f t="shared" si="0"/>
-        <v>41205.24</v>
-      </c>
-      <c r="I6" s="516"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="237"/>
+        <v>6325.8</v>
+      </c>
+      <c r="I6" s="228" t="s">
+        <v>939</v>
+      </c>
+      <c r="J6" s="229">
+        <v>13058</v>
+      </c>
+      <c r="K6" s="230">
+        <v>600</v>
+      </c>
       <c r="L6" s="218"/>
       <c r="M6" s="237"/>
       <c r="N6" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="277" t="s">
-        <v>815</v>
-      </c>
-      <c r="C7" s="382" t="s">
-        <v>818</v>
-      </c>
-      <c r="D7" s="279">
-        <v>2760</v>
+        <v>19925.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="235" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C7" s="461" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D7" s="237">
+        <v>8751.6</v>
       </c>
       <c r="E7" s="224"/>
       <c r="F7" s="101"/>
       <c r="G7" s="225">
         <f t="shared" si="0"/>
-        <v>2760</v>
-      </c>
-      <c r="I7" s="516"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="237"/>
+        <v>8751.6</v>
+      </c>
+      <c r="I7" s="287" t="s">
+        <v>944</v>
+      </c>
+      <c r="J7" s="544">
+        <v>13066</v>
+      </c>
+      <c r="K7" s="289">
+        <v>3961</v>
+      </c>
       <c r="L7" s="218"/>
       <c r="M7" s="237"/>
       <c r="N7" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="277" t="s">
-        <v>819</v>
-      </c>
-      <c r="C8" s="382" t="s">
-        <v>820</v>
-      </c>
-      <c r="D8" s="279">
-        <v>3691.8</v>
+        <v>23886.799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="235" t="s">
+        <v>939</v>
+      </c>
+      <c r="C8" s="461" t="s">
+        <v>940</v>
+      </c>
+      <c r="D8" s="237">
+        <v>23712</v>
       </c>
       <c r="E8" s="224"/>
       <c r="F8" s="101"/>
       <c r="G8" s="225">
         <f t="shared" si="0"/>
-        <v>3691.8</v>
-      </c>
-      <c r="I8" s="516"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="237"/>
+        <v>23712</v>
+      </c>
+      <c r="H8" s="226"/>
+      <c r="I8" s="228" t="s">
+        <v>944</v>
+      </c>
+      <c r="J8" s="229">
+        <v>13069</v>
+      </c>
+      <c r="K8" s="230">
+        <v>4160</v>
+      </c>
       <c r="L8" s="218"/>
       <c r="M8" s="237"/>
       <c r="N8" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="277" t="s">
-        <v>819</v>
-      </c>
-      <c r="C9" s="382" t="s">
-        <v>821</v>
-      </c>
-      <c r="D9" s="279">
-        <v>6678</v>
+        <v>28046.799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="235" t="s">
+        <v>939</v>
+      </c>
+      <c r="C9" s="461" t="s">
+        <v>941</v>
+      </c>
+      <c r="D9" s="237">
+        <v>0</v>
       </c>
       <c r="E9" s="224"/>
       <c r="F9" s="101"/>
       <c r="G9" s="225">
         <f t="shared" si="0"/>
-        <v>6678</v>
-      </c>
-      <c r="I9" s="516"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="237"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="287" t="s">
+        <v>948</v>
+      </c>
+      <c r="J9" s="544">
+        <v>13077</v>
+      </c>
+      <c r="K9" s="289">
+        <v>600</v>
+      </c>
       <c r="L9" s="218"/>
       <c r="M9" s="237"/>
       <c r="N9" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="277" t="s">
-        <v>819</v>
-      </c>
-      <c r="C10" s="382" t="s">
-        <v>822</v>
-      </c>
-      <c r="D10" s="279">
-        <v>80914</v>
+        <v>28646.799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="235" t="s">
+        <v>939</v>
+      </c>
+      <c r="C10" s="461" t="s">
+        <v>942</v>
+      </c>
+      <c r="D10" s="237">
+        <v>0</v>
       </c>
       <c r="E10" s="224"/>
       <c r="F10" s="101"/>
       <c r="G10" s="225">
         <f t="shared" si="0"/>
-        <v>80914</v>
-      </c>
-      <c r="H10" s="226"/>
-      <c r="I10" s="516"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="237"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="287" t="s">
+        <v>950</v>
+      </c>
+      <c r="J10" s="544">
+        <v>13080</v>
+      </c>
+      <c r="K10" s="289">
+        <v>3521</v>
+      </c>
       <c r="L10" s="218"/>
       <c r="M10" s="237"/>
       <c r="N10" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="277" t="s">
-        <v>823</v>
-      </c>
-      <c r="C11" s="382" t="s">
-        <v>824</v>
-      </c>
-      <c r="D11" s="279">
-        <v>32577.38</v>
+        <v>32167.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="235" t="s">
+        <v>939</v>
+      </c>
+      <c r="C11" s="461" t="s">
+        <v>943</v>
+      </c>
+      <c r="D11" s="237">
+        <v>0</v>
       </c>
       <c r="E11" s="224"/>
       <c r="F11" s="101"/>
       <c r="G11" s="225">
         <f t="shared" si="0"/>
-        <v>32577.38</v>
-      </c>
-      <c r="I11" s="516"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="237"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="287" t="s">
+        <v>950</v>
+      </c>
+      <c r="J11" s="544">
+        <v>13084</v>
+      </c>
+      <c r="K11" s="289">
+        <v>600</v>
+      </c>
       <c r="L11" s="218"/>
       <c r="M11" s="237"/>
       <c r="N11" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="277" t="s">
-        <v>825</v>
-      </c>
-      <c r="C12" s="382" t="s">
-        <v>826</v>
-      </c>
-      <c r="D12" s="279">
-        <v>20407.8</v>
+        <v>32767.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="235" t="s">
+        <v>944</v>
+      </c>
+      <c r="C12" s="461" t="s">
+        <v>945</v>
+      </c>
+      <c r="D12" s="237">
+        <v>19595.22</v>
       </c>
       <c r="E12" s="224"/>
       <c r="F12" s="101"/>
       <c r="G12" s="225">
         <f t="shared" si="0"/>
-        <v>20407.8</v>
-      </c>
-      <c r="I12" s="516"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="237"/>
+        <v>19595.22</v>
+      </c>
+      <c r="I12" s="287" t="s">
+        <v>954</v>
+      </c>
+      <c r="J12" s="544">
+        <v>13094</v>
+      </c>
+      <c r="K12" s="289">
+        <v>13574.4</v>
+      </c>
       <c r="L12" s="218"/>
       <c r="M12" s="237"/>
       <c r="N12" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="277" t="s">
-        <v>827</v>
-      </c>
-      <c r="C13" s="382" t="s">
-        <v>828</v>
-      </c>
-      <c r="D13" s="279">
-        <v>62769.599999999999</v>
+        <v>46342.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="235" t="s">
+        <v>946</v>
+      </c>
+      <c r="C13" s="461" t="s">
+        <v>947</v>
+      </c>
+      <c r="D13" s="237">
+        <v>26903.66</v>
       </c>
       <c r="E13" s="224"/>
       <c r="F13" s="101"/>
       <c r="G13" s="225">
         <f t="shared" si="0"/>
-        <v>62769.599999999999</v>
-      </c>
-      <c r="I13" s="516"/>
-      <c r="J13" s="236"/>
-      <c r="K13" s="237"/>
+        <v>26903.66</v>
+      </c>
+      <c r="I13" s="287" t="s">
+        <v>956</v>
+      </c>
+      <c r="J13" s="544">
+        <v>13097</v>
+      </c>
+      <c r="K13" s="289">
+        <v>17782.400000000001</v>
+      </c>
       <c r="L13" s="218"/>
       <c r="M13" s="237"/>
       <c r="N13" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="277" t="s">
-        <v>827</v>
-      </c>
-      <c r="C14" s="382" t="s">
-        <v>829</v>
-      </c>
-      <c r="D14" s="279">
-        <v>5464.4</v>
+        <v>64124.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="235" t="s">
+        <v>948</v>
+      </c>
+      <c r="C14" s="461" t="s">
+        <v>949</v>
+      </c>
+      <c r="D14" s="237">
+        <v>11502.64</v>
       </c>
       <c r="E14" s="224"/>
       <c r="F14" s="101"/>
       <c r="G14" s="225">
         <f t="shared" si="0"/>
-        <v>5464.4</v>
-      </c>
-      <c r="I14" s="516"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="237"/>
+        <v>11502.64</v>
+      </c>
+      <c r="I14" s="287" t="s">
+        <v>956</v>
+      </c>
+      <c r="J14" s="544">
+        <v>13098</v>
+      </c>
+      <c r="K14" s="289">
+        <v>1537.4</v>
+      </c>
       <c r="L14" s="218"/>
       <c r="M14" s="237"/>
       <c r="N14" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="277" t="s">
-        <v>830</v>
-      </c>
-      <c r="C15" s="382" t="s">
-        <v>831</v>
-      </c>
-      <c r="D15" s="279">
-        <v>116116.4</v>
+        <v>65662</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="235" t="s">
+        <v>950</v>
+      </c>
+      <c r="C15" s="461" t="s">
+        <v>951</v>
+      </c>
+      <c r="D15" s="237">
+        <v>0</v>
       </c>
       <c r="E15" s="224"/>
       <c r="F15" s="101"/>
       <c r="G15" s="225">
         <f t="shared" si="0"/>
-        <v>116116.4</v>
-      </c>
-      <c r="I15" s="516"/>
-      <c r="J15" s="236"/>
-      <c r="K15" s="237"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="228" t="s">
+        <v>959</v>
+      </c>
+      <c r="J15" s="229">
+        <v>13103</v>
+      </c>
+      <c r="K15" s="230">
+        <v>360</v>
+      </c>
       <c r="L15" s="218"/>
       <c r="M15" s="237"/>
       <c r="N15" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="277" t="s">
-        <v>830</v>
-      </c>
-      <c r="C16" s="382" t="s">
-        <v>832</v>
-      </c>
-      <c r="D16" s="279">
-        <v>24190.2</v>
+        <v>66022</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="235" t="s">
+        <v>950</v>
+      </c>
+      <c r="C16" s="461" t="s">
+        <v>952</v>
+      </c>
+      <c r="D16" s="237">
+        <v>32750.2</v>
       </c>
       <c r="E16" s="224"/>
       <c r="F16" s="101"/>
       <c r="G16" s="225">
         <f t="shared" si="0"/>
-        <v>24190.2</v>
-      </c>
-      <c r="I16" s="516"/>
-      <c r="J16" s="236"/>
-      <c r="K16" s="237"/>
+        <v>32750.2</v>
+      </c>
+      <c r="I16" s="287" t="s">
+        <v>961</v>
+      </c>
+      <c r="J16" s="544">
+        <v>13110</v>
+      </c>
+      <c r="K16" s="289">
+        <v>600</v>
+      </c>
       <c r="L16" s="218"/>
       <c r="M16" s="237"/>
       <c r="N16" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="277" t="s">
-        <v>833</v>
-      </c>
-      <c r="C17" s="382" t="s">
-        <v>834</v>
-      </c>
-      <c r="D17" s="279">
-        <v>15546.95</v>
+        <v>66622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="235" t="s">
+        <v>950</v>
+      </c>
+      <c r="C17" s="461" t="s">
+        <v>953</v>
+      </c>
+      <c r="D17" s="237">
+        <v>201266.08</v>
       </c>
       <c r="E17" s="224"/>
       <c r="F17" s="101"/>
       <c r="G17" s="225">
         <f t="shared" si="0"/>
-        <v>15546.95</v>
-      </c>
-      <c r="I17" s="516"/>
-      <c r="J17" s="236"/>
-      <c r="K17" s="237"/>
+        <v>201266.08</v>
+      </c>
+      <c r="I17" s="228" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J17" s="229">
+        <v>13117</v>
+      </c>
+      <c r="K17" s="230">
+        <v>12986.6</v>
+      </c>
       <c r="L17" s="218"/>
       <c r="M17" s="237"/>
       <c r="N17" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="277" t="s">
-        <v>835</v>
-      </c>
-      <c r="C18" s="382" t="s">
-        <v>836</v>
-      </c>
-      <c r="D18" s="279">
-        <v>12999.6</v>
+        <v>79608.600000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="235" t="s">
+        <v>954</v>
+      </c>
+      <c r="C18" s="461" t="s">
+        <v>955</v>
+      </c>
+      <c r="D18" s="237">
+        <v>13337.6</v>
       </c>
       <c r="E18" s="224"/>
       <c r="F18" s="101"/>
       <c r="G18" s="225">
         <f t="shared" si="0"/>
-        <v>12999.6</v>
-      </c>
-      <c r="I18" s="516"/>
-      <c r="J18" s="236"/>
-      <c r="K18" s="237"/>
+        <v>13337.6</v>
+      </c>
+      <c r="I18" s="228" t="s">
+        <v>967</v>
+      </c>
+      <c r="J18" s="229">
+        <v>13122</v>
+      </c>
+      <c r="K18" s="230">
+        <v>960</v>
+      </c>
       <c r="L18" s="218"/>
       <c r="M18" s="237"/>
       <c r="N18" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="277" t="s">
-        <v>835</v>
-      </c>
-      <c r="C19" s="382" t="s">
-        <v>837</v>
-      </c>
-      <c r="D19" s="279">
-        <v>0</v>
+        <v>80568.600000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="235" t="s">
+        <v>956</v>
+      </c>
+      <c r="C19" s="461" t="s">
+        <v>957</v>
+      </c>
+      <c r="D19" s="237">
+        <v>27507.7</v>
       </c>
       <c r="E19" s="224"/>
       <c r="F19" s="101"/>
       <c r="G19" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="516"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="237"/>
+        <v>27507.7</v>
+      </c>
+      <c r="I19" s="228" t="s">
+        <v>972</v>
+      </c>
+      <c r="J19" s="229">
+        <v>13133</v>
+      </c>
+      <c r="K19" s="230">
+        <v>4712</v>
+      </c>
       <c r="L19" s="218"/>
       <c r="M19" s="237"/>
       <c r="N19" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="277" t="s">
-        <v>835</v>
-      </c>
-      <c r="C20" s="382" t="s">
-        <v>838</v>
-      </c>
-      <c r="D20" s="279">
-        <v>49824.28</v>
+        <v>85280.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="235" t="s">
+        <v>956</v>
+      </c>
+      <c r="C20" s="461" t="s">
+        <v>958</v>
+      </c>
+      <c r="D20" s="237">
+        <v>5092</v>
       </c>
       <c r="E20" s="224"/>
       <c r="F20" s="101"/>
       <c r="G20" s="225">
         <f t="shared" si="0"/>
-        <v>49824.28</v>
-      </c>
-      <c r="I20" s="516"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="237"/>
+        <v>5092</v>
+      </c>
+      <c r="H20" s="232"/>
+      <c r="I20" s="228" t="s">
+        <v>974</v>
+      </c>
+      <c r="J20" s="229">
+        <v>13139</v>
+      </c>
+      <c r="K20" s="230">
+        <v>3680</v>
+      </c>
       <c r="L20" s="218"/>
       <c r="M20" s="237"/>
       <c r="N20" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="277" t="s">
-        <v>835</v>
-      </c>
-      <c r="C21" s="382" t="s">
-        <v>839</v>
-      </c>
-      <c r="D21" s="279">
-        <v>0</v>
+        <v>88960.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="235" t="s">
+        <v>959</v>
+      </c>
+      <c r="C21" s="461" t="s">
+        <v>960</v>
+      </c>
+      <c r="D21" s="237">
+        <v>53907.5</v>
       </c>
       <c r="E21" s="224"/>
       <c r="F21" s="101"/>
       <c r="G21" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="516"/>
-      <c r="J21" s="236"/>
-      <c r="K21" s="237"/>
+        <v>53907.5</v>
+      </c>
+      <c r="H21" s="233"/>
+      <c r="I21" s="287" t="s">
+        <v>974</v>
+      </c>
+      <c r="J21" s="544">
+        <v>13140</v>
+      </c>
+      <c r="K21" s="289">
+        <v>2053</v>
+      </c>
       <c r="L21" s="218"/>
       <c r="M21" s="237"/>
       <c r="N21" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="277" t="s">
-        <v>840</v>
-      </c>
-      <c r="C22" s="382" t="s">
-        <v>841</v>
-      </c>
-      <c r="D22" s="279">
-        <v>17350.02</v>
+        <v>91013.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="235" t="s">
+        <v>961</v>
+      </c>
+      <c r="C22" s="461" t="s">
+        <v>962</v>
+      </c>
+      <c r="D22" s="237">
+        <v>30250.06</v>
       </c>
       <c r="E22" s="224"/>
       <c r="F22" s="101"/>
       <c r="G22" s="225">
         <f t="shared" si="0"/>
-        <v>17350.02</v>
-      </c>
-      <c r="H22" s="232"/>
-      <c r="I22" s="516"/>
-      <c r="J22" s="236"/>
-      <c r="K22" s="237"/>
+        <v>30250.06</v>
+      </c>
+      <c r="H22" s="233"/>
+      <c r="I22" s="228" t="s">
+        <v>976</v>
+      </c>
+      <c r="J22" s="229">
+        <v>13145</v>
+      </c>
+      <c r="K22" s="230">
+        <v>360</v>
+      </c>
       <c r="L22" s="218"/>
       <c r="M22" s="237"/>
       <c r="N22" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="277" t="s">
-        <v>840</v>
-      </c>
-      <c r="C23" s="382" t="s">
-        <v>842</v>
-      </c>
-      <c r="D23" s="279">
-        <v>6193.8</v>
+        <v>91373.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="235" t="s">
+        <v>961</v>
+      </c>
+      <c r="C23" s="461" t="s">
+        <v>963</v>
+      </c>
+      <c r="D23" s="237">
+        <v>0</v>
       </c>
       <c r="E23" s="224"/>
       <c r="F23" s="101"/>
       <c r="G23" s="225">
         <f t="shared" si="0"/>
-        <v>6193.8</v>
-      </c>
-      <c r="H23" s="233"/>
-      <c r="I23" s="516"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="237"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="234"/>
+      <c r="I23" s="228" t="s">
+        <v>983</v>
+      </c>
+      <c r="J23" s="229">
+        <v>13153</v>
+      </c>
+      <c r="K23" s="230">
+        <v>360</v>
+      </c>
       <c r="L23" s="218"/>
       <c r="M23" s="237"/>
       <c r="N23" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="277" t="s">
-        <v>843</v>
-      </c>
-      <c r="C24" s="382" t="s">
-        <v>844</v>
-      </c>
-      <c r="D24" s="279">
-        <v>13559.56</v>
+        <v>91733.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="235" t="s">
+        <v>961</v>
+      </c>
+      <c r="C24" s="461" t="s">
+        <v>964</v>
+      </c>
+      <c r="D24" s="237">
+        <v>2259</v>
       </c>
       <c r="E24" s="224"/>
       <c r="F24" s="101"/>
       <c r="G24" s="225">
         <f t="shared" si="0"/>
-        <v>13559.56</v>
-      </c>
-      <c r="H24" s="233"/>
-      <c r="I24" s="516"/>
-      <c r="J24" s="236"/>
-      <c r="K24" s="237"/>
+        <v>2259</v>
+      </c>
+      <c r="H24" s="234"/>
+      <c r="I24" s="228" t="s">
+        <v>985</v>
+      </c>
+      <c r="J24" s="229">
+        <v>13163</v>
+      </c>
+      <c r="K24" s="230">
+        <v>3161</v>
+      </c>
       <c r="L24" s="218"/>
       <c r="M24" s="237"/>
       <c r="N24" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="277" t="s">
-        <v>845</v>
-      </c>
-      <c r="C25" s="382" t="s">
-        <v>846</v>
-      </c>
-      <c r="D25" s="279">
-        <v>0</v>
+        <v>94894.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="235" t="s">
+        <v>961</v>
+      </c>
+      <c r="C25" s="461" t="s">
+        <v>965</v>
+      </c>
+      <c r="D25" s="237">
+        <v>3361.1</v>
       </c>
       <c r="E25" s="224"/>
       <c r="F25" s="101"/>
       <c r="G25" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3361.1</v>
       </c>
       <c r="H25" s="234"/>
-      <c r="I25" s="516"/>
-      <c r="J25" s="236"/>
-      <c r="K25" s="237"/>
+      <c r="I25" s="287" t="s">
+        <v>988</v>
+      </c>
+      <c r="J25" s="544">
+        <v>13172</v>
+      </c>
+      <c r="K25" s="289">
+        <v>1200</v>
+      </c>
       <c r="L25" s="218"/>
       <c r="M25" s="237"/>
       <c r="N25" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="277" t="s">
-        <v>845</v>
-      </c>
-      <c r="C26" s="382" t="s">
-        <v>847</v>
-      </c>
-      <c r="D26" s="279">
-        <v>21143.48</v>
+        <v>96094.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="235" t="s">
+        <v>961</v>
+      </c>
+      <c r="C26" s="461" t="s">
+        <v>966</v>
+      </c>
+      <c r="D26" s="237">
+        <v>1734</v>
       </c>
       <c r="E26" s="224"/>
       <c r="F26" s="101"/>
       <c r="G26" s="225">
         <f t="shared" si="0"/>
-        <v>21143.48</v>
+        <v>1734</v>
       </c>
       <c r="H26" s="234"/>
-      <c r="I26" s="516"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
+      <c r="I26" s="228" t="s">
+        <v>988</v>
+      </c>
+      <c r="J26" s="229">
+        <v>13173</v>
+      </c>
+      <c r="K26" s="230">
+        <v>6807</v>
+      </c>
       <c r="L26" s="218"/>
       <c r="M26" s="237"/>
       <c r="N26" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="277" t="s">
-        <v>848</v>
-      </c>
-      <c r="C27" s="382" t="s">
-        <v>849</v>
-      </c>
-      <c r="D27" s="279">
-        <v>41760.44</v>
+        <v>102901.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="235" t="s">
+        <v>967</v>
+      </c>
+      <c r="C27" s="461" t="s">
+        <v>968</v>
+      </c>
+      <c r="D27" s="237">
+        <v>55851.18</v>
       </c>
       <c r="E27" s="224"/>
       <c r="F27" s="101"/>
       <c r="G27" s="225">
         <f t="shared" si="0"/>
-        <v>41760.44</v>
+        <v>55851.18</v>
       </c>
       <c r="H27" s="234"/>
-      <c r="I27" s="516"/>
-      <c r="J27" s="236"/>
-      <c r="K27" s="237"/>
+      <c r="I27" s="287" t="s">
+        <v>990</v>
+      </c>
+      <c r="J27" s="544">
+        <v>13188</v>
+      </c>
+      <c r="K27" s="289">
+        <v>20610.8</v>
+      </c>
       <c r="L27" s="218"/>
       <c r="M27" s="237"/>
       <c r="N27" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="277" t="s">
-        <v>848</v>
-      </c>
-      <c r="C28" s="382" t="s">
-        <v>850</v>
-      </c>
-      <c r="D28" s="279">
-        <v>4265.1000000000004</v>
+        <v>123512.40000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="235" t="s">
+        <v>967</v>
+      </c>
+      <c r="C28" s="461" t="s">
+        <v>969</v>
+      </c>
+      <c r="D28" s="237">
+        <v>6180</v>
       </c>
       <c r="E28" s="224"/>
       <c r="F28" s="101"/>
       <c r="G28" s="225">
         <f t="shared" si="0"/>
-        <v>4265.1000000000004</v>
+        <v>6180</v>
       </c>
       <c r="H28" s="234"/>
-      <c r="I28" s="516"/>
-      <c r="J28" s="236"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="218"/>
-      <c r="M28" s="237"/>
+      <c r="I28" s="287" t="s">
+        <v>994</v>
+      </c>
+      <c r="J28" s="544">
+        <v>13194</v>
+      </c>
+      <c r="K28" s="289">
+        <v>8058</v>
+      </c>
+      <c r="L28" s="224"/>
+      <c r="M28" s="101"/>
       <c r="N28" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="277" t="s">
-        <v>851</v>
-      </c>
-      <c r="C29" s="382" t="s">
-        <v>852</v>
-      </c>
-      <c r="D29" s="279">
-        <v>19825.34</v>
+        <v>131570.40000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="235" t="s">
+        <v>967</v>
+      </c>
+      <c r="C29" s="461" t="s">
+        <v>970</v>
+      </c>
+      <c r="D29" s="237">
+        <v>1564</v>
       </c>
       <c r="E29" s="224"/>
       <c r="F29" s="101"/>
       <c r="G29" s="225">
         <f t="shared" si="0"/>
-        <v>19825.34</v>
-      </c>
-      <c r="H29" s="234"/>
-      <c r="I29" s="516"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="237"/>
+        <v>1564</v>
+      </c>
+      <c r="H29" s="233"/>
+      <c r="I29" s="287" t="s">
+        <v>996</v>
+      </c>
+      <c r="J29" s="544">
+        <v>13202</v>
+      </c>
+      <c r="K29" s="289">
+        <v>6742</v>
+      </c>
+      <c r="L29" s="224"/>
+      <c r="M29" s="101"/>
       <c r="N29" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="277" t="s">
-        <v>851</v>
-      </c>
-      <c r="C30" s="382" t="s">
-        <v>853</v>
-      </c>
-      <c r="D30" s="279">
-        <v>5250</v>
+        <v>138312.40000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="235" t="s">
+        <v>967</v>
+      </c>
+      <c r="C30" s="461" t="s">
+        <v>971</v>
+      </c>
+      <c r="D30" s="237">
+        <v>5874</v>
       </c>
       <c r="E30" s="224"/>
       <c r="F30" s="101"/>
       <c r="G30" s="225">
         <f t="shared" si="0"/>
-        <v>5250</v>
-      </c>
-      <c r="H30" s="234"/>
-      <c r="I30" s="516"/>
-      <c r="J30" s="236"/>
-      <c r="K30" s="237"/>
+        <v>5874</v>
+      </c>
+      <c r="H30" s="233"/>
+      <c r="I30" s="228" t="s">
+        <v>998</v>
+      </c>
+      <c r="J30" s="229">
+        <v>13211</v>
+      </c>
+      <c r="K30" s="230">
+        <v>480</v>
+      </c>
       <c r="L30" s="224"/>
       <c r="M30" s="101"/>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="277" t="s">
-        <v>854</v>
-      </c>
-      <c r="C31" s="382" t="s">
-        <v>855</v>
-      </c>
-      <c r="D31" s="279">
-        <v>19089.400000000001</v>
+        <v>138792.40000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="235" t="s">
+        <v>972</v>
+      </c>
+      <c r="C31" s="461" t="s">
+        <v>973</v>
+      </c>
+      <c r="D31" s="237">
+        <v>3500.4</v>
       </c>
       <c r="E31" s="224"/>
       <c r="F31" s="101"/>
       <c r="G31" s="225">
         <f t="shared" si="0"/>
-        <v>19089.400000000001</v>
-      </c>
-      <c r="H31" s="233"/>
-      <c r="I31" s="516"/>
-      <c r="J31" s="236"/>
-      <c r="K31" s="237"/>
+        <v>3500.4</v>
+      </c>
+      <c r="I31" s="228" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="229">
+        <v>13221</v>
+      </c>
+      <c r="K31" s="230">
+        <v>6061</v>
+      </c>
       <c r="L31" s="224"/>
       <c r="M31" s="101"/>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="277" t="s">
-        <v>854</v>
-      </c>
-      <c r="C32" s="382" t="s">
-        <v>856</v>
-      </c>
-      <c r="D32" s="279">
+        <v>144853.40000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="235" t="s">
+        <v>974</v>
+      </c>
+      <c r="C32" s="461" t="s">
+        <v>975</v>
+      </c>
+      <c r="D32" s="237">
         <v>0</v>
       </c>
       <c r="E32" s="224"/>
@@ -29674,285 +31055,350 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="233"/>
-      <c r="I32" s="516"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="237"/>
+      <c r="I32" s="287" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="544">
+        <v>13222</v>
+      </c>
+      <c r="K32" s="289">
+        <v>0</v>
+      </c>
       <c r="L32" s="224"/>
       <c r="M32" s="101"/>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="277" t="s">
-        <v>854</v>
-      </c>
-      <c r="C33" s="382" t="s">
-        <v>857</v>
-      </c>
-      <c r="D33" s="279">
-        <v>0</v>
+        <v>144853.40000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="235" t="s">
+        <v>976</v>
+      </c>
+      <c r="C33" s="461" t="s">
+        <v>977</v>
+      </c>
+      <c r="D33" s="237">
+        <v>54429.4</v>
       </c>
       <c r="E33" s="224"/>
       <c r="F33" s="101"/>
       <c r="G33" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="436"/>
-      <c r="J33" s="438"/>
-      <c r="K33" s="150">
-        <v>0</v>
-      </c>
-      <c r="L33" s="224"/>
+        <v>54429.4</v>
+      </c>
+      <c r="I33" s="228" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="229">
+        <v>13223</v>
+      </c>
+      <c r="K33" s="230">
+        <v>0</v>
+      </c>
+      <c r="L33" s="489"/>
       <c r="M33" s="101"/>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="277" t="s">
-        <v>854</v>
-      </c>
-      <c r="C34" s="382" t="s">
-        <v>858</v>
-      </c>
-      <c r="D34" s="279">
-        <v>0</v>
+        <v>144853.40000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="235" t="s">
+        <v>976</v>
+      </c>
+      <c r="C34" s="461" t="s">
+        <v>978</v>
+      </c>
+      <c r="D34" s="237">
+        <v>12342</v>
       </c>
       <c r="E34" s="224"/>
       <c r="F34" s="101"/>
       <c r="G34" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="436"/>
-      <c r="J34" s="438"/>
-      <c r="K34" s="150">
-        <v>0</v>
-      </c>
-      <c r="L34" s="224"/>
+        <v>12342</v>
+      </c>
+      <c r="I34" s="287" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="544">
+        <v>13224</v>
+      </c>
+      <c r="K34" s="289">
+        <v>7002</v>
+      </c>
+      <c r="L34" s="491"/>
       <c r="M34" s="101"/>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="277" t="s">
-        <v>859</v>
-      </c>
-      <c r="C35" s="382" t="s">
-        <v>860</v>
-      </c>
-      <c r="D35" s="279">
-        <v>19056.599999999999</v>
+        <v>151855.40000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="235" t="s">
+        <v>976</v>
+      </c>
+      <c r="C35" s="461" t="s">
+        <v>979</v>
+      </c>
+      <c r="D35" s="237">
+        <v>0</v>
       </c>
       <c r="E35" s="224"/>
       <c r="F35" s="101"/>
       <c r="G35" s="225">
         <f t="shared" si="0"/>
-        <v>19056.599999999999</v>
-      </c>
-      <c r="I35" s="487"/>
-      <c r="J35" s="488"/>
-      <c r="K35" s="219"/>
-      <c r="L35" s="489"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="228" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J35" s="229">
+        <v>13228</v>
+      </c>
+      <c r="K35" s="230">
+        <v>600</v>
+      </c>
+      <c r="L35" s="491"/>
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>152455.40000000002</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="277" t="s">
-        <v>861</v>
-      </c>
-      <c r="C36" s="382" t="s">
-        <v>862</v>
-      </c>
-      <c r="D36" s="279">
-        <v>7055.4</v>
+      <c r="B36" s="235" t="s">
+        <v>976</v>
+      </c>
+      <c r="C36" s="461" t="s">
+        <v>980</v>
+      </c>
+      <c r="D36" s="237">
+        <v>0</v>
       </c>
       <c r="E36" s="224"/>
       <c r="F36" s="101"/>
       <c r="G36" s="225">
         <f t="shared" si="0"/>
-        <v>7055.4</v>
-      </c>
-      <c r="I36" s="491"/>
-      <c r="J36" s="491"/>
-      <c r="K36" s="491"/>
-      <c r="L36" s="491"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="287" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J36" s="544">
+        <v>13229</v>
+      </c>
+      <c r="K36" s="289">
+        <v>1584</v>
+      </c>
+      <c r="L36" s="218"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>154039.40000000002</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="277" t="s">
-        <v>861</v>
-      </c>
-      <c r="C37" s="382" t="s">
-        <v>863</v>
-      </c>
-      <c r="D37" s="279">
-        <v>9903.85</v>
-      </c>
-      <c r="E37" s="224"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="225">
-        <f t="shared" si="0"/>
-        <v>9903.85</v>
-      </c>
-      <c r="I37" s="585" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="586"/>
-      <c r="K37" s="491"/>
-      <c r="L37" s="491"/>
-      <c r="M37" s="101"/>
+      <c r="B37" s="235" t="s">
+        <v>976</v>
+      </c>
+      <c r="C37" s="461" t="s">
+        <v>981</v>
+      </c>
+      <c r="D37" s="237">
+        <v>9132</v>
+      </c>
+      <c r="E37" s="238"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="101">
+        <f t="shared" si="0"/>
+        <v>9132</v>
+      </c>
+      <c r="I37" s="228" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J37" s="229">
+        <v>13230</v>
+      </c>
+      <c r="K37" s="230">
+        <v>2505.8000000000002</v>
+      </c>
+      <c r="L37" s="238"/>
+      <c r="M37" s="84"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="277" t="s">
-        <v>864</v>
-      </c>
-      <c r="C38" s="382" t="s">
-        <v>865</v>
-      </c>
-      <c r="D38" s="279">
-        <v>11767.68</v>
-      </c>
-      <c r="E38" s="224"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="225">
-        <f t="shared" si="0"/>
-        <v>11767.68</v>
-      </c>
-      <c r="I38" s="587"/>
-      <c r="J38" s="588"/>
-      <c r="K38" s="490"/>
-      <c r="L38" s="218"/>
-      <c r="M38" s="101"/>
+        <v>156545.20000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="235" t="s">
+        <v>976</v>
+      </c>
+      <c r="C38" s="461" t="s">
+        <v>982</v>
+      </c>
+      <c r="D38" s="237">
+        <v>0</v>
+      </c>
+      <c r="E38" s="238"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="228" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J38" s="229">
+        <v>13238</v>
+      </c>
+      <c r="K38" s="230">
+        <v>600</v>
+      </c>
+      <c r="L38" s="238"/>
+      <c r="M38" s="84"/>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="277" t="s">
-        <v>866</v>
-      </c>
-      <c r="C39" s="382" t="s">
-        <v>867</v>
-      </c>
-      <c r="D39" s="279">
-        <v>24157.14</v>
+        <v>157145.20000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="235" t="s">
+        <v>983</v>
+      </c>
+      <c r="C39" s="461" t="s">
+        <v>984</v>
+      </c>
+      <c r="D39" s="237">
+        <v>20773.2</v>
       </c>
       <c r="E39" s="238"/>
       <c r="F39" s="84"/>
       <c r="G39" s="101">
         <f t="shared" si="0"/>
-        <v>24157.14</v>
-      </c>
-      <c r="I39" s="589"/>
-      <c r="J39" s="590"/>
-      <c r="K39" s="84"/>
+        <v>20773.2</v>
+      </c>
+      <c r="I39" s="287" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J39" s="544">
+        <v>13239</v>
+      </c>
+      <c r="K39" s="289">
+        <v>10729.2</v>
+      </c>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="540" t="s">
-        <v>868</v>
-      </c>
-      <c r="C40" s="541" t="s">
-        <v>869</v>
-      </c>
-      <c r="D40" s="542">
-        <v>43828.08</v>
+        <v>167874.40000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="235" t="s">
+        <v>985</v>
+      </c>
+      <c r="C40" s="461" t="s">
+        <v>986</v>
+      </c>
+      <c r="D40" s="237">
+        <v>26133.16</v>
       </c>
       <c r="E40" s="238"/>
       <c r="F40" s="84"/>
       <c r="G40" s="101">
         <f t="shared" si="0"/>
-        <v>43828.08</v>
-      </c>
-      <c r="K40" s="84"/>
+        <v>26133.16</v>
+      </c>
+      <c r="I40" s="287" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J40" s="544">
+        <v>13252</v>
+      </c>
+      <c r="K40" s="289">
+        <v>20923.599999999999</v>
+      </c>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="538" t="s">
-        <v>870</v>
-      </c>
-      <c r="C41" s="539" t="s">
-        <v>871</v>
-      </c>
-      <c r="D41" s="515">
-        <v>20733.96</v>
+        <v>188798.00000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="235" t="s">
+        <v>985</v>
+      </c>
+      <c r="C41" s="461" t="s">
+        <v>987</v>
+      </c>
+      <c r="D41" s="237">
+        <v>14070</v>
       </c>
       <c r="E41" s="238"/>
       <c r="F41" s="84"/>
       <c r="G41" s="101">
         <f t="shared" si="0"/>
-        <v>20733.96</v>
-      </c>
-      <c r="K41" s="84"/>
+        <v>14070</v>
+      </c>
+      <c r="I41" s="287" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J41" s="544">
+        <v>13254</v>
+      </c>
+      <c r="K41" s="289">
+        <v>7619</v>
+      </c>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="540" t="s">
-        <v>870</v>
-      </c>
-      <c r="C42" s="541" t="s">
-        <v>872</v>
-      </c>
-      <c r="D42" s="542">
-        <v>0</v>
+        <v>196417.00000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="235" t="s">
+        <v>988</v>
+      </c>
+      <c r="C42" s="461" t="s">
+        <v>989</v>
+      </c>
+      <c r="D42" s="237">
+        <v>32862.800000000003</v>
       </c>
       <c r="E42" s="238"/>
       <c r="F42" s="84"/>
       <c r="G42" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="84"/>
+        <v>32862.800000000003</v>
+      </c>
+      <c r="I42" s="228" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J42" s="229">
+        <v>13264</v>
+      </c>
+      <c r="K42" s="230">
+        <v>23661.599999999999</v>
+      </c>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="538" t="s">
-        <v>870</v>
-      </c>
-      <c r="C43" s="539" t="s">
-        <v>873</v>
-      </c>
-      <c r="D43" s="515">
+        <v>220078.60000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="235" t="s">
+        <v>990</v>
+      </c>
+      <c r="C43" s="461" t="s">
+        <v>991</v>
+      </c>
+      <c r="D43" s="237">
         <v>0</v>
       </c>
       <c r="E43" s="238"/>
@@ -29961,304 +31407,384 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="239"/>
-      <c r="J43" s="240"/>
-      <c r="K43" s="84"/>
+      <c r="I43" s="287" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J43" s="544">
+        <v>13272</v>
+      </c>
+      <c r="K43" s="289">
+        <v>3440</v>
+      </c>
       <c r="L43" s="238"/>
       <c r="M43" s="84"/>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="540" t="s">
-        <v>870</v>
-      </c>
-      <c r="C44" s="541" t="s">
-        <v>874</v>
-      </c>
-      <c r="D44" s="542">
-        <v>0</v>
+        <v>223518.60000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="235" t="s">
+        <v>990</v>
+      </c>
+      <c r="C44" s="461" t="s">
+        <v>992</v>
+      </c>
+      <c r="D44" s="237">
+        <v>4038</v>
       </c>
       <c r="E44" s="238"/>
       <c r="F44" s="84"/>
       <c r="G44" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="239"/>
-      <c r="J44" s="240"/>
-      <c r="K44" s="84"/>
+        <v>4038</v>
+      </c>
+      <c r="I44" s="228" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J44" s="229">
+        <v>13283</v>
+      </c>
+      <c r="K44" s="230">
+        <v>960</v>
+      </c>
       <c r="L44" s="238"/>
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="538" t="s">
-        <v>875</v>
-      </c>
-      <c r="C45" s="539" t="s">
-        <v>876</v>
-      </c>
-      <c r="D45" s="515">
-        <v>33646.01</v>
+        <v>224478.60000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="235" t="s">
+        <v>990</v>
+      </c>
+      <c r="C45" s="461" t="s">
+        <v>993</v>
+      </c>
+      <c r="D45" s="237">
+        <v>101222.46</v>
       </c>
       <c r="E45" s="238"/>
       <c r="F45" s="84"/>
       <c r="G45" s="101">
         <f t="shared" si="0"/>
-        <v>33646.01</v>
-      </c>
-      <c r="I45" s="239"/>
-      <c r="J45" s="240"/>
-      <c r="K45" s="84"/>
+        <v>101222.46</v>
+      </c>
+      <c r="I45" s="228" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J45" s="229">
+        <v>13285</v>
+      </c>
+      <c r="K45" s="230">
+        <v>2107</v>
+      </c>
       <c r="L45" s="238"/>
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="538" t="s">
-        <v>877</v>
-      </c>
-      <c r="C46" s="539" t="s">
-        <v>878</v>
-      </c>
-      <c r="D46" s="515">
-        <v>11664</v>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="235" t="s">
+        <v>994</v>
+      </c>
+      <c r="C46" s="461" t="s">
+        <v>995</v>
+      </c>
+      <c r="D46" s="237">
+        <v>22549.200000000001</v>
       </c>
       <c r="E46" s="238"/>
       <c r="F46" s="84"/>
       <c r="G46" s="101">
         <f t="shared" si="0"/>
-        <v>11664</v>
-      </c>
-      <c r="I46" s="239"/>
-      <c r="J46" s="240"/>
-      <c r="K46" s="84"/>
+        <v>22549.200000000001</v>
+      </c>
+      <c r="I46" s="406"/>
+      <c r="J46" s="546"/>
+      <c r="K46" s="101"/>
       <c r="L46" s="238"/>
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="538" t="s">
-        <v>879</v>
-      </c>
-      <c r="C47" s="539" t="s">
-        <v>880</v>
-      </c>
-      <c r="D47" s="515">
-        <v>13245.9</v>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="235" t="s">
+        <v>996</v>
+      </c>
+      <c r="C47" s="461" t="s">
+        <v>997</v>
+      </c>
+      <c r="D47" s="237">
+        <v>22185.9</v>
       </c>
       <c r="E47" s="238"/>
       <c r="F47" s="84"/>
       <c r="G47" s="101">
         <f t="shared" si="0"/>
-        <v>13245.9</v>
+        <v>22185.9</v>
       </c>
       <c r="I47" s="239"/>
-      <c r="J47" s="240"/>
-      <c r="K47" s="84"/>
+      <c r="J47" s="546"/>
+      <c r="K47" s="101"/>
       <c r="L47" s="238"/>
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="239"/>
-      <c r="C48" s="248"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="238"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="235" t="s">
+        <v>998</v>
+      </c>
+      <c r="C48" s="461" t="s">
+        <v>999</v>
+      </c>
+      <c r="D48" s="237">
+        <v>83481</v>
+      </c>
+      <c r="E48" s="250"/>
       <c r="F48" s="84"/>
       <c r="G48" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="239"/>
-      <c r="J48" s="240"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="238"/>
-      <c r="M48" s="84"/>
+        <v>83481</v>
+      </c>
+      <c r="I48" s="251"/>
+      <c r="J48" s="547"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="177"/>
+      <c r="M48" s="44"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="239"/>
-      <c r="C49" s="249"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="238"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="235" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="461" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D49" s="237">
+        <v>11880</v>
+      </c>
+      <c r="E49" s="250"/>
       <c r="F49" s="84"/>
       <c r="G49" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="239"/>
-      <c r="J49" s="240"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="238"/>
-      <c r="M49" s="84"/>
+        <v>11880</v>
+      </c>
+      <c r="I49" s="612" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="613"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="177"/>
+      <c r="M49" s="44"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="239"/>
-      <c r="C50" s="240"/>
-      <c r="D50" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="235" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C50" s="461" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D50" s="237">
+        <v>0</v>
+      </c>
       <c r="E50" s="250"/>
       <c r="F50" s="84"/>
       <c r="G50" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="251"/>
-      <c r="J50" s="252"/>
-      <c r="K50" s="44"/>
+      <c r="I50" s="614"/>
+      <c r="J50" s="615"/>
+      <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="239"/>
-      <c r="C51" s="240"/>
-      <c r="D51" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="235" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="461" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D51" s="237">
+        <v>0</v>
+      </c>
       <c r="E51" s="250"/>
       <c r="F51" s="84"/>
       <c r="G51" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="251"/>
-      <c r="J51" s="252"/>
-      <c r="K51" s="44"/>
+      <c r="I51" s="616"/>
+      <c r="J51" s="617"/>
+      <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="239"/>
-      <c r="C52" s="240"/>
-      <c r="D52" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="235" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C52" s="461" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D52" s="237">
+        <v>2850</v>
+      </c>
       <c r="E52" s="250"/>
       <c r="F52" s="84"/>
       <c r="G52" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="I52" s="251"/>
-      <c r="J52" s="252"/>
-      <c r="K52" s="44"/>
+      <c r="J52" s="547"/>
+      <c r="K52" s="108"/>
       <c r="L52" s="177"/>
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="239"/>
-      <c r="C53" s="240"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="250"/>
-      <c r="F53" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="235" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C53" s="461" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D53" s="237">
+        <v>14514.2</v>
+      </c>
+      <c r="E53" s="177"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14514.2</v>
       </c>
       <c r="I53" s="251"/>
-      <c r="J53" s="252"/>
-      <c r="K53" s="44"/>
+      <c r="J53" s="547"/>
+      <c r="K53" s="108"/>
       <c r="L53" s="177"/>
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="239"/>
-      <c r="C54" s="240"/>
-      <c r="D54" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="235" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C54" s="461" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D54" s="237">
+        <v>4540</v>
+      </c>
       <c r="E54" s="250"/>
       <c r="F54" s="84"/>
       <c r="G54" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="251"/>
-      <c r="J54" s="252"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="177"/>
-      <c r="M54" s="44"/>
+        <v>4540</v>
+      </c>
+      <c r="I54" s="239"/>
+      <c r="J54" s="546"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="250"/>
+      <c r="M54" s="84"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="251"/>
-      <c r="C55" s="252"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="44"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="235" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C55" s="461" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D55" s="237">
+        <v>7697.63</v>
+      </c>
+      <c r="E55" s="250"/>
+      <c r="F55" s="84"/>
       <c r="G55" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="251"/>
-      <c r="J55" s="252"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="177"/>
-      <c r="M55" s="44"/>
+        <v>7697.63</v>
+      </c>
+      <c r="I55" s="239"/>
+      <c r="J55" s="546"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="250"/>
+      <c r="M55" s="84"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="239"/>
-      <c r="C56" s="240"/>
-      <c r="D56" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="235" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C56" s="461" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D56" s="237">
+        <v>138440.76</v>
+      </c>
       <c r="E56" s="250"/>
       <c r="F56" s="84"/>
       <c r="G56" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138440.76</v>
       </c>
       <c r="I56" s="239"/>
-      <c r="J56" s="240"/>
-      <c r="K56" s="84"/>
+      <c r="J56" s="546"/>
+      <c r="K56" s="101"/>
       <c r="L56" s="250"/>
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="239"/>
-      <c r="C57" s="240"/>
-      <c r="D57" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="235" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C57" s="461" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D57" s="237">
+        <v>0</v>
+      </c>
       <c r="E57" s="250"/>
       <c r="F57" s="84"/>
       <c r="G57" s="101">
@@ -30266,59 +31792,77 @@
         <v>0</v>
       </c>
       <c r="I57" s="239"/>
-      <c r="J57" s="240"/>
-      <c r="K57" s="84"/>
+      <c r="J57" s="546"/>
+      <c r="K57" s="101"/>
       <c r="L57" s="250"/>
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="239"/>
-      <c r="C58" s="240"/>
-      <c r="D58" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="235" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C58" s="461" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D58" s="237">
+        <v>2442</v>
+      </c>
       <c r="E58" s="250"/>
       <c r="F58" s="84"/>
       <c r="G58" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2442</v>
       </c>
       <c r="I58" s="239"/>
-      <c r="J58" s="240"/>
-      <c r="K58" s="84"/>
+      <c r="J58" s="546"/>
+      <c r="K58" s="101"/>
       <c r="L58" s="250"/>
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="239"/>
-      <c r="C59" s="240"/>
-      <c r="D59" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="235" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C59" s="461" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D59" s="237">
+        <v>2960.6</v>
+      </c>
       <c r="E59" s="250"/>
       <c r="F59" s="84"/>
       <c r="G59" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2960.6</v>
       </c>
       <c r="I59" s="239"/>
-      <c r="J59" s="240"/>
-      <c r="K59" s="84"/>
+      <c r="J59" s="546"/>
+      <c r="K59" s="101"/>
       <c r="L59" s="250"/>
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="239"/>
-      <c r="C60" s="240"/>
-      <c r="D60" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="235" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C60" s="461" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D60" s="237">
+        <v>0</v>
+      </c>
       <c r="E60" s="250"/>
       <c r="F60" s="84"/>
       <c r="G60" s="101">
@@ -30326,254 +31870,299 @@
         <v>0</v>
       </c>
       <c r="I60" s="239"/>
-      <c r="J60" s="240"/>
-      <c r="K60" s="84"/>
+      <c r="J60" s="546"/>
+      <c r="K60" s="101"/>
       <c r="L60" s="250"/>
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="239"/>
-      <c r="C61" s="240"/>
-      <c r="D61" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="235" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C61" s="461" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D61" s="237">
+        <v>79545.600000000006</v>
+      </c>
       <c r="E61" s="250"/>
       <c r="F61" s="84"/>
       <c r="G61" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79545.600000000006</v>
       </c>
       <c r="I61" s="239"/>
-      <c r="J61" s="240"/>
-      <c r="K61" s="84"/>
+      <c r="J61" s="546"/>
+      <c r="K61" s="101"/>
       <c r="L61" s="250"/>
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="239"/>
-      <c r="C62" s="240"/>
-      <c r="D62" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="235" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C62" s="461" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D62" s="237">
+        <v>1835.2</v>
+      </c>
       <c r="E62" s="250"/>
       <c r="F62" s="84"/>
       <c r="G62" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1835.2</v>
       </c>
       <c r="I62" s="239"/>
-      <c r="J62" s="240"/>
-      <c r="K62" s="84"/>
+      <c r="J62" s="546"/>
+      <c r="K62" s="101"/>
       <c r="L62" s="250"/>
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="239"/>
-      <c r="C63" s="240"/>
-      <c r="D63" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="235" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C63" s="461" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D63" s="237">
+        <v>1813</v>
+      </c>
       <c r="E63" s="250"/>
       <c r="F63" s="84"/>
       <c r="G63" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="I63" s="239"/>
-      <c r="J63" s="240"/>
-      <c r="K63" s="84"/>
+      <c r="J63" s="546"/>
+      <c r="K63" s="101"/>
       <c r="L63" s="250"/>
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="239"/>
-      <c r="C64" s="240"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="250"/>
-      <c r="F64" s="84"/>
+        <v>226585.60000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="235" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C64" s="461" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D64" s="237">
+        <v>25349.7</v>
+      </c>
+      <c r="E64" s="255"/>
+      <c r="F64" s="256"/>
       <c r="G64" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="239"/>
-      <c r="J64" s="240"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="250"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="227">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="239"/>
-      <c r="C65" s="240"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="250"/>
-      <c r="F65" s="84"/>
+        <v>25349.7</v>
+      </c>
+      <c r="I64" s="253"/>
+      <c r="J64" s="548"/>
+      <c r="K64" s="556">
+        <v>0</v>
+      </c>
+      <c r="L64" s="255"/>
+      <c r="M64" s="256"/>
+      <c r="N64" s="227"/>
+    </row>
+    <row r="65" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="235" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C65" s="461" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D65" s="237">
+        <v>0</v>
+      </c>
       <c r="G65" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="239"/>
-      <c r="J65" s="240"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="250"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="227">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="253"/>
-      <c r="C66" s="254"/>
-      <c r="D66" s="44">
-        <v>0</v>
-      </c>
-      <c r="E66" s="255"/>
-      <c r="F66" s="256"/>
-      <c r="G66" s="227">
-        <v>0</v>
-      </c>
-      <c r="I66" s="253"/>
-      <c r="J66" s="257"/>
-      <c r="K66" s="256">
-        <v>0</v>
-      </c>
-      <c r="L66" s="255"/>
-      <c r="M66" s="256"/>
-      <c r="N66" s="227"/>
-    </row>
-    <row r="67" spans="2:14" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="259"/>
-      <c r="D67" s="260">
-        <f>SUM(D3:D66)</f>
-        <v>917631.77</v>
-      </c>
-      <c r="E67" s="261"/>
-      <c r="F67" s="262">
-        <f>SUM(F3:F66)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="263">
-        <f>SUM(G3:G66)</f>
-        <v>917631.77</v>
-      </c>
-      <c r="I67" s="591" t="s">
+      <c r="I65" s="618" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="592"/>
-      <c r="K67" s="264">
-        <f>SUM(K3:K66)</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="265"/>
-      <c r="M67" s="266">
-        <f>SUM(M3:M66)</f>
-        <v>0</v>
-      </c>
-      <c r="N67" s="263">
-        <f>N66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="267"/>
-      <c r="D68" s="480" t="s">
-        <v>617</v>
-      </c>
-      <c r="E68" s="269"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="595" t="s">
+      <c r="J65" s="619"/>
+      <c r="K65" s="562">
+        <f>SUM(K3:K64)</f>
+        <v>226585.60000000003</v>
+      </c>
+      <c r="L65" s="265"/>
+      <c r="M65" s="266">
+        <f>SUM(M3:M64)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="263">
+        <f>N64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="235" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C66" s="461" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D66" s="237">
+        <v>0</v>
+      </c>
+      <c r="G66" s="101">
+        <f t="shared" ref="G66:G68" si="2">D66-F66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="627"/>
+      <c r="J66" s="628"/>
+      <c r="K66" s="150"/>
+      <c r="L66" s="269"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="565">
+        <v>45170</v>
+      </c>
+      <c r="C67" s="564" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D67" s="150">
+        <v>6732.16</v>
+      </c>
+      <c r="G67" s="101">
+        <f t="shared" si="2"/>
+        <v>6732.16</v>
+      </c>
+      <c r="I67" s="293"/>
+      <c r="J67" s="549"/>
+      <c r="K67" s="557"/>
+      <c r="L67" s="296"/>
+      <c r="M67" s="187"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="566">
+        <v>45171</v>
+      </c>
+      <c r="C68" s="563" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D68" s="108">
+        <v>11182.4</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" s="101">
+        <f t="shared" si="2"/>
+        <v>11182.4</v>
+      </c>
+      <c r="I68" s="300"/>
+      <c r="J68" s="550"/>
+      <c r="K68" s="558"/>
+      <c r="L68" s="302"/>
+      <c r="M68" s="299"/>
+    </row>
+    <row r="69" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B69" s="272"/>
+      <c r="C69" s="259"/>
+      <c r="D69" s="260">
+        <f>SUM(D7:D68)</f>
+        <v>1249902.3099999998</v>
+      </c>
+      <c r="E69" s="261"/>
+      <c r="F69" s="262">
+        <f>SUM(F7:F68)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="263">
+        <f>SUM(G7:G68)</f>
+        <v>1249902.3099999998</v>
+      </c>
+      <c r="H69" s="233"/>
+      <c r="I69" s="300"/>
+      <c r="J69" s="550"/>
+      <c r="K69" s="558"/>
+      <c r="L69" s="302"/>
+      <c r="M69" s="299"/>
+    </row>
+    <row r="70" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="267"/>
+      <c r="D70" s="480"/>
+      <c r="E70" s="269"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="622" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="600"/>
-      <c r="J68" s="601"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="269"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C69" s="270"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="269"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="596"/>
-      <c r="I69" s="293"/>
-      <c r="J69" s="294"/>
-      <c r="K69" s="295"/>
-      <c r="L69" s="296"/>
-      <c r="M69" s="187"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="272"/>
-      <c r="C70" s="273"/>
-      <c r="D70" s="108"/>
-      <c r="F70"/>
-      <c r="I70" s="300"/>
-      <c r="J70" s="301"/>
-      <c r="K70" s="189"/>
-      <c r="L70" s="302"/>
+      <c r="H70" s="233"/>
+      <c r="I70" s="303"/>
+      <c r="J70" s="551"/>
+      <c r="K70" s="558"/>
+      <c r="L70" s="304"/>
       <c r="M70" s="299"/>
-    </row>
-    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="272"/>
-      <c r="C71" s="273"/>
-      <c r="D71" s="108"/>
-      <c r="F71"/>
+      <c r="N70"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="270"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="269"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="623"/>
       <c r="H71" s="233"/>
-      <c r="I71" s="300"/>
-      <c r="J71" s="301"/>
-      <c r="K71" s="189"/>
-      <c r="L71" s="302"/>
+      <c r="I71" s="303"/>
+      <c r="J71" s="552"/>
+      <c r="K71" s="558"/>
+      <c r="L71" s="304"/>
       <c r="M71" s="299"/>
-    </row>
-    <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N71"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C72" s="275"/>
+      <c r="D72" s="189"/>
       <c r="E72" s="276"/>
       <c r="F72"/>
       <c r="H72" s="233"/>
-      <c r="I72" s="303"/>
-      <c r="J72" s="191"/>
-      <c r="K72" s="304"/>
+      <c r="I72" s="191"/>
+      <c r="J72" s="552"/>
+      <c r="K72" s="108"/>
       <c r="L72" s="304"/>
       <c r="M72" s="299"/>
       <c r="N72"/>
     </row>
-    <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C73" s="275"/>
+      <c r="D73" s="108"/>
       <c r="E73" s="276"/>
-      <c r="F73"/>
       <c r="H73" s="233"/>
-      <c r="I73" s="303"/>
-      <c r="J73" s="492"/>
-      <c r="K73" s="304"/>
+      <c r="I73" s="191"/>
+      <c r="J73" s="551"/>
+      <c r="K73" s="108"/>
       <c r="L73" s="304"/>
       <c r="M73" s="299"/>
       <c r="N73"/>
     </row>
-    <row r="74" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C74" s="275"/>
-      <c r="D74" s="189"/>
+      <c r="D74" s="108"/>
       <c r="E74" s="276"/>
-      <c r="F74"/>
       <c r="H74" s="233"/>
-      <c r="I74" s="191"/>
-      <c r="J74" s="492"/>
-      <c r="K74" s="415"/>
+      <c r="I74" s="188"/>
+      <c r="J74" s="551"/>
+      <c r="K74" s="108"/>
       <c r="L74" s="304"/>
       <c r="M74" s="299"/>
       <c r="N74"/>
@@ -30582,227 +32171,223 @@
       <c r="C75" s="275"/>
       <c r="D75" s="108"/>
       <c r="E75" s="276"/>
-      <c r="H75" s="233"/>
-      <c r="I75" s="191"/>
-      <c r="J75" s="188"/>
-      <c r="K75" s="415"/>
-      <c r="L75" s="304"/>
+      <c r="I75" s="188"/>
+      <c r="J75" s="551"/>
+      <c r="K75" s="108"/>
+      <c r="L75" s="493"/>
       <c r="M75" s="299"/>
       <c r="N75"/>
     </row>
-    <row r="76" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C76" s="275"/>
       <c r="D76" s="108"/>
       <c r="E76" s="276"/>
-      <c r="H76" s="233"/>
       <c r="I76" s="188"/>
-      <c r="J76" s="188"/>
-      <c r="K76" s="415"/>
-      <c r="L76" s="304"/>
+      <c r="J76" s="551"/>
+      <c r="K76" s="108"/>
+      <c r="L76" s="302"/>
       <c r="M76" s="299"/>
       <c r="N76"/>
     </row>
-    <row r="77" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C77" s="275"/>
       <c r="D77" s="108"/>
       <c r="E77" s="276"/>
       <c r="I77" s="188"/>
-      <c r="J77" s="188"/>
-      <c r="K77" s="415"/>
-      <c r="L77" s="493"/>
+      <c r="J77" s="551"/>
+      <c r="K77" s="108"/>
+      <c r="L77" s="302"/>
       <c r="M77" s="299"/>
       <c r="N77"/>
     </row>
-    <row r="78" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C78" s="275"/>
       <c r="D78" s="108"/>
       <c r="E78" s="276"/>
       <c r="I78" s="188"/>
-      <c r="J78" s="188"/>
-      <c r="K78" s="415"/>
+      <c r="J78" s="551"/>
+      <c r="K78" s="559"/>
       <c r="L78" s="302"/>
-      <c r="M78" s="299"/>
+      <c r="M78"/>
       <c r="N78"/>
     </row>
-    <row r="79" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C79" s="275"/>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C79" s="271"/>
       <c r="D79" s="108"/>
       <c r="E79" s="276"/>
-      <c r="I79" s="188"/>
-      <c r="J79" s="188"/>
-      <c r="K79" s="415"/>
-      <c r="L79" s="302"/>
-      <c r="M79" s="299"/>
+      <c r="I79"/>
+      <c r="J79" s="553"/>
+      <c r="K79" s="560"/>
+      <c r="M79"/>
       <c r="N79"/>
     </row>
-    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C80" s="275"/>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C80" s="271"/>
       <c r="D80" s="108"/>
       <c r="E80" s="276"/>
-      <c r="I80" s="188"/>
-      <c r="J80" s="188"/>
-      <c r="K80" s="188"/>
-      <c r="L80" s="302"/>
+      <c r="I80"/>
+      <c r="J80" s="553"/>
+      <c r="K80" s="560"/>
       <c r="M80"/>
       <c r="N80"/>
     </row>
-    <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C81" s="271"/>
       <c r="D81" s="108"/>
       <c r="E81" s="276"/>
       <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
+      <c r="J81" s="553"/>
+      <c r="K81" s="560"/>
       <c r="M81"/>
       <c r="N81"/>
     </row>
-    <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C82" s="271"/>
       <c r="D82" s="108"/>
       <c r="E82" s="276"/>
       <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
+      <c r="J82" s="553"/>
+      <c r="K82" s="560"/>
       <c r="M82"/>
       <c r="N82"/>
     </row>
-    <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C83" s="271"/>
       <c r="D83" s="108"/>
       <c r="E83" s="276"/>
       <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
+      <c r="J83" s="553"/>
+      <c r="K83" s="560"/>
       <c r="M83"/>
       <c r="N83"/>
     </row>
-    <row r="84" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C84" s="271"/>
       <c r="D84" s="108"/>
       <c r="E84" s="276"/>
       <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
+      <c r="J84" s="553"/>
+      <c r="K84" s="560"/>
       <c r="M84"/>
       <c r="N84"/>
     </row>
-    <row r="85" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C85" s="271"/>
       <c r="D85" s="108"/>
       <c r="E85" s="276"/>
       <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
+      <c r="J85" s="553"/>
+      <c r="K85" s="560"/>
       <c r="M85"/>
       <c r="N85"/>
     </row>
-    <row r="86" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C86" s="271"/>
       <c r="D86" s="108"/>
       <c r="E86" s="276"/>
       <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
+      <c r="J86" s="553"/>
+      <c r="K86" s="560"/>
       <c r="M86"/>
       <c r="N86"/>
     </row>
-    <row r="87" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C87" s="271"/>
       <c r="D87" s="108"/>
       <c r="E87" s="276"/>
       <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
+      <c r="J87" s="553"/>
+      <c r="K87" s="560"/>
       <c r="M87"/>
       <c r="N87"/>
     </row>
-    <row r="88" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C88" s="271"/>
       <c r="D88" s="108"/>
       <c r="E88" s="276"/>
       <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
+      <c r="J88" s="553"/>
+      <c r="K88" s="560"/>
       <c r="M88"/>
       <c r="N88"/>
     </row>
-    <row r="89" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C89" s="271"/>
       <c r="D89" s="108"/>
       <c r="E89" s="276"/>
       <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
+      <c r="J89" s="553"/>
+      <c r="K89" s="560"/>
       <c r="M89"/>
       <c r="N89"/>
     </row>
-    <row r="90" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C90" s="271"/>
       <c r="D90" s="108"/>
       <c r="E90" s="276"/>
       <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
+      <c r="J90" s="553"/>
+      <c r="K90" s="560"/>
       <c r="M90"/>
       <c r="N90"/>
     </row>
-    <row r="91" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C91" s="271"/>
       <c r="D91" s="108"/>
       <c r="E91" s="276"/>
       <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
+      <c r="J91" s="553"/>
+      <c r="K91" s="560"/>
       <c r="M91"/>
       <c r="N91"/>
     </row>
-    <row r="92" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C92" s="271"/>
       <c r="D92" s="108"/>
       <c r="E92" s="276"/>
       <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
+      <c r="J92" s="553"/>
+      <c r="K92" s="560"/>
       <c r="M92"/>
       <c r="N92"/>
     </row>
-    <row r="93" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C93" s="271"/>
       <c r="D93" s="108"/>
       <c r="E93" s="276"/>
       <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
+      <c r="J93" s="553"/>
+      <c r="K93" s="560"/>
       <c r="M93"/>
       <c r="N93"/>
     </row>
-    <row r="94" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C94" s="271"/>
       <c r="D94" s="108"/>
       <c r="E94" s="276"/>
       <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
+      <c r="J94" s="553"/>
+      <c r="K94" s="560"/>
       <c r="M94"/>
       <c r="N94"/>
     </row>
-    <row r="95" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C95" s="271"/>
-      <c r="D95" s="108"/>
+      <c r="D95" s="189"/>
       <c r="E95" s="276"/>
       <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
+      <c r="J95" s="553"/>
+      <c r="K95" s="560"/>
       <c r="M95"/>
       <c r="N95"/>
     </row>
-    <row r="96" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C96" s="271"/>
-      <c r="D96" s="108"/>
+      <c r="D96" s="189"/>
       <c r="E96" s="276"/>
       <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
+      <c r="J96" s="553"/>
+      <c r="K96" s="560"/>
       <c r="M96"/>
       <c r="N96"/>
     </row>
@@ -30811,8 +32396,8 @@
       <c r="D97" s="189"/>
       <c r="E97" s="276"/>
       <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
+      <c r="J97" s="553"/>
+      <c r="K97" s="560"/>
       <c r="M97"/>
       <c r="N97"/>
     </row>
@@ -30821,8 +32406,8 @@
       <c r="D98" s="189"/>
       <c r="E98" s="276"/>
       <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
+      <c r="J98" s="553"/>
+      <c r="K98" s="560"/>
       <c r="M98"/>
       <c r="N98"/>
     </row>
@@ -30831,28 +32416,26 @@
       <c r="D99" s="189"/>
       <c r="E99" s="276"/>
       <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
+      <c r="J99" s="553"/>
+      <c r="K99" s="560"/>
       <c r="M99"/>
       <c r="N99"/>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C100" s="271"/>
-      <c r="D100" s="189"/>
       <c r="E100" s="276"/>
       <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
+      <c r="J100" s="553"/>
+      <c r="K100" s="560"/>
       <c r="M100"/>
       <c r="N100"/>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C101" s="271"/>
-      <c r="D101" s="189"/>
       <c r="E101" s="276"/>
       <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
+      <c r="J101" s="553"/>
+      <c r="K101" s="560"/>
       <c r="M101"/>
       <c r="N101"/>
     </row>
@@ -30860,8 +32443,8 @@
       <c r="C102" s="271"/>
       <c r="E102" s="276"/>
       <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
+      <c r="J102" s="553"/>
+      <c r="K102" s="560"/>
       <c r="M102"/>
       <c r="N102"/>
     </row>
@@ -30869,8 +32452,8 @@
       <c r="C103" s="271"/>
       <c r="E103" s="276"/>
       <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
+      <c r="J103" s="553"/>
+      <c r="K103" s="560"/>
       <c r="M103"/>
       <c r="N103"/>
     </row>
@@ -30878,8 +32461,8 @@
       <c r="C104" s="271"/>
       <c r="E104" s="276"/>
       <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
+      <c r="J104" s="553"/>
+      <c r="K104" s="560"/>
       <c r="M104"/>
       <c r="N104"/>
     </row>
@@ -30887,8 +32470,8 @@
       <c r="C105" s="271"/>
       <c r="E105" s="276"/>
       <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
+      <c r="J105" s="553"/>
+      <c r="K105" s="560"/>
       <c r="M105"/>
       <c r="N105"/>
     </row>
@@ -30896,8 +32479,8 @@
       <c r="C106" s="271"/>
       <c r="E106" s="276"/>
       <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
+      <c r="J106" s="553"/>
+      <c r="K106" s="560"/>
       <c r="M106"/>
       <c r="N106"/>
     </row>
@@ -30905,8 +32488,8 @@
       <c r="C107" s="271"/>
       <c r="E107" s="276"/>
       <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
+      <c r="J107" s="553"/>
+      <c r="K107" s="560"/>
       <c r="M107"/>
       <c r="N107"/>
     </row>
@@ -30914,8 +32497,8 @@
       <c r="C108" s="271"/>
       <c r="E108" s="276"/>
       <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
+      <c r="J108" s="553"/>
+      <c r="K108" s="560"/>
       <c r="M108"/>
       <c r="N108"/>
     </row>
@@ -30923,8 +32506,8 @@
       <c r="C109" s="271"/>
       <c r="E109" s="276"/>
       <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
+      <c r="J109" s="553"/>
+      <c r="K109" s="560"/>
       <c r="M109"/>
       <c r="N109"/>
     </row>
@@ -30932,8 +32515,8 @@
       <c r="C110" s="271"/>
       <c r="E110" s="276"/>
       <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
+      <c r="J110" s="553"/>
+      <c r="K110" s="560"/>
       <c r="M110"/>
       <c r="N110"/>
     </row>
@@ -30941,8 +32524,8 @@
       <c r="C111" s="271"/>
       <c r="E111" s="276"/>
       <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
+      <c r="J111" s="553"/>
+      <c r="K111" s="560"/>
       <c r="M111"/>
       <c r="N111"/>
     </row>
@@ -30950,8 +32533,8 @@
       <c r="C112" s="271"/>
       <c r="E112" s="276"/>
       <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
+      <c r="J112" s="553"/>
+      <c r="K112" s="560"/>
       <c r="M112"/>
       <c r="N112"/>
     </row>
@@ -30959,8 +32542,8 @@
       <c r="C113" s="271"/>
       <c r="E113" s="276"/>
       <c r="I113"/>
-      <c r="J113"/>
-      <c r="K113"/>
+      <c r="J113" s="553"/>
+      <c r="K113" s="560"/>
       <c r="M113"/>
       <c r="N113"/>
     </row>
@@ -30968,8 +32551,8 @@
       <c r="C114" s="271"/>
       <c r="E114" s="276"/>
       <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
+      <c r="J114" s="553"/>
+      <c r="K114" s="560"/>
       <c r="M114"/>
       <c r="N114"/>
     </row>
@@ -30977,8 +32560,8 @@
       <c r="C115" s="271"/>
       <c r="E115" s="276"/>
       <c r="I115"/>
-      <c r="J115"/>
-      <c r="K115"/>
+      <c r="J115" s="553"/>
+      <c r="K115" s="560"/>
       <c r="M115"/>
       <c r="N115"/>
     </row>
@@ -30986,8 +32569,8 @@
       <c r="C116" s="271"/>
       <c r="E116" s="276"/>
       <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
+      <c r="J116" s="553"/>
+      <c r="K116" s="560"/>
       <c r="M116"/>
       <c r="N116"/>
     </row>
@@ -30995,8 +32578,8 @@
       <c r="C117" s="271"/>
       <c r="E117" s="276"/>
       <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
+      <c r="J117" s="553"/>
+      <c r="K117" s="560"/>
       <c r="M117"/>
       <c r="N117"/>
     </row>
@@ -31004,8 +32587,8 @@
       <c r="C118" s="271"/>
       <c r="E118" s="276"/>
       <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
+      <c r="J118" s="553"/>
+      <c r="K118" s="560"/>
       <c r="M118"/>
       <c r="N118"/>
     </row>
@@ -31013,8 +32596,8 @@
       <c r="C119" s="271"/>
       <c r="E119" s="276"/>
       <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
+      <c r="J119" s="553"/>
+      <c r="K119" s="560"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
@@ -31022,8 +32605,8 @@
       <c r="C120" s="271"/>
       <c r="E120" s="276"/>
       <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
+      <c r="J120" s="553"/>
+      <c r="K120" s="560"/>
       <c r="M120"/>
       <c r="N120"/>
     </row>
@@ -31031,34 +32614,16 @@
       <c r="C121" s="271"/>
       <c r="E121" s="276"/>
       <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
+      <c r="J121" s="553"/>
+      <c r="K121" s="560"/>
       <c r="M121"/>
       <c r="N121"/>
     </row>
-    <row r="122" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C122" s="271"/>
-      <c r="E122" s="276"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="M122"/>
-      <c r="N122"/>
-    </row>
-    <row r="123" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C123" s="271"/>
-      <c r="E123" s="276"/>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="M123"/>
-      <c r="N123"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I37:J39"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="I65:J66"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="I49:J51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32444,10 +34009,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="582"/>
-      <c r="J36" s="583"/>
-      <c r="K36" s="583"/>
-      <c r="L36" s="584"/>
+      <c r="I36" s="609"/>
+      <c r="J36" s="610"/>
+      <c r="K36" s="610"/>
+      <c r="L36" s="611"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -32474,10 +34039,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="582"/>
-      <c r="J37" s="583"/>
-      <c r="K37" s="583"/>
-      <c r="L37" s="584"/>
+      <c r="I37" s="609"/>
+      <c r="J37" s="610"/>
+      <c r="K37" s="610"/>
+      <c r="L37" s="611"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -32534,10 +34099,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="585" t="s">
+      <c r="I40" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="586"/>
+      <c r="J40" s="613"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -32556,8 +34121,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="587"/>
-      <c r="J41" s="588"/>
+      <c r="I41" s="614"/>
+      <c r="J41" s="615"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -32576,8 +34141,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="589"/>
-      <c r="J42" s="590"/>
+      <c r="I42" s="616"/>
+      <c r="J42" s="617"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -33081,10 +34646,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="591" t="s">
+      <c r="I67" s="618" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="592"/>
+      <c r="J67" s="619"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -33104,11 +34669,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="595" t="s">
+      <c r="G68" s="622" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="593"/>
-      <c r="J68" s="594"/>
+      <c r="I68" s="620"/>
+      <c r="J68" s="621"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -33119,7 +34684,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="596"/>
+      <c r="G69" s="623"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -33750,23 +35315,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="550"/>
-      <c r="C1" s="552" t="s">
+      <c r="B1" s="577"/>
+      <c r="C1" s="579" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="553"/>
-      <c r="L1" s="553"/>
-      <c r="M1" s="553"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="580"/>
+      <c r="F1" s="580"/>
+      <c r="G1" s="580"/>
+      <c r="H1" s="580"/>
+      <c r="I1" s="580"/>
+      <c r="J1" s="580"/>
+      <c r="K1" s="580"/>
+      <c r="L1" s="580"/>
+      <c r="M1" s="580"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="551"/>
+      <c r="B2" s="578"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33776,24 +35341,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="555"/>
+      <c r="B3" s="581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="582"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="556" t="s">
+      <c r="H3" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="556"/>
+      <c r="I3" s="583"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="548" t="s">
+      <c r="P3" s="575" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="557" t="s">
+      <c r="R3" s="584" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33808,14 +35373,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="560"/>
-      <c r="H4" s="561" t="s">
+      <c r="F4" s="587"/>
+      <c r="H4" s="588" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="562"/>
+      <c r="I4" s="589"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33825,11 +35390,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="549"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="558"/>
+      <c r="R4" s="585"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35805,11 +37370,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="568">
+      <c r="M49" s="595">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="568">
+      <c r="N49" s="595">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -35817,7 +37382,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="580">
+      <c r="Q49" s="607">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -35850,10 +37415,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="569"/>
-      <c r="N50" s="569"/>
+      <c r="M50" s="596"/>
+      <c r="N50" s="596"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="581"/>
+      <c r="Q50" s="608"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -35944,11 +37509,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="546">
+      <c r="M53" s="573">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="547"/>
+      <c r="N53" s="574"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36507,26 +38072,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="576" t="s">
+      <c r="H77" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="577"/>
+      <c r="I77" s="604"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="578">
+      <c r="K77" s="605">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="579"/>
+      <c r="L77" s="606"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="570" t="s">
+      <c r="D78" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="570"/>
+      <c r="E78" s="597"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -36535,22 +38100,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="571" t="s">
+      <c r="D79" s="598" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="571"/>
+      <c r="E79" s="598"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="572" t="s">
+      <c r="I79" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="573"/>
-      <c r="K79" s="574">
+      <c r="J79" s="600"/>
+      <c r="K79" s="601">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="574"/>
+      <c r="L79" s="601"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -36591,11 +38156,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="575">
+      <c r="K81" s="602">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="574"/>
+      <c r="L81" s="601"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -36612,22 +38177,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="563" t="s">
+      <c r="D83" s="590" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="564"/>
+      <c r="E83" s="591"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="597" t="s">
+      <c r="I83" s="624" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="598"/>
-      <c r="K83" s="599">
+      <c r="J83" s="625"/>
+      <c r="K83" s="626">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="599"/>
+      <c r="L83" s="626"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -38207,10 +39772,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="582"/>
-      <c r="J36" s="583"/>
-      <c r="K36" s="583"/>
-      <c r="L36" s="584"/>
+      <c r="I36" s="609"/>
+      <c r="J36" s="610"/>
+      <c r="K36" s="610"/>
+      <c r="L36" s="611"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -38237,10 +39802,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="582"/>
-      <c r="J37" s="583"/>
-      <c r="K37" s="583"/>
-      <c r="L37" s="584"/>
+      <c r="I37" s="609"/>
+      <c r="J37" s="610"/>
+      <c r="K37" s="610"/>
+      <c r="L37" s="611"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -38307,10 +39872,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="585" t="s">
+      <c r="I40" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="586"/>
+      <c r="J40" s="613"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -38329,8 +39894,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="587"/>
-      <c r="J41" s="588"/>
+      <c r="I41" s="614"/>
+      <c r="J41" s="615"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -38349,8 +39914,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="589"/>
-      <c r="J42" s="590"/>
+      <c r="I42" s="616"/>
+      <c r="J42" s="617"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -38854,10 +40419,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="591" t="s">
+      <c r="I67" s="618" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="592"/>
+      <c r="J67" s="619"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -38877,11 +40442,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="595" t="s">
+      <c r="G68" s="622" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="600"/>
-      <c r="J68" s="601"/>
+      <c r="I68" s="627"/>
+      <c r="J68" s="628"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -38892,7 +40457,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="596"/>
+      <c r="G69" s="623"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -39507,23 +41072,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="550"/>
-      <c r="C1" s="552" t="s">
+      <c r="B1" s="577"/>
+      <c r="C1" s="579" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="553"/>
-      <c r="L1" s="553"/>
-      <c r="M1" s="553"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="580"/>
+      <c r="F1" s="580"/>
+      <c r="G1" s="580"/>
+      <c r="H1" s="580"/>
+      <c r="I1" s="580"/>
+      <c r="J1" s="580"/>
+      <c r="K1" s="580"/>
+      <c r="L1" s="580"/>
+      <c r="M1" s="580"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="551"/>
+      <c r="B2" s="578"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -39533,24 +41098,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="555"/>
+      <c r="B3" s="581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="582"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="556" t="s">
+      <c r="H3" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="556"/>
+      <c r="I3" s="583"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="548" t="s">
+      <c r="P3" s="575" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="602" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -39565,14 +41130,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="560"/>
-      <c r="H4" s="561" t="s">
+      <c r="F4" s="587"/>
+      <c r="H4" s="588" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="562"/>
+      <c r="I4" s="589"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -39582,11 +41147,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="549"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="603"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -41567,11 +43132,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="568">
+      <c r="M49" s="595">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="568">
+      <c r="N49" s="595">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -41579,7 +43144,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="580">
+      <c r="Q49" s="607">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -41612,10 +43177,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="569"/>
-      <c r="N50" s="569"/>
+      <c r="M50" s="596"/>
+      <c r="N50" s="596"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="581"/>
+      <c r="Q50" s="608"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -41706,11 +43271,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="546">
+      <c r="M53" s="573">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="547"/>
+      <c r="N53" s="574"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -42189,26 +43754,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="576" t="s">
+      <c r="H77" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="577"/>
+      <c r="I77" s="604"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="578">
+      <c r="K77" s="605">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="579"/>
+      <c r="L77" s="606"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="570" t="s">
+      <c r="D78" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="570"/>
+      <c r="E78" s="597"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -42217,22 +43782,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="571" t="s">
+      <c r="D79" s="598" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="571"/>
+      <c r="E79" s="598"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="572" t="s">
+      <c r="I79" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="573"/>
-      <c r="K79" s="574">
+      <c r="J79" s="600"/>
+      <c r="K79" s="601">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="574"/>
+      <c r="L79" s="601"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -42273,11 +43838,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="575">
+      <c r="K81" s="602">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="574"/>
+      <c r="L81" s="601"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -42294,22 +43859,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="563" t="s">
+      <c r="D83" s="590" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="564"/>
+      <c r="E83" s="591"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="565" t="s">
+      <c r="I83" s="592" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="566"/>
-      <c r="K83" s="567">
+      <c r="J83" s="593"/>
+      <c r="K83" s="594">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="567"/>
+      <c r="L83" s="594"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -43780,10 +45345,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="582"/>
-      <c r="J36" s="583"/>
-      <c r="K36" s="583"/>
-      <c r="L36" s="584"/>
+      <c r="I36" s="609"/>
+      <c r="J36" s="610"/>
+      <c r="K36" s="610"/>
+      <c r="L36" s="611"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -43800,10 +45365,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="582"/>
-      <c r="J37" s="583"/>
-      <c r="K37" s="583"/>
-      <c r="L37" s="584"/>
+      <c r="I37" s="609"/>
+      <c r="J37" s="610"/>
+      <c r="K37" s="610"/>
+      <c r="L37" s="611"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -43860,10 +45425,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="585" t="s">
+      <c r="I40" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="586"/>
+      <c r="J40" s="613"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -43882,8 +45447,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="587"/>
-      <c r="J41" s="588"/>
+      <c r="I41" s="614"/>
+      <c r="J41" s="615"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -43902,8 +45467,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="589"/>
-      <c r="J42" s="590"/>
+      <c r="I42" s="616"/>
+      <c r="J42" s="617"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -44407,10 +45972,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="591" t="s">
+      <c r="I67" s="618" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="592"/>
+      <c r="J67" s="619"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -44430,11 +45995,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="595" t="s">
+      <c r="G68" s="622" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="600"/>
-      <c r="J68" s="601"/>
+      <c r="I68" s="627"/>
+      <c r="J68" s="628"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -44445,7 +46010,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="596"/>
+      <c r="G69" s="623"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -45051,23 +46616,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="550"/>
-      <c r="C1" s="552" t="s">
+      <c r="B1" s="577"/>
+      <c r="C1" s="579" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="553"/>
-      <c r="L1" s="553"/>
-      <c r="M1" s="553"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="580"/>
+      <c r="F1" s="580"/>
+      <c r="G1" s="580"/>
+      <c r="H1" s="580"/>
+      <c r="I1" s="580"/>
+      <c r="J1" s="580"/>
+      <c r="K1" s="580"/>
+      <c r="L1" s="580"/>
+      <c r="M1" s="580"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="551"/>
+      <c r="B2" s="578"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -45077,24 +46642,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="555"/>
+      <c r="B3" s="581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="582"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="556" t="s">
+      <c r="H3" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="556"/>
+      <c r="I3" s="583"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="548" t="s">
+      <c r="P3" s="575" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="602" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -45109,14 +46674,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="560"/>
-      <c r="H4" s="561" t="s">
+      <c r="F4" s="587"/>
+      <c r="H4" s="588" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="562"/>
+      <c r="I4" s="589"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -45126,11 +46691,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="549"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="603"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -47151,11 +48716,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="568">
+      <c r="M49" s="595">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="568">
+      <c r="N49" s="595">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -47163,7 +48728,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="580">
+      <c r="Q49" s="607">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -47190,10 +48755,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="569"/>
-      <c r="N50" s="569"/>
+      <c r="M50" s="596"/>
+      <c r="N50" s="596"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="581"/>
+      <c r="Q50" s="608"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -47267,11 +48832,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="546">
+      <c r="M53" s="573">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="547"/>
+      <c r="N53" s="574"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47900,26 +49465,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="576" t="s">
+      <c r="H79" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="577"/>
+      <c r="I79" s="604"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="578">
+      <c r="K79" s="605">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="579"/>
+      <c r="L79" s="606"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="570" t="s">
+      <c r="D80" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="570"/>
+      <c r="E80" s="597"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -47928,22 +49493,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="571" t="s">
+      <c r="D81" s="598" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="571"/>
+      <c r="E81" s="598"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="572" t="s">
+      <c r="I81" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="573"/>
-      <c r="K81" s="574">
+      <c r="J81" s="600"/>
+      <c r="K81" s="601">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="574"/>
+      <c r="L81" s="601"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -47984,11 +49549,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="575">
+      <c r="K83" s="602">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="574"/>
+      <c r="L83" s="601"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -48005,22 +49570,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="563" t="s">
+      <c r="D85" s="590" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="564"/>
+      <c r="E85" s="591"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="565" t="s">
+      <c r="I85" s="592" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="566"/>
-      <c r="K85" s="567">
+      <c r="J85" s="593"/>
+      <c r="K85" s="594">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="567"/>
+      <c r="L85" s="594"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -49509,10 +51074,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="582"/>
-      <c r="J36" s="583"/>
-      <c r="K36" s="583"/>
-      <c r="L36" s="584"/>
+      <c r="I36" s="609"/>
+      <c r="J36" s="610"/>
+      <c r="K36" s="610"/>
+      <c r="L36" s="611"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -49535,10 +51100,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="582"/>
-      <c r="J37" s="583"/>
-      <c r="K37" s="583"/>
-      <c r="L37" s="584"/>
+      <c r="I37" s="609"/>
+      <c r="J37" s="610"/>
+      <c r="K37" s="610"/>
+      <c r="L37" s="611"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -49613,10 +51178,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="585" t="s">
+      <c r="I40" s="612" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="586"/>
+      <c r="J40" s="613"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -49641,8 +51206,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="587"/>
-      <c r="J41" s="588"/>
+      <c r="I41" s="614"/>
+      <c r="J41" s="615"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -49667,8 +51232,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="589"/>
-      <c r="J42" s="590"/>
+      <c r="I42" s="616"/>
+      <c r="J42" s="617"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -50190,10 +51755,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="591" t="s">
+      <c r="I67" s="618" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="592"/>
+      <c r="J67" s="619"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -50213,11 +51778,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="595" t="s">
+      <c r="G68" s="622" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="600"/>
-      <c r="J68" s="601"/>
+      <c r="I68" s="627"/>
+      <c r="J68" s="628"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -50228,7 +51793,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="596"/>
+      <c r="G69" s="623"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -50844,23 +52409,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="550"/>
-      <c r="C1" s="552" t="s">
+      <c r="B1" s="577"/>
+      <c r="C1" s="579" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="553"/>
-      <c r="L1" s="553"/>
-      <c r="M1" s="553"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="580"/>
+      <c r="F1" s="580"/>
+      <c r="G1" s="580"/>
+      <c r="H1" s="580"/>
+      <c r="I1" s="580"/>
+      <c r="J1" s="580"/>
+      <c r="K1" s="580"/>
+      <c r="L1" s="580"/>
+      <c r="M1" s="580"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="551"/>
+      <c r="B2" s="578"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -50870,27 +52435,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="555"/>
+      <c r="B3" s="581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="582"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="556" t="s">
+      <c r="H3" s="583" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="556"/>
+      <c r="I3" s="583"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="548" t="s">
+      <c r="P3" s="575" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="602" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -50905,14 +52470,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="E4" s="586" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="560"/>
-      <c r="H4" s="561" t="s">
+      <c r="F4" s="587"/>
+      <c r="H4" s="588" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="562"/>
+      <c r="I4" s="589"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -50922,11 +52487,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="549"/>
+      <c r="P4" s="576"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="603"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -52929,11 +54494,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="568">
+      <c r="M49" s="595">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="568">
+      <c r="N49" s="595">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -52941,7 +54506,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="580">
+      <c r="Q49" s="607">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -52974,10 +54539,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="569"/>
-      <c r="N50" s="569"/>
+      <c r="M50" s="596"/>
+      <c r="N50" s="596"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="581"/>
+      <c r="Q50" s="608"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -53056,11 +54621,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="546">
+      <c r="M53" s="573">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="547"/>
+      <c r="N53" s="574"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -53539,26 +55104,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="576" t="s">
+      <c r="H77" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="577"/>
+      <c r="I77" s="604"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="578">
+      <c r="K77" s="605">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="579"/>
+      <c r="L77" s="606"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="570" t="s">
+      <c r="D78" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="570"/>
+      <c r="E78" s="597"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -53567,22 +55132,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="571" t="s">
+      <c r="D79" s="598" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="571"/>
+      <c r="E79" s="598"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="572" t="s">
+      <c r="I79" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="573"/>
-      <c r="K79" s="574">
+      <c r="J79" s="600"/>
+      <c r="K79" s="601">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="574"/>
+      <c r="L79" s="601"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -53623,11 +55188,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="575">
+      <c r="K81" s="602">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="574"/>
+      <c r="L81" s="601"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -53644,22 +55209,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="563" t="s">
+      <c r="D83" s="590" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="564"/>
+      <c r="E83" s="591"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="597" t="s">
+      <c r="I83" s="624" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="598"/>
-      <c r="K83" s="599">
+      <c r="J83" s="625"/>
+      <c r="K83" s="626">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="599"/>
+      <c r="L83" s="626"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/BALANCE  ZAVALETA   AGOSTO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1084">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3867,6 +3867,15 @@
   </si>
   <si>
     <t>FLETE ACCSE23-04</t>
+  </si>
+  <si>
+    <t>ADUANA ACCSE23-04</t>
+  </si>
+  <si>
+    <t>ACCSE23-06</t>
+  </si>
+  <si>
+    <t>?????????</t>
   </si>
 </sst>
 </file>
@@ -4289,7 +4298,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4425,6 +4434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5564,7 +5579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="645">
+  <cellXfs count="648">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6652,38 +6667,33 @@
     <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="23" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="23" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6760,6 +6770,39 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6826,34 +6869,9 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="23" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="23" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="166" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="24" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6863,11 +6881,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FFCC9900"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF66FF66"/>
       <color rgb="FF990099"/>
       <color rgb="FF800080"/>
@@ -10665,23 +10683,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="577"/>
-      <c r="C1" s="579" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="580"/>
-      <c r="E1" s="580"/>
-      <c r="F1" s="580"/>
-      <c r="G1" s="580"/>
-      <c r="H1" s="580"/>
-      <c r="I1" s="580"/>
-      <c r="J1" s="580"/>
-      <c r="K1" s="580"/>
-      <c r="L1" s="580"/>
-      <c r="M1" s="580"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="578"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10691,24 +10709,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="582"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="583" t="s">
+      <c r="H3" s="622" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="583"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="614" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="584" t="s">
+      <c r="R3" s="587" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10723,14 +10741,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="586" t="s">
+      <c r="E4" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="587"/>
-      <c r="H4" s="588" t="s">
+      <c r="F4" s="590"/>
+      <c r="H4" s="591" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="589"/>
+      <c r="I4" s="592"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10740,11 +10758,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="615"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="585"/>
+      <c r="R4" s="588"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -12579,11 +12597,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="595">
+      <c r="M49" s="598">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="595">
+      <c r="N49" s="598">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -12591,7 +12609,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="607">
+      <c r="Q49" s="610">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -12612,10 +12630,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="596"/>
-      <c r="N50" s="596"/>
+      <c r="M50" s="599"/>
+      <c r="N50" s="599"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="608"/>
+      <c r="Q50" s="611"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -12670,11 +12688,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="573">
+      <c r="M53" s="612">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="574"/>
+      <c r="N53" s="613"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13099,26 +13117,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="603" t="s">
+      <c r="H77" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="604"/>
+      <c r="I77" s="607"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="605">
+      <c r="K77" s="608">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="606"/>
+      <c r="L77" s="609"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="597" t="s">
+      <c r="D78" s="600" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="597"/>
+      <c r="E78" s="600"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -13127,22 +13145,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="598" t="s">
+      <c r="D79" s="601" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="598"/>
+      <c r="E79" s="601"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="599" t="s">
+      <c r="I79" s="602" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="600"/>
-      <c r="K79" s="601">
+      <c r="J79" s="603"/>
+      <c r="K79" s="604">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="601"/>
+      <c r="L79" s="604"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13183,11 +13201,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="602">
+      <c r="K81" s="605">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="601"/>
+      <c r="L81" s="604"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13204,22 +13222,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="590" t="s">
+      <c r="D83" s="593" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="591"/>
+      <c r="E83" s="594"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="592" t="s">
+      <c r="I83" s="595" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="593"/>
-      <c r="K83" s="594">
+      <c r="J83" s="596"/>
+      <c r="K83" s="597">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="594"/>
+      <c r="L83" s="597"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -13366,6 +13384,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13382,12 +13406,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14557,10 +14575,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="612" t="s">
+      <c r="I37" s="626" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="613"/>
+      <c r="J37" s="627"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -14579,8 +14597,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="614"/>
-      <c r="J38" s="615"/>
+      <c r="I38" s="628"/>
+      <c r="J38" s="629"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -14599,8 +14617,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="616"/>
-      <c r="J39" s="617"/>
+      <c r="I39" s="630"/>
+      <c r="J39" s="631"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -15158,10 +15176,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="618" t="s">
+      <c r="I67" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="619"/>
+      <c r="J67" s="633"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -15183,11 +15201,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="622" t="s">
+      <c r="G68" s="636" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="627"/>
-      <c r="J68" s="628"/>
+      <c r="I68" s="641"/>
+      <c r="J68" s="642"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15198,7 +15216,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="623"/>
+      <c r="G69" s="637"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -15786,23 +15804,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="577"/>
-      <c r="C1" s="579" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="580"/>
-      <c r="E1" s="580"/>
-      <c r="F1" s="580"/>
-      <c r="G1" s="580"/>
-      <c r="H1" s="580"/>
-      <c r="I1" s="580"/>
-      <c r="J1" s="580"/>
-      <c r="K1" s="580"/>
-      <c r="L1" s="580"/>
-      <c r="M1" s="580"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="578"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15812,27 +15830,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="582"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="583" t="s">
+      <c r="H3" s="622" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="583"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="614" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="629" t="s">
+      <c r="R3" s="643" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15847,14 +15865,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="586" t="s">
+      <c r="E4" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="587"/>
-      <c r="H4" s="588" t="s">
+      <c r="F4" s="590"/>
+      <c r="H4" s="591" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="589"/>
+      <c r="I4" s="592"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15864,11 +15882,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="615"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="630"/>
+      <c r="R4" s="644"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -17924,11 +17942,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="595">
+      <c r="M49" s="598">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="595">
+      <c r="N49" s="598">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -17936,7 +17954,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="607">
+      <c r="Q49" s="610">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -17969,10 +17987,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="596"/>
-      <c r="N50" s="596"/>
+      <c r="M50" s="599"/>
+      <c r="N50" s="599"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="608"/>
+      <c r="Q50" s="611"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -18057,11 +18075,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="573">
+      <c r="M53" s="612">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="574"/>
+      <c r="N53" s="613"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -18390,26 +18408,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="603" t="s">
+      <c r="H69" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="604"/>
+      <c r="I69" s="607"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="605">
+      <c r="K69" s="608">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="606"/>
+      <c r="L69" s="609"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="597" t="s">
+      <c r="D70" s="600" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="597"/>
+      <c r="E70" s="600"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -18418,23 +18436,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="598" t="s">
+      <c r="D71" s="601" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="598"/>
+      <c r="E71" s="601"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="599" t="s">
+      <c r="I71" s="602" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="600"/>
-      <c r="K71" s="601">
+      <c r="J71" s="603"/>
+      <c r="K71" s="604">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="601"/>
+      <c r="L71" s="604"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -18476,11 +18494,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="602">
+      <c r="K73" s="605">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="601"/>
+      <c r="L73" s="604"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -18497,22 +18515,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="590" t="s">
+      <c r="D75" s="593" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="591"/>
+      <c r="E75" s="594"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="592" t="s">
+      <c r="I75" s="595" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="593"/>
-      <c r="K75" s="594">
+      <c r="J75" s="596"/>
+      <c r="K75" s="597">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="594"/>
+      <c r="L75" s="597"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -18660,12 +18678,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18682,6 +18694,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19851,10 +19869,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="612" t="s">
+      <c r="I37" s="626" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="613"/>
+      <c r="J37" s="627"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -19873,8 +19891,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="614"/>
-      <c r="J38" s="615"/>
+      <c r="I38" s="628"/>
+      <c r="J38" s="629"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -19893,8 +19911,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="616"/>
-      <c r="J39" s="617"/>
+      <c r="I39" s="630"/>
+      <c r="J39" s="631"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -20452,10 +20470,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="618" t="s">
+      <c r="I67" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="619"/>
+      <c r="J67" s="633"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -20477,11 +20495,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="622" t="s">
+      <c r="G68" s="636" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="627"/>
-      <c r="J68" s="628"/>
+      <c r="I68" s="641"/>
+      <c r="J68" s="642"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -20492,7 +20510,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="623"/>
+      <c r="G69" s="637"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -21081,23 +21099,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="577"/>
-      <c r="C1" s="579" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="580"/>
-      <c r="E1" s="580"/>
-      <c r="F1" s="580"/>
-      <c r="G1" s="580"/>
-      <c r="H1" s="580"/>
-      <c r="I1" s="580"/>
-      <c r="J1" s="580"/>
-      <c r="K1" s="580"/>
-      <c r="L1" s="580"/>
-      <c r="M1" s="580"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="578"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -21107,25 +21125,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="582"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="583" t="s">
+      <c r="H3" s="622" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="583"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="614" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="629" t="s">
+      <c r="R3" s="643" t="s">
         <v>3</v>
       </c>
     </row>
@@ -21140,14 +21158,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="586" t="s">
+      <c r="E4" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="587"/>
-      <c r="H4" s="588" t="s">
+      <c r="F4" s="590"/>
+      <c r="H4" s="591" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="589"/>
+      <c r="I4" s="592"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -21157,11 +21175,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="615"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="630"/>
+      <c r="R4" s="644"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -23267,13 +23285,13 @@
     </row>
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
-      <c r="B49" s="631">
+      <c r="B49" s="573">
         <v>45124</v>
       </c>
       <c r="C49" s="567">
         <v>12434</v>
       </c>
-      <c r="D49" s="636" t="s">
+      <c r="D49" s="578" t="s">
         <v>1078</v>
       </c>
       <c r="E49" s="104"/>
@@ -23290,11 +23308,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="595">
+      <c r="M49" s="598">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="595">
+      <c r="N49" s="598">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -23302,7 +23320,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="607">
+      <c r="Q49" s="610">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -23335,10 +23353,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="596"/>
-      <c r="N50" s="596"/>
+      <c r="M50" s="599"/>
+      <c r="N50" s="599"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="608"/>
+      <c r="Q50" s="611"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -23376,13 +23394,13 @@
     </row>
     <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
-      <c r="B52" s="632">
+      <c r="B52" s="574">
         <v>45125</v>
       </c>
-      <c r="C52" s="634">
+      <c r="C52" s="576">
         <v>37120</v>
       </c>
-      <c r="D52" s="637" t="s">
+      <c r="D52" s="579" t="s">
         <v>1076</v>
       </c>
       <c r="E52" s="104"/>
@@ -23429,11 +23447,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="573">
+      <c r="M53" s="612">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="574"/>
+      <c r="N53" s="613"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23649,13 +23667,13 @@
     </row>
     <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
-      <c r="B61" s="633">
+      <c r="B61" s="575">
         <v>45132</v>
       </c>
-      <c r="C61" s="635">
+      <c r="C61" s="577">
         <v>119630.7</v>
       </c>
-      <c r="D61" s="639" t="s">
+      <c r="D61" s="581" t="s">
         <v>811</v>
       </c>
       <c r="E61" s="104"/>
@@ -23663,7 +23681,7 @@
       <c r="G61" s="37"/>
       <c r="H61" s="106"/>
       <c r="I61" s="103"/>
-      <c r="J61" s="638"/>
+      <c r="J61" s="580"/>
       <c r="K61" s="349"/>
       <c r="L61" s="68"/>
       <c r="M61" s="113"/>
@@ -23810,26 +23828,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="603" t="s">
+      <c r="H69" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="604"/>
+      <c r="I69" s="607"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="605">
+      <c r="K69" s="608">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="606"/>
+      <c r="L69" s="609"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="597" t="s">
+      <c r="D70" s="600" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="597"/>
+      <c r="E70" s="600"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -23838,22 +23856,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="598" t="s">
+      <c r="D71" s="601" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="598"/>
+      <c r="E71" s="601"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="599" t="s">
+      <c r="I71" s="602" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="600"/>
-      <c r="K71" s="601">
+      <c r="J71" s="603"/>
+      <c r="K71" s="604">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="601"/>
+      <c r="L71" s="604"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -23898,11 +23916,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="602">
+      <c r="K73" s="605">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="601"/>
+      <c r="L73" s="604"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -23923,22 +23941,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="590" t="s">
+      <c r="D75" s="593" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="591"/>
+      <c r="E75" s="594"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="592" t="s">
+      <c r="I75" s="595" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="593"/>
-      <c r="K75" s="594">
+      <c r="J75" s="596"/>
+      <c r="K75" s="597">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="594"/>
+      <c r="L75" s="597"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -24086,12 +24104,6 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24108,6 +24120,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25293,10 +25311,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="612" t="s">
+      <c r="I37" s="626" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="613"/>
+      <c r="J37" s="627"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -25321,8 +25339,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="614"/>
-      <c r="J38" s="615"/>
+      <c r="I38" s="628"/>
+      <c r="J38" s="629"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -25347,8 +25365,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="616"/>
-      <c r="J39" s="617"/>
+      <c r="I39" s="630"/>
+      <c r="J39" s="631"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -25954,10 +25972,10 @@
         <f>SUM(G3:G66)</f>
         <v>917631.77</v>
       </c>
-      <c r="I67" s="618" t="s">
+      <c r="I67" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="619"/>
+      <c r="J67" s="633"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -25979,11 +25997,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="622" t="s">
+      <c r="G68" s="636" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="627"/>
-      <c r="J68" s="628"/>
+      <c r="I68" s="641"/>
+      <c r="J68" s="642"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -25994,7 +26012,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="623"/>
+      <c r="G69" s="637"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -26555,8 +26573,8 @@
   </sheetPr>
   <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26582,23 +26600,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="577"/>
-      <c r="C1" s="579" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="580"/>
-      <c r="E1" s="580"/>
-      <c r="F1" s="580"/>
-      <c r="G1" s="580"/>
-      <c r="H1" s="580"/>
-      <c r="I1" s="580"/>
-      <c r="J1" s="580"/>
-      <c r="K1" s="580"/>
-      <c r="L1" s="580"/>
-      <c r="M1" s="580"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="578"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -26608,25 +26626,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="582"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="583" t="s">
+      <c r="H3" s="622" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="583"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="614" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="629" t="s">
+      <c r="R3" s="643" t="s">
         <v>3</v>
       </c>
     </row>
@@ -26641,14 +26659,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="586" t="s">
+      <c r="E4" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="587"/>
-      <c r="H4" s="588" t="s">
+      <c r="F4" s="590"/>
+      <c r="H4" s="591" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="589"/>
+      <c r="I4" s="592"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -26658,11 +26676,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="615"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="630"/>
+      <c r="R4" s="644"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -28566,11 +28584,15 @@
     </row>
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="93">
-        <v>0</v>
-      </c>
-      <c r="D42" s="102"/>
+      <c r="B42" s="32">
+        <v>45138</v>
+      </c>
+      <c r="C42" s="567">
+        <v>11424</v>
+      </c>
+      <c r="D42" s="645" t="s">
+        <v>1081</v>
+      </c>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
       <c r="G42" s="37"/>
@@ -28604,11 +28626,15 @@
     </row>
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="93">
-        <v>0</v>
-      </c>
-      <c r="D43" s="102"/>
+      <c r="B43" s="32">
+        <v>45138</v>
+      </c>
+      <c r="C43" s="646">
+        <v>119367.11</v>
+      </c>
+      <c r="D43" s="647" t="s">
+        <v>1083</v>
+      </c>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
       <c r="G43" s="37"/>
@@ -28687,10 +28713,10 @@
       <c r="B45" s="32">
         <v>45139</v>
       </c>
-      <c r="C45" s="640">
+      <c r="C45" s="582">
         <v>37120</v>
       </c>
-      <c r="D45" s="641" t="s">
+      <c r="D45" s="583" t="s">
         <v>1080</v>
       </c>
       <c r="E45" s="35"/>
@@ -28813,10 +28839,12 @@
       <c r="B48" s="32">
         <v>45145</v>
       </c>
-      <c r="C48" s="640">
+      <c r="C48" s="582">
         <v>801820</v>
       </c>
-      <c r="D48" s="642"/>
+      <c r="D48" s="584" t="s">
+        <v>1082</v>
+      </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
       <c r="G48" s="37"/>
@@ -28856,11 +28884,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="595">
+      <c r="M49" s="598">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="595">
+      <c r="N49" s="598">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -28868,7 +28896,7 @@
         <f>SUM(P5:P40)</f>
         <v>5879880.54</v>
       </c>
-      <c r="Q49" s="607">
+      <c r="Q49" s="610">
         <f>SUM(Q5:Q40)</f>
         <v>-242641.46</v>
       </c>
@@ -28901,10 +28929,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="596"/>
-      <c r="N50" s="596"/>
+      <c r="M50" s="599"/>
+      <c r="N50" s="599"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="608"/>
+      <c r="Q50" s="611"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -28995,11 +29023,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="573">
+      <c r="M53" s="612">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="574"/>
+      <c r="N53" s="613"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -29035,7 +29063,7 @@
     </row>
     <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
-      <c r="B55" s="631">
+      <c r="B55" s="573">
         <v>45153</v>
       </c>
       <c r="C55" s="93">
@@ -29065,7 +29093,7 @@
     </row>
     <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
-      <c r="B56" s="631">
+      <c r="B56" s="573">
         <v>45156</v>
       </c>
       <c r="C56" s="93">
@@ -29095,7 +29123,7 @@
     </row>
     <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
-      <c r="B57" s="631">
+      <c r="B57" s="573">
         <v>45156</v>
       </c>
       <c r="C57" s="93">
@@ -29335,10 +29363,10 @@
       <c r="B65" s="134">
         <v>45159</v>
       </c>
-      <c r="C65" s="643">
+      <c r="C65" s="585">
         <v>732290</v>
       </c>
-      <c r="D65" s="644" t="s">
+      <c r="D65" s="586" t="s">
         <v>1079</v>
       </c>
       <c r="E65" s="136"/>
@@ -29672,7 +29700,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C4:C78)</f>
-        <v>6302897.8699999982</v>
+        <v>6433688.9799999986</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -29714,50 +29742,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="603" t="s">
+      <c r="H81" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="604"/>
+      <c r="I81" s="607"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="605">
+      <c r="K81" s="608">
         <f>I79+L79</f>
         <v>537501.87</v>
       </c>
-      <c r="L81" s="606"/>
+      <c r="L81" s="609"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="597" t="s">
+      <c r="D82" s="600" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="597"/>
+      <c r="E82" s="600"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-864399.73999999836</v>
+        <v>-995190.8499999987</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="598" t="s">
+      <c r="D83" s="601" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="598"/>
+      <c r="E83" s="601"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="599" t="s">
+      <c r="I83" s="602" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="600"/>
-      <c r="K83" s="601">
+      <c r="J83" s="603"/>
+      <c r="K83" s="604">
         <f>F85+F86+F87</f>
-        <v>925006.01000000164</v>
-      </c>
-      <c r="L83" s="601"/>
+        <v>794214.9000000013</v>
+      </c>
+      <c r="L83" s="604"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -29791,18 +29819,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-2340887.6499999985</v>
+        <v>-2471678.7599999988</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="602">
+      <c r="K85" s="605">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="601"/>
+      <c r="L85" s="604"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -29820,22 +29848,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="590" t="s">
+      <c r="D87" s="593" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="591"/>
+      <c r="E87" s="594"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="592" t="s">
+      <c r="I87" s="595" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="593"/>
-      <c r="K87" s="594">
+      <c r="J87" s="596"/>
+      <c r="K87" s="597">
         <f>K83+K85</f>
-        <v>-1895545.2999999984</v>
-      </c>
-      <c r="L87" s="594"/>
+        <v>-2026336.4099999988</v>
+      </c>
+      <c r="L87" s="597"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -29983,6 +30011,12 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29999,12 +30033,6 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30019,7 +30047,7 @@
   </sheetPr>
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
@@ -31581,10 +31609,10 @@
         <f t="shared" si="0"/>
         <v>11880</v>
       </c>
-      <c r="I49" s="612" t="s">
+      <c r="I49" s="626" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="613"/>
+      <c r="J49" s="627"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -31609,8 +31637,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="614"/>
-      <c r="J50" s="615"/>
+      <c r="I50" s="628"/>
+      <c r="J50" s="629"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -31635,8 +31663,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="616"/>
-      <c r="J51" s="617"/>
+      <c r="I51" s="630"/>
+      <c r="J51" s="631"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -31996,10 +32024,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="618" t="s">
+      <c r="I65" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="619"/>
+      <c r="J65" s="633"/>
       <c r="K65" s="562">
         <f>SUM(K3:K64)</f>
         <v>226585.60000000003</v>
@@ -32028,8 +32056,8 @@
         <f t="shared" ref="G66:G68" si="2">D66-F66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="627"/>
-      <c r="J66" s="628"/>
+      <c r="I66" s="641"/>
+      <c r="J66" s="642"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -32105,7 +32133,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="622" t="s">
+      <c r="G70" s="636" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -32121,7 +32149,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="623"/>
+      <c r="G71" s="637"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="552"/>
@@ -34009,10 +34037,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="609"/>
-      <c r="J36" s="610"/>
-      <c r="K36" s="610"/>
-      <c r="L36" s="611"/>
+      <c r="I36" s="623"/>
+      <c r="J36" s="624"/>
+      <c r="K36" s="624"/>
+      <c r="L36" s="625"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -34039,10 +34067,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="609"/>
-      <c r="J37" s="610"/>
-      <c r="K37" s="610"/>
-      <c r="L37" s="611"/>
+      <c r="I37" s="623"/>
+      <c r="J37" s="624"/>
+      <c r="K37" s="624"/>
+      <c r="L37" s="625"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -34099,10 +34127,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="612" t="s">
+      <c r="I40" s="626" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="613"/>
+      <c r="J40" s="627"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -34121,8 +34149,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="614"/>
-      <c r="J41" s="615"/>
+      <c r="I41" s="628"/>
+      <c r="J41" s="629"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -34141,8 +34169,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="616"/>
-      <c r="J42" s="617"/>
+      <c r="I42" s="630"/>
+      <c r="J42" s="631"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -34646,10 +34674,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="618" t="s">
+      <c r="I67" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="619"/>
+      <c r="J67" s="633"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -34669,11 +34697,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="622" t="s">
+      <c r="G68" s="636" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="620"/>
-      <c r="J68" s="621"/>
+      <c r="I68" s="634"/>
+      <c r="J68" s="635"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -34684,7 +34712,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="623"/>
+      <c r="G69" s="637"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -35315,23 +35343,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="577"/>
-      <c r="C1" s="579" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="580"/>
-      <c r="E1" s="580"/>
-      <c r="F1" s="580"/>
-      <c r="G1" s="580"/>
-      <c r="H1" s="580"/>
-      <c r="I1" s="580"/>
-      <c r="J1" s="580"/>
-      <c r="K1" s="580"/>
-      <c r="L1" s="580"/>
-      <c r="M1" s="580"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="578"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -35341,24 +35369,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="582"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="583" t="s">
+      <c r="H3" s="622" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="583"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="614" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="584" t="s">
+      <c r="R3" s="587" t="s">
         <v>3</v>
       </c>
     </row>
@@ -35373,14 +35401,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="586" t="s">
+      <c r="E4" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="587"/>
-      <c r="H4" s="588" t="s">
+      <c r="F4" s="590"/>
+      <c r="H4" s="591" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="589"/>
+      <c r="I4" s="592"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -35390,11 +35418,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="615"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="585"/>
+      <c r="R4" s="588"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -37370,11 +37398,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="595">
+      <c r="M49" s="598">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="595">
+      <c r="N49" s="598">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -37382,7 +37410,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="607">
+      <c r="Q49" s="610">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -37415,10 +37443,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="596"/>
-      <c r="N50" s="596"/>
+      <c r="M50" s="599"/>
+      <c r="N50" s="599"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="608"/>
+      <c r="Q50" s="611"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -37509,11 +37537,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="573">
+      <c r="M53" s="612">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="574"/>
+      <c r="N53" s="613"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -38072,26 +38100,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="603" t="s">
+      <c r="H77" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="604"/>
+      <c r="I77" s="607"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="605">
+      <c r="K77" s="608">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="606"/>
+      <c r="L77" s="609"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="597" t="s">
+      <c r="D78" s="600" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="597"/>
+      <c r="E78" s="600"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -38100,22 +38128,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="598" t="s">
+      <c r="D79" s="601" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="598"/>
+      <c r="E79" s="601"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="599" t="s">
+      <c r="I79" s="602" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="600"/>
-      <c r="K79" s="601">
+      <c r="J79" s="603"/>
+      <c r="K79" s="604">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="601"/>
+      <c r="L79" s="604"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -38156,11 +38184,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="602">
+      <c r="K81" s="605">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="601"/>
+      <c r="L81" s="604"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -38177,22 +38205,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="590" t="s">
+      <c r="D83" s="593" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="591"/>
+      <c r="E83" s="594"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="624" t="s">
+      <c r="I83" s="638" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="625"/>
-      <c r="K83" s="626">
+      <c r="J83" s="639"/>
+      <c r="K83" s="640">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="626"/>
+      <c r="L83" s="640"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -38339,12 +38367,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -38361,6 +38383,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39772,10 +39800,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="609"/>
-      <c r="J36" s="610"/>
-      <c r="K36" s="610"/>
-      <c r="L36" s="611"/>
+      <c r="I36" s="623"/>
+      <c r="J36" s="624"/>
+      <c r="K36" s="624"/>
+      <c r="L36" s="625"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -39802,10 +39830,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="609"/>
-      <c r="J37" s="610"/>
-      <c r="K37" s="610"/>
-      <c r="L37" s="611"/>
+      <c r="I37" s="623"/>
+      <c r="J37" s="624"/>
+      <c r="K37" s="624"/>
+      <c r="L37" s="625"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -39872,10 +39900,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="612" t="s">
+      <c r="I40" s="626" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="613"/>
+      <c r="J40" s="627"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -39894,8 +39922,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="614"/>
-      <c r="J41" s="615"/>
+      <c r="I41" s="628"/>
+      <c r="J41" s="629"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -39914,8 +39942,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="616"/>
-      <c r="J42" s="617"/>
+      <c r="I42" s="630"/>
+      <c r="J42" s="631"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -40419,10 +40447,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="618" t="s">
+      <c r="I67" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="619"/>
+      <c r="J67" s="633"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -40442,11 +40470,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="622" t="s">
+      <c r="G68" s="636" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="627"/>
-      <c r="J68" s="628"/>
+      <c r="I68" s="641"/>
+      <c r="J68" s="642"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -40457,7 +40485,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="623"/>
+      <c r="G69" s="637"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -41072,23 +41100,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="577"/>
-      <c r="C1" s="579" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="580"/>
-      <c r="E1" s="580"/>
-      <c r="F1" s="580"/>
-      <c r="G1" s="580"/>
-      <c r="H1" s="580"/>
-      <c r="I1" s="580"/>
-      <c r="J1" s="580"/>
-      <c r="K1" s="580"/>
-      <c r="L1" s="580"/>
-      <c r="M1" s="580"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="578"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -41098,24 +41126,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="582"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="583" t="s">
+      <c r="H3" s="622" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="583"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="614" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="629" t="s">
+      <c r="R3" s="643" t="s">
         <v>3</v>
       </c>
     </row>
@@ -41130,14 +41158,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="586" t="s">
+      <c r="E4" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="587"/>
-      <c r="H4" s="588" t="s">
+      <c r="F4" s="590"/>
+      <c r="H4" s="591" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="589"/>
+      <c r="I4" s="592"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -41147,11 +41175,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="615"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="630"/>
+      <c r="R4" s="644"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -43132,11 +43160,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="595">
+      <c r="M49" s="598">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="595">
+      <c r="N49" s="598">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -43144,7 +43172,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="607">
+      <c r="Q49" s="610">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -43177,10 +43205,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="596"/>
-      <c r="N50" s="596"/>
+      <c r="M50" s="599"/>
+      <c r="N50" s="599"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="608"/>
+      <c r="Q50" s="611"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -43271,11 +43299,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="573">
+      <c r="M53" s="612">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="574"/>
+      <c r="N53" s="613"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -43754,26 +43782,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="603" t="s">
+      <c r="H77" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="604"/>
+      <c r="I77" s="607"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="605">
+      <c r="K77" s="608">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="606"/>
+      <c r="L77" s="609"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="597" t="s">
+      <c r="D78" s="600" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="597"/>
+      <c r="E78" s="600"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -43782,22 +43810,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="598" t="s">
+      <c r="D79" s="601" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="598"/>
+      <c r="E79" s="601"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="599" t="s">
+      <c r="I79" s="602" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="600"/>
-      <c r="K79" s="601">
+      <c r="J79" s="603"/>
+      <c r="K79" s="604">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="601"/>
+      <c r="L79" s="604"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -43838,11 +43866,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="602">
+      <c r="K81" s="605">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="601"/>
+      <c r="L81" s="604"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -43859,22 +43887,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="590" t="s">
+      <c r="D83" s="593" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="591"/>
+      <c r="E83" s="594"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="592" t="s">
+      <c r="I83" s="595" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="593"/>
-      <c r="K83" s="594">
+      <c r="J83" s="596"/>
+      <c r="K83" s="597">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="594"/>
+      <c r="L83" s="597"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -44021,6 +44049,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44037,12 +44071,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45345,10 +45373,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="609"/>
-      <c r="J36" s="610"/>
-      <c r="K36" s="610"/>
-      <c r="L36" s="611"/>
+      <c r="I36" s="623"/>
+      <c r="J36" s="624"/>
+      <c r="K36" s="624"/>
+      <c r="L36" s="625"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -45365,10 +45393,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="609"/>
-      <c r="J37" s="610"/>
-      <c r="K37" s="610"/>
-      <c r="L37" s="611"/>
+      <c r="I37" s="623"/>
+      <c r="J37" s="624"/>
+      <c r="K37" s="624"/>
+      <c r="L37" s="625"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -45425,10 +45453,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="612" t="s">
+      <c r="I40" s="626" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="613"/>
+      <c r="J40" s="627"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -45447,8 +45475,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="614"/>
-      <c r="J41" s="615"/>
+      <c r="I41" s="628"/>
+      <c r="J41" s="629"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -45467,8 +45495,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="616"/>
-      <c r="J42" s="617"/>
+      <c r="I42" s="630"/>
+      <c r="J42" s="631"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -45972,10 +46000,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="618" t="s">
+      <c r="I67" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="619"/>
+      <c r="J67" s="633"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -45995,11 +46023,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="622" t="s">
+      <c r="G68" s="636" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="627"/>
-      <c r="J68" s="628"/>
+      <c r="I68" s="641"/>
+      <c r="J68" s="642"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -46010,7 +46038,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="623"/>
+      <c r="G69" s="637"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -46616,23 +46644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="577"/>
-      <c r="C1" s="579" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="580"/>
-      <c r="E1" s="580"/>
-      <c r="F1" s="580"/>
-      <c r="G1" s="580"/>
-      <c r="H1" s="580"/>
-      <c r="I1" s="580"/>
-      <c r="J1" s="580"/>
-      <c r="K1" s="580"/>
-      <c r="L1" s="580"/>
-      <c r="M1" s="580"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="578"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -46642,24 +46670,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="582"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="583" t="s">
+      <c r="H3" s="622" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="583"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="614" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="629" t="s">
+      <c r="R3" s="643" t="s">
         <v>3</v>
       </c>
     </row>
@@ -46674,14 +46702,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="586" t="s">
+      <c r="E4" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="587"/>
-      <c r="H4" s="588" t="s">
+      <c r="F4" s="590"/>
+      <c r="H4" s="591" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="589"/>
+      <c r="I4" s="592"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -46691,11 +46719,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="615"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="630"/>
+      <c r="R4" s="644"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -48716,11 +48744,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="595">
+      <c r="M49" s="598">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="595">
+      <c r="N49" s="598">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -48728,7 +48756,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="607">
+      <c r="Q49" s="610">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -48755,10 +48783,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="596"/>
-      <c r="N50" s="596"/>
+      <c r="M50" s="599"/>
+      <c r="N50" s="599"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="608"/>
+      <c r="Q50" s="611"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -48832,11 +48860,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="573">
+      <c r="M53" s="612">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="574"/>
+      <c r="N53" s="613"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -49465,26 +49493,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="603" t="s">
+      <c r="H79" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="604"/>
+      <c r="I79" s="607"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="605">
+      <c r="K79" s="608">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="606"/>
+      <c r="L79" s="609"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="597" t="s">
+      <c r="D80" s="600" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="597"/>
+      <c r="E80" s="600"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -49493,22 +49521,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="598" t="s">
+      <c r="D81" s="601" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="598"/>
+      <c r="E81" s="601"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="599" t="s">
+      <c r="I81" s="602" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="600"/>
-      <c r="K81" s="601">
+      <c r="J81" s="603"/>
+      <c r="K81" s="604">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="601"/>
+      <c r="L81" s="604"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -49549,11 +49577,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="602">
+      <c r="K83" s="605">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="601"/>
+      <c r="L83" s="604"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -49570,22 +49598,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="590" t="s">
+      <c r="D85" s="593" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="591"/>
+      <c r="E85" s="594"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="592" t="s">
+      <c r="I85" s="595" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="593"/>
-      <c r="K85" s="594">
+      <c r="J85" s="596"/>
+      <c r="K85" s="597">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="594"/>
+      <c r="L85" s="597"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -49733,12 +49761,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49755,6 +49777,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51074,10 +51102,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="609"/>
-      <c r="J36" s="610"/>
-      <c r="K36" s="610"/>
-      <c r="L36" s="611"/>
+      <c r="I36" s="623"/>
+      <c r="J36" s="624"/>
+      <c r="K36" s="624"/>
+      <c r="L36" s="625"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -51100,10 +51128,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="609"/>
-      <c r="J37" s="610"/>
-      <c r="K37" s="610"/>
-      <c r="L37" s="611"/>
+      <c r="I37" s="623"/>
+      <c r="J37" s="624"/>
+      <c r="K37" s="624"/>
+      <c r="L37" s="625"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -51178,10 +51206,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="612" t="s">
+      <c r="I40" s="626" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="613"/>
+      <c r="J40" s="627"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -51206,8 +51234,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="614"/>
-      <c r="J41" s="615"/>
+      <c r="I41" s="628"/>
+      <c r="J41" s="629"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -51232,8 +51260,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="616"/>
-      <c r="J42" s="617"/>
+      <c r="I42" s="630"/>
+      <c r="J42" s="631"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -51755,10 +51783,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="618" t="s">
+      <c r="I67" s="632" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="619"/>
+      <c r="J67" s="633"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -51778,11 +51806,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="622" t="s">
+      <c r="G68" s="636" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="627"/>
-      <c r="J68" s="628"/>
+      <c r="I68" s="641"/>
+      <c r="J68" s="642"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -51793,7 +51821,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="623"/>
+      <c r="G69" s="637"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -52409,23 +52437,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="577"/>
-      <c r="C1" s="579" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="580"/>
-      <c r="E1" s="580"/>
-      <c r="F1" s="580"/>
-      <c r="G1" s="580"/>
-      <c r="H1" s="580"/>
-      <c r="I1" s="580"/>
-      <c r="J1" s="580"/>
-      <c r="K1" s="580"/>
-      <c r="L1" s="580"/>
-      <c r="M1" s="580"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="578"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -52435,27 +52463,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="582"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="583" t="s">
+      <c r="H3" s="622" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="583"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="575" t="s">
+      <c r="P3" s="614" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="629" t="s">
+      <c r="R3" s="643" t="s">
         <v>3</v>
       </c>
     </row>
@@ -52470,14 +52498,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="586" t="s">
+      <c r="E4" s="589" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="587"/>
-      <c r="H4" s="588" t="s">
+      <c r="F4" s="590"/>
+      <c r="H4" s="591" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="589"/>
+      <c r="I4" s="592"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -52487,11 +52515,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="576"/>
+      <c r="P4" s="615"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="630"/>
+      <c r="R4" s="644"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -54494,11 +54522,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="595">
+      <c r="M49" s="598">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="595">
+      <c r="N49" s="598">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -54506,7 +54534,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="607">
+      <c r="Q49" s="610">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -54539,10 +54567,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="596"/>
-      <c r="N50" s="596"/>
+      <c r="M50" s="599"/>
+      <c r="N50" s="599"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="608"/>
+      <c r="Q50" s="611"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -54621,11 +54649,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="573">
+      <c r="M53" s="612">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="574"/>
+      <c r="N53" s="613"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -55104,26 +55132,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="603" t="s">
+      <c r="H77" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="604"/>
+      <c r="I77" s="607"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="605">
+      <c r="K77" s="608">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="606"/>
+      <c r="L77" s="609"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="597" t="s">
+      <c r="D78" s="600" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="597"/>
+      <c r="E78" s="600"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -55132,22 +55160,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="598" t="s">
+      <c r="D79" s="601" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="598"/>
+      <c r="E79" s="601"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="599" t="s">
+      <c r="I79" s="602" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="600"/>
-      <c r="K79" s="601">
+      <c r="J79" s="603"/>
+      <c r="K79" s="604">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="601"/>
+      <c r="L79" s="604"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -55188,11 +55216,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="602">
+      <c r="K81" s="605">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="601"/>
+      <c r="L81" s="604"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -55209,22 +55237,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="590" t="s">
+      <c r="D83" s="593" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="591"/>
+      <c r="E83" s="594"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="624" t="s">
+      <c r="I83" s="638" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="625"/>
-      <c r="K83" s="626">
+      <c r="J83" s="639"/>
+      <c r="K83" s="640">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="626"/>
+      <c r="L83" s="640"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -55372,6 +55400,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -55388,12 +55422,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
